--- a/VTRS.xlsx
+++ b/VTRS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC244ED-DD97-49FB-AC76-CFA3D2577D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D265DF-024B-4757-B580-FFCF3EDDEF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="5430" windowWidth="20310" windowHeight="9705" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
+    <workbookView xWindow="17460" yWindow="5250" windowWidth="31935" windowHeight="13605" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>Price</t>
   </si>
@@ -56,16 +57,288 @@
   </si>
   <si>
     <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Pretax</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Held for Sale</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Litigation</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Debt &amp; Other</t>
+  </si>
+  <si>
+    <t>SBC Taxes</t>
+  </si>
+  <si>
+    <t>CoCo</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>Product Rights</t>
+  </si>
+  <si>
+    <t>Sale of Assets</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>JANZ</t>
+  </si>
+  <si>
+    <t>Emerging</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Complex/BS</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Lipitor</t>
+  </si>
+  <si>
+    <t>Norvasc</t>
+  </si>
+  <si>
+    <t>Lyrica</t>
+  </si>
+  <si>
+    <t>Viagra</t>
+  </si>
+  <si>
+    <t>EpiPen</t>
+  </si>
+  <si>
+    <t>Celebrex</t>
+  </si>
+  <si>
+    <t>Creon</t>
+  </si>
+  <si>
+    <t>Effexor</t>
+  </si>
+  <si>
+    <t>Zoloft</t>
+  </si>
+  <si>
+    <t>Xala</t>
+  </si>
+  <si>
+    <t>Dymista</t>
+  </si>
+  <si>
+    <t>Yupelri</t>
+  </si>
+  <si>
+    <t>Amitiza</t>
+  </si>
+  <si>
+    <t>Xanax</t>
+  </si>
+  <si>
+    <t>Formed November 2020</t>
+  </si>
+  <si>
+    <t>CEO: Michael Goettler</t>
+  </si>
+  <si>
+    <t>CFO: Sanjeev Narula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -87,18 +360,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E017A8A-799D-4C3F-B6D7-D970F67C6431}">
-  <dimension ref="L2:N7"/>
+  <dimension ref="L2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -424,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>10.039999999999999</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -432,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1212.326908</v>
+        <v>1212.5809400000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -444,7 +733,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>12171.762156319999</v>
+        <v>10537.3283686</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -477,10 +766,1894 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>30837.262156320001</v>
+        <v>29202.8283686</v>
+      </c>
+    </row>
+    <row r="9" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2229FB-F424-40E9-A974-86FFAA24DCFE}">
+  <dimension ref="A1:N90"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
+        <v>2701.7</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
+        <v>2483.1</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <v>332.8</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>354.8</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>1527.2</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>1267.5</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>2640.4</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>2479.1</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <v>550.29999999999995</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <v>501</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <v>427.1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <v>870</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
+        <v>650.9</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <v>398.3</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>405.6</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <v>209.8</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
+        <v>203</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <v>192.5</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7">
+        <v>115.1</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <v>104.1</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>106.5</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <v>82.3</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>85.9</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <v>80.7</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
+        <v>83.5</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
+        <v>73.7</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <v>42.7</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>54.6</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>49.1</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <v>48.8</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
+        <v>4400.1000000000004</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4561.7</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7">
+        <v>4178.2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>4105.3999999999996</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>30.2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="L28" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9">
+        <f>+G27+G28</f>
+        <v>4430.3</v>
+      </c>
+      <c r="H29" s="9">
+        <f>+H27+H28</f>
+        <v>4577.8</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9">
+        <f>+K27+K28</f>
+        <v>4191.7</v>
+      </c>
+      <c r="L29" s="9">
+        <f>+L27+L28</f>
+        <v>4116.7999999999993</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>3303</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3250.1</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7">
+        <v>2420.5</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2413.5</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
+        <f>+G29-G30</f>
+        <v>1127.3000000000002</v>
+      </c>
+      <c r="H31" s="7">
+        <f>+H29-H30</f>
+        <v>1327.7000000000003</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7">
+        <f>+K29-K30</f>
+        <v>1771.1999999999998</v>
+      </c>
+      <c r="L31" s="7">
+        <f>+L29-L30</f>
+        <v>1703.2999999999993</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>184.1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="L32" s="7">
+        <v>162.6</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>1186.5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1204.8</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
+        <v>915.3</v>
+      </c>
+      <c r="L33" s="7">
+        <v>981.1</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <f>+G32+G33</f>
+        <v>1370.6</v>
+      </c>
+      <c r="H34" s="7">
+        <f>+H32+H33</f>
+        <v>1352.5</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7">
+        <f>+K32+K33</f>
+        <v>1057.5999999999999</v>
+      </c>
+      <c r="L34" s="7">
+        <f>+L32+L33</f>
+        <v>1143.7</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <f>+G31-G34</f>
+        <v>-243.29999999999973</v>
+      </c>
+      <c r="H35" s="7">
+        <f>+H31-H34</f>
+        <v>-24.799999999999727</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
+        <f>+K31-K34</f>
+        <v>713.59999999999991</v>
+      </c>
+      <c r="L35" s="7">
+        <f>+L31-L34</f>
+        <v>559.59999999999923</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <f>-169-6.1</f>
+        <v>-175.1</v>
+      </c>
+      <c r="H36" s="7">
+        <f>-167.1-4.2</f>
+        <v>-171.29999999999998</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
+        <f>-146.2-33.7</f>
+        <v>-179.89999999999998</v>
+      </c>
+      <c r="L36" s="7">
+        <f>-145.9-13.5</f>
+        <v>-159.4</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <f>+G35+G36</f>
+        <v>-418.39999999999975</v>
+      </c>
+      <c r="H37" s="7">
+        <f>+H35+H36</f>
+        <v>-196.09999999999971</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7">
+        <f>+K35+K36</f>
+        <v>533.69999999999993</v>
+      </c>
+      <c r="L37" s="7">
+        <f>+L35+L36</f>
+        <v>400.19999999999925</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
+        <v>596.29999999999995</v>
+      </c>
+      <c r="H38" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L38" s="7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7">
+        <f>+G37-G38</f>
+        <v>-1014.6999999999997</v>
+      </c>
+      <c r="H39" s="7">
+        <f>+H37-H38</f>
+        <v>-256.1999999999997</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7">
+        <f>+K37-K38</f>
+        <v>405.39999999999992</v>
+      </c>
+      <c r="L39" s="7">
+        <f>+L37-L38</f>
+        <v>324.79999999999927</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5">
+        <f>+G39/G41</f>
+        <v>-0.8403312629399583</v>
+      </c>
+      <c r="H40" s="5">
+        <f>+H39/H41</f>
+        <v>-0.21194573130377209</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
+        <f>+K39/K41</f>
+        <v>0.33418514549501271</v>
+      </c>
+      <c r="L40" s="5">
+        <f>+L39/L41</f>
+        <v>0.26686385670856899</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <v>1207.5</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1208.8</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7">
+        <v>1213.0999999999999</v>
+      </c>
+      <c r="L41" s="7">
+        <v>1217.0999999999999</v>
+      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="4">
+        <f>L29/H29-1</f>
+        <v>-0.10070339464371547</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="4">
+        <f>+G31/G29</f>
+        <v>0.254452294427014</v>
+      </c>
+      <c r="H45" s="4">
+        <f>+H31/H29</f>
+        <v>0.29003014548473072</v>
+      </c>
+      <c r="K45" s="4">
+        <f>+K31/K29</f>
+        <v>0.42254932366343007</v>
+      </c>
+      <c r="L45" s="4">
+        <f>+L31/L29</f>
+        <v>0.41374368441507958</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7">
+        <v>752.4</v>
+      </c>
+      <c r="L47" s="7">
+        <v>664.7</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7">
+        <v>4093.9</v>
+      </c>
+      <c r="L48" s="7">
+        <v>3736.2</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7">
+        <v>3797.3</v>
+      </c>
+      <c r="L49" s="7">
+        <v>3612.5</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7">
+        <v>1763.6</v>
+      </c>
+      <c r="L50" s="7">
+        <v>1697.7</v>
+      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7">
+        <v>1337.1</v>
+      </c>
+      <c r="L51" s="7">
+        <v>1465.4</v>
+      </c>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7">
+        <v>3150.2</v>
+      </c>
+      <c r="L52" s="7">
+        <v>3083.9</v>
+      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7">
+        <f>25251.8+10978.8</f>
+        <v>36230.6</v>
+      </c>
+      <c r="L53" s="7">
+        <f>24101.1+10523</f>
+        <v>34624.1</v>
+      </c>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7">
+        <v>1285.8</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1243.2</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7">
+        <v>1056</v>
+      </c>
+      <c r="L55" s="7">
+        <v>997.4</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7">
+        <f>SUM(K47:K55)</f>
+        <v>53466.9</v>
+      </c>
+      <c r="L56" s="7">
+        <f>SUM(L47:L55)</f>
+        <v>51125.1</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7">
+        <v>1499.6</v>
+      </c>
+      <c r="L58" s="7">
+        <v>1670.1</v>
+      </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7">
+        <f>655.4+18762.5+2606.1</f>
+        <v>22024</v>
+      </c>
+      <c r="L59" s="7">
+        <f>1019.7+19206.4+768.2</f>
+        <v>20994.300000000003</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7">
+        <f>177.8+2729.5</f>
+        <v>2907.3</v>
+      </c>
+      <c r="L60" s="7">
+        <f>125.7+2617.9</f>
+        <v>2743.6</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7">
+        <v>277.7</v>
+      </c>
+      <c r="L61" s="7">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7">
+        <v>4426.3</v>
+      </c>
+      <c r="L62" s="7">
+        <v>3812.4</v>
+      </c>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7">
+        <v>1884.3</v>
+      </c>
+      <c r="L63" s="7">
+        <v>1814.2</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7">
+        <v>20447.7</v>
+      </c>
+      <c r="L64" s="7">
+        <v>19805.400000000001</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7">
+        <f>SUM(K58:K64)</f>
+        <v>53466.899999999994</v>
+      </c>
+      <c r="L65" s="7">
+        <f>SUM(L58:L64)</f>
+        <v>51125.100000000006</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7">
+        <f>+K39</f>
+        <v>405.39999999999992</v>
+      </c>
+      <c r="L67" s="7">
+        <f>+L39</f>
+        <v>324.79999999999927</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7">
+        <v>399.2</v>
+      </c>
+      <c r="L68" s="7">
+        <f>713.1-K68</f>
+        <v>313.90000000000003</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7">
+        <v>736</v>
+      </c>
+      <c r="L69" s="7">
+        <f>1458.3-K69</f>
+        <v>722.3</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="L70" s="7">
+        <f>57.7-K70</f>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+    </row>
+    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7">
+        <v>-52.8</v>
+      </c>
+      <c r="L71" s="7">
+        <f>-157.6-K71</f>
+        <v>-104.8</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7">
+        <v>-0.1</v>
+      </c>
+      <c r="L72" s="7">
+        <f>0-K72</f>
+        <v>0.1</v>
+      </c>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="L73" s="7">
+        <f>3.8-K73</f>
+        <v>-34</v>
+      </c>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="L74" s="7">
+        <f>10-K74</f>
+        <v>4.8</v>
+      </c>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7">
+        <f>-115.5-69.1-30.2+67+132.7</f>
+        <v>-15.099999999999994</v>
+      </c>
+      <c r="L75" s="7">
+        <f>-142.3-270.1+254.5+17.8-4.2-K75</f>
+        <v>-129.20000000000002</v>
+      </c>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="76" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7">
+        <f>SUM(K68:K75)</f>
+        <v>1138.5000000000002</v>
+      </c>
+      <c r="L76" s="7">
+        <f>SUM(L68:L75)</f>
+        <v>802.50000000000011</v>
+      </c>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7">
+        <v>-64.5</v>
+      </c>
+      <c r="L78" s="7">
+        <f>-148.4-K78</f>
+        <v>-83.9</v>
+      </c>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="79" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7">
+        <f>-8.6+8.5</f>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="L79" s="7">
+        <f>-13.2+12.8-K79</f>
+        <v>-0.29999999999999893</v>
+      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7">
+        <v>-7.4</v>
+      </c>
+      <c r="L80" s="7">
+        <f>-13-K80</f>
+        <v>-5.6</v>
+      </c>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L81" s="7">
+        <f>12.8-K81</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7">
+        <f>SUM(K78:K81)</f>
+        <v>-66.900000000000006</v>
+      </c>
+      <c r="L82" s="7">
+        <f>SUM(L78:L81)</f>
+        <v>-82.1</v>
+      </c>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+    </row>
+    <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+    </row>
+    <row r="84" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7">
+        <f>0.1-0.1-837.9-0.4-0.2</f>
+        <v>-838.5</v>
+      </c>
+      <c r="L84" s="7">
+        <f>795.4-1787-473.5-1.3+0.7-0.2-K84</f>
+        <v>-627.39999999999986</v>
+      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+    </row>
+    <row r="85" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7">
+        <v>-9.9</v>
+      </c>
+      <c r="L85" s="7">
+        <f>-13.2-K85</f>
+        <v>-3.2999999999999989</v>
+      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+    </row>
+    <row r="86" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7">
+        <v>-15.5</v>
+      </c>
+      <c r="L86" s="7">
+        <f>-18.9-K86</f>
+        <v>-3.3999999999999986</v>
+      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+    </row>
+    <row r="87" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7">
+        <v>-145.1</v>
+      </c>
+      <c r="L87" s="7">
+        <f>-290.6-K87</f>
+        <v>-145.50000000000003</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+    </row>
+    <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7">
+        <f>SUM(K84:K87)</f>
+        <v>-1009</v>
+      </c>
+      <c r="L88" s="7">
+        <f>SUM(L84:L87)</f>
+        <v>-779.5999999999998</v>
+      </c>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+    </row>
+    <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7">
+        <v>-11.4</v>
+      </c>
+      <c r="L89" s="7">
+        <f>-40.2-K89</f>
+        <v>-28.800000000000004</v>
+      </c>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+    </row>
+    <row r="90" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7">
+        <f>+K88+K89+K82+K76</f>
+        <v>51.200000000000273</v>
+      </c>
+      <c r="L90" s="7">
+        <f>+L88+L89+L82+L76</f>
+        <v>-87.999999999999659</v>
+      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{93B33797-E4EA-4FDB-827A-0D8F4F37A4F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VTRS.xlsx
+++ b/VTRS.xlsx
@@ -1,21 +1,2285 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D265DF-024B-4757-B580-FFCF3EDDEF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B04A8-4FEC-463D-9E37-B1270780F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="5250" windowWidth="31935" windowHeight="13605" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
+    <workbookView xWindow="73800" yWindow="405" windowWidth="29055" windowHeight="20460" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Viagra" sheetId="5" r:id="rId3"/>
+    <sheet name="Norvasc" sheetId="3" r:id="rId4"/>
+    <sheet name="Lyrica" sheetId="4" r:id="rId5"/>
+    <sheet name="Lipitor" sheetId="6" r:id="rId6"/>
+    <sheet name="Geodon" sheetId="7" r:id="rId7"/>
+    <sheet name="Detrol" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="\a">[1]ROCHE!#REF!</definedName>
+    <definedName name="\p">[1]ROCHE!#REF!</definedName>
+    <definedName name="\q">[1]ROCHE!#REF!</definedName>
+    <definedName name="\r">[1]ROCHE!#REF!</definedName>
+    <definedName name="\s">[1]ROCHE!#REF!</definedName>
+    <definedName name="\t">[1]ROCHE!#REF!</definedName>
+    <definedName name="\u">[1]ROCHE!#REF!</definedName>
+    <definedName name="\v">[1]ROCHE!#REF!</definedName>
+    <definedName name="\x">[1]ROCHE!#REF!</definedName>
+    <definedName name="_1_0EBITDA_Sh">#REF!</definedName>
+    <definedName name="_2_0NOPAT_Sh">#REF!</definedName>
+    <definedName name="_3_._0Gross_inc_gro">#REF!</definedName>
+    <definedName name="_4_._0Restructuring_char">#REF!</definedName>
+    <definedName name="_5_._0SGA_gro">#REF!</definedName>
+    <definedName name="_6_._0Shares_repurchase_liabil">#REF!</definedName>
+    <definedName name="_7_3_0Income_before_ta">#REF!</definedName>
+    <definedName name="_8_3_0Increase_in_other_liabilit">#REF!</definedName>
+    <definedName name="_9_3_0Other_Segment_Reven">#REF!</definedName>
+    <definedName name="_QP2">#REF!</definedName>
+    <definedName name="Adjusted_EPS">[2]Figures!#REF!</definedName>
+    <definedName name="Choices_Wrapper">[0]!Choices_Wrapper</definedName>
+    <definedName name="Company_reported_exceptionals">[2]Figures!#REF!</definedName>
+    <definedName name="Current_cost_adjusted_net_income">[2]Figures!#REF!</definedName>
+    <definedName name="Debt_Market_Cap_Ratio">#REF!</definedName>
+    <definedName name="DivisionSales">[1]ROCHE!#REF!</definedName>
+    <definedName name="EG_DPS">[2]projections!#REF!</definedName>
+    <definedName name="EG_Net_Profit">[2]projections!#REF!</definedName>
+    <definedName name="EPS">[2]Figures!#REF!</definedName>
+    <definedName name="Exceptionals">[2]Figures!#REF!</definedName>
+    <definedName name="Exchange">[1]Valuation!$A$1:$I$12</definedName>
+    <definedName name="FDD_0_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_0_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_0_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_0_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_0_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_0_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_0_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_0_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_0_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_0_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_0_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_0_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_0_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_0_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_0_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_1_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_10_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_100_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_101_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_102_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_103_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_104_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_105_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_106_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_107_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_108_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_109_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_11_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_110_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_111_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_112_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_113_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_114_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_115_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_116_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_117_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_117_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_117_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_117_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_117_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_117_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_117_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_117_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_117_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_117_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_117_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_117_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_117_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_117_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_117_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_118_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_118_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_118_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_118_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_118_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_118_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_118_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_118_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_118_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_118_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_118_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_118_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_118_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_118_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_118_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_119_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_119_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_119_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_119_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_119_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_119_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_119_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_119_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_119_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_119_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_119_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_119_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_119_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_119_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_119_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_12_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_120_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_120_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_120_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_120_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_120_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_120_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_120_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_120_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_120_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_120_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_120_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_120_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_120_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_120_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_120_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_121_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_121_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_121_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_121_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_121_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_121_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_121_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_121_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_121_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_121_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_121_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_121_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_121_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_121_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_121_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_122_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_122_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_122_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_122_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_122_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_122_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_122_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_122_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_122_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_122_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_122_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_122_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_122_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_122_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_122_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_123_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_123_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_123_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_123_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_123_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_123_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_123_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_123_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_123_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_123_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_123_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_123_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_123_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_123_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_123_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_124_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_124_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_124_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_124_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_124_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_124_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_124_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_124_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_124_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_124_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_124_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_124_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_124_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_124_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_124_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_125_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_125_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_125_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_125_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_125_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_125_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_125_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_125_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_125_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_125_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_125_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_125_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_125_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_125_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_125_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_126_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_126_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_126_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_126_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_126_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_126_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_126_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_126_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_126_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_126_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_126_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_126_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_126_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_126_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_126_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_127_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_127_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_127_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_127_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_127_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_127_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_127_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_127_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_127_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_127_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_127_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_127_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_127_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_127_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_127_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_128_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_128_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_128_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_128_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_128_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_128_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_128_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_128_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_128_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_128_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_128_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_128_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_128_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_128_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_128_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_129_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_129_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_129_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_129_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_129_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_129_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_129_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_129_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_129_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_129_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_129_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_129_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_129_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_129_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_129_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_13_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_130_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_130_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_130_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_130_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_130_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_130_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_130_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_130_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_130_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_130_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_130_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_130_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_130_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_130_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_130_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_131_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_131_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_131_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_131_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_131_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_131_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_131_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_131_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_131_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_131_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_131_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_131_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_131_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_131_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_131_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_132_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_132_1" hidden="1">"U31047"</definedName>
+    <definedName name="FDD_132_10" hidden="1">"U34334"</definedName>
+    <definedName name="FDD_132_11" hidden="1">"U34699"</definedName>
+    <definedName name="FDD_132_12" hidden="1">"U35064"</definedName>
+    <definedName name="FDD_132_13" hidden="1">"U35430"</definedName>
+    <definedName name="FDD_132_14" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_132_2" hidden="1">"U31412"</definedName>
+    <definedName name="FDD_132_3" hidden="1">"U31777"</definedName>
+    <definedName name="FDD_132_4" hidden="1">"U32142"</definedName>
+    <definedName name="FDD_132_5" hidden="1">"U32508"</definedName>
+    <definedName name="FDD_132_6" hidden="1">"U32873"</definedName>
+    <definedName name="FDD_132_7" hidden="1">"U33238"</definedName>
+    <definedName name="FDD_132_8" hidden="1">"U33603"</definedName>
+    <definedName name="FDD_132_9" hidden="1">"U33969"</definedName>
+    <definedName name="FDD_133_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_133_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_133_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_133_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_133_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_133_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_133_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_133_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_133_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_133_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_133_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_133_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_133_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_133_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_133_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_134_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_134_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_134_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_134_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_134_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_134_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_134_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_134_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_134_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_134_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_134_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_134_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_134_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_134_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_134_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_135_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_135_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_135_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_135_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_135_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_135_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_135_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_135_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_135_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_135_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_135_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_135_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_135_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_135_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_135_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_136_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_136_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_136_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_136_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_136_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_136_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_136_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_136_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_136_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_136_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_136_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_136_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_136_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_136_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_136_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_137_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_137_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_137_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_137_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_137_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_137_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_137_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_137_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_137_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_137_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_137_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_137_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_137_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_137_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_137_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_138_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_138_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_138_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_138_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_138_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_138_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_138_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_138_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_138_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_138_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_138_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_138_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_138_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_138_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_138_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_139_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_139_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_139_10" hidden="1">"U34334"</definedName>
+    <definedName name="FDD_139_11" hidden="1">"U34699"</definedName>
+    <definedName name="FDD_139_12" hidden="1">"U35064"</definedName>
+    <definedName name="FDD_139_13" hidden="1">"U35430"</definedName>
+    <definedName name="FDD_139_14" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_139_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_139_3" hidden="1">"U31777"</definedName>
+    <definedName name="FDD_139_4" hidden="1">"U32142"</definedName>
+    <definedName name="FDD_139_5" hidden="1">"U32508"</definedName>
+    <definedName name="FDD_139_6" hidden="1">"U32873"</definedName>
+    <definedName name="FDD_139_7" hidden="1">"U33238"</definedName>
+    <definedName name="FDD_139_8" hidden="1">"U33603"</definedName>
+    <definedName name="FDD_139_9" hidden="1">"U33969"</definedName>
+    <definedName name="FDD_14_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_140_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_141_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_141_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_141_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_141_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_141_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_141_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_141_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_141_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_141_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_141_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_141_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_141_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_141_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_141_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_141_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_142_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_142_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_142_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_142_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_142_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_142_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_142_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_142_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_142_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_142_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_142_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_142_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_142_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_142_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_142_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_143_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_143_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_143_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_143_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_143_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_143_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_143_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_143_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_143_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_143_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_143_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_143_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_143_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_143_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_143_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_144_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_144_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_144_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_144_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_144_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_144_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_144_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_144_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_144_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_144_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_144_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_144_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_144_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_144_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_144_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_145_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_145_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_145_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_145_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_145_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_145_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_145_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_145_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_145_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_145_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_145_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_145_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_145_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_145_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_145_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_146_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_146_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_146_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_146_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_146_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_146_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_146_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_146_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_146_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_146_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_146_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_146_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_146_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_146_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_146_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_147_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_147_1" hidden="1">"U31047"</definedName>
+    <definedName name="FDD_147_10" hidden="1">"U34334"</definedName>
+    <definedName name="FDD_147_11" hidden="1">"U34699"</definedName>
+    <definedName name="FDD_147_12" hidden="1">"U35064"</definedName>
+    <definedName name="FDD_147_13" hidden="1">"U35430"</definedName>
+    <definedName name="FDD_147_14" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_147_2" hidden="1">"U31412"</definedName>
+    <definedName name="FDD_147_3" hidden="1">"U31777"</definedName>
+    <definedName name="FDD_147_4" hidden="1">"U32142"</definedName>
+    <definedName name="FDD_147_5" hidden="1">"U32508"</definedName>
+    <definedName name="FDD_147_6" hidden="1">"U32873"</definedName>
+    <definedName name="FDD_147_7" hidden="1">"U33238"</definedName>
+    <definedName name="FDD_147_8" hidden="1">"U33603"</definedName>
+    <definedName name="FDD_147_9" hidden="1">"U33969"</definedName>
+    <definedName name="FDD_148_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_148_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_148_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_148_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_148_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_148_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_148_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_148_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_148_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_148_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_148_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_148_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_148_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_148_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_148_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_149_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_149_1" hidden="1">"U31047"</definedName>
+    <definedName name="FDD_149_10" hidden="1">"U34334"</definedName>
+    <definedName name="FDD_149_11" hidden="1">"U34699"</definedName>
+    <definedName name="FDD_149_12" hidden="1">"U35064"</definedName>
+    <definedName name="FDD_149_13" hidden="1">"U35430"</definedName>
+    <definedName name="FDD_149_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_149_2" hidden="1">"U31412"</definedName>
+    <definedName name="FDD_149_3" hidden="1">"U31777"</definedName>
+    <definedName name="FDD_149_4" hidden="1">"U32142"</definedName>
+    <definedName name="FDD_149_5" hidden="1">"U32508"</definedName>
+    <definedName name="FDD_149_6" hidden="1">"U32873"</definedName>
+    <definedName name="FDD_149_7" hidden="1">"U33238"</definedName>
+    <definedName name="FDD_149_8" hidden="1">"U33603"</definedName>
+    <definedName name="FDD_149_9" hidden="1">"U33969"</definedName>
+    <definedName name="FDD_15_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_151_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_151_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_151_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_151_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_151_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_151_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_151_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_151_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_151_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_151_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_151_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_151_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_151_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_151_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_151_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_152_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_152_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_152_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_152_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_152_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_152_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_152_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_152_15" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_152_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_152_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_152_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_152_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_152_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_152_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_152_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_152_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_153_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_153_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_153_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_153_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_153_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_153_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_153_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_153_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_153_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_153_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_153_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_153_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_153_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_153_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_153_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_154_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_154_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_154_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_154_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_154_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_154_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_154_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_154_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_154_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_154_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_154_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_154_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_154_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_154_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_154_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_155_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_156_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_156_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_156_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_156_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_156_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_156_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_156_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_156_15" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_156_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_156_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_156_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_156_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_156_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_156_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_156_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_156_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_157_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_157_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_157_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_157_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_157_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_157_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_157_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_157_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_157_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_157_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_157_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_157_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_157_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_157_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_157_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_158_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_158_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_158_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_158_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_158_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_158_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_158_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_158_15" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_158_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_158_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_158_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_158_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_158_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_158_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_158_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_158_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_159_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_159_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_159_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_159_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_159_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_159_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_159_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_159_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_159_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_159_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_159_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_159_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_159_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_159_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_159_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_16_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_160_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_160_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_160_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_160_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_160_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_160_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_160_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_160_15" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_160_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_160_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_160_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_160_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_160_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_160_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_160_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_160_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_161_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_161_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_161_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_161_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_161_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_161_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_161_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_161_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_161_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_161_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_161_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_161_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_161_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_161_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_161_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_162_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_162_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_162_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_162_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_162_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_162_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_162_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_162_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_162_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_162_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_162_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_162_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_162_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_162_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_162_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_163_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_163_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_163_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_163_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_163_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_163_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_163_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_163_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_163_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_163_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_163_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_163_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_163_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_163_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_163_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_164_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_165_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_165_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_165_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_165_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_165_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_165_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_165_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_165_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_165_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_165_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_165_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_165_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_165_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_165_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_165_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_166_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_166_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_166_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_166_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_166_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_166_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_166_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_166_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_166_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_166_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_166_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_166_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_166_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_166_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_166_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_167_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_167_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_167_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_167_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_167_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_167_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_167_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_167_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_167_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_167_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_167_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_167_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_167_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_167_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_167_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_168_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_168_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_168_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_169_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_169_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_169_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_169_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_169_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_169_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_169_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_169_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_169_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_169_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_169_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_169_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_169_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_169_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_169_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_17_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_170_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_170_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_170_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_170_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_170_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_170_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_170_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_170_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_170_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_170_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_170_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_170_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_170_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_170_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_170_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_171_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_171_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_171_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_171_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_171_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_171_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_171_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_171_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_171_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_171_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_171_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_171_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_171_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_171_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_171_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_172_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_172_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_172_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_172_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_172_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_172_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_172_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_172_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_172_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_172_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_172_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_172_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_172_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_172_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_172_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_173_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_173_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_173_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_173_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_173_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_173_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_173_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_173_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_173_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_173_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_173_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_173_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_173_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_173_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_173_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_174_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_174_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_174_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_174_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_174_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_174_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_174_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_174_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_174_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_174_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_174_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_174_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_174_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_174_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_174_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_175_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_175_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_175_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_176_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_176_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_176_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_177_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_177_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_177_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_178_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_178_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_178_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_179_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_179_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_179_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_18_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_180_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_180_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_180_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_181_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_181_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_181_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_182_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_182_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_182_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_183_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_183_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_183_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_184_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_184_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_184_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_185_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_185_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_185_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_186_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_186_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_186_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_187_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_187_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_187_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_188_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_188_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_188_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_188_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_188_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_188_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_188_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_188_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_188_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_188_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_188_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_188_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_188_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_188_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_188_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_189_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_189_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_189_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_189_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_189_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_189_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_189_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_189_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_189_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_189_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_189_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_189_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_189_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_189_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_189_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_19_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_190_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_190_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_190_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_190_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_190_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_190_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_190_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_190_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_190_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_190_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_190_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_190_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_190_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_190_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_190_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_191_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_191_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_191_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_191_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_191_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_191_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_191_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_191_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_191_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_191_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_191_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_191_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_191_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_191_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_191_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_192_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_192_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_192_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_193_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_193_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_193_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_193_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_193_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_193_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_193_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_193_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_193_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_193_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_193_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_193_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_193_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_193_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_193_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_194_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_194_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_194_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_194_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_194_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_194_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_194_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_194_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_194_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_194_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_194_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_194_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_194_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_194_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_194_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_195_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_195_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_195_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_195_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_195_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_195_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_195_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_195_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_195_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_195_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_195_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_195_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_195_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_195_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_195_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_196_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_196_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_196_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_197_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_197_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_197_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_197_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_197_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_197_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_197_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_197_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_197_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_197_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_197_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_197_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_197_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_197_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_197_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_198_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_198_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_198_10" hidden="1">"U34334"</definedName>
+    <definedName name="FDD_198_11" hidden="1">"U34699"</definedName>
+    <definedName name="FDD_198_12" hidden="1">"U35064"</definedName>
+    <definedName name="FDD_198_13" hidden="1">"U35430"</definedName>
+    <definedName name="FDD_198_14" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_198_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_198_3" hidden="1">"U31777"</definedName>
+    <definedName name="FDD_198_4" hidden="1">"U32142"</definedName>
+    <definedName name="FDD_198_5" hidden="1">"U32508"</definedName>
+    <definedName name="FDD_198_6" hidden="1">"U32873"</definedName>
+    <definedName name="FDD_198_7" hidden="1">"U33238"</definedName>
+    <definedName name="FDD_198_8" hidden="1">"U33603"</definedName>
+    <definedName name="FDD_198_9" hidden="1">"U33969"</definedName>
+    <definedName name="FDD_199_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_199_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_199_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_2_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_20_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_200_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_200_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_200_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_201_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_201_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_201_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_201_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_201_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_201_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_201_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_201_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_201_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_201_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_201_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_201_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_201_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_201_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_201_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_202_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_202_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_202_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_202_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_202_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_202_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_202_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_202_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_202_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_202_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_202_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_202_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_202_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_202_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_202_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_203_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_203_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_203_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_204_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_205_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_206_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_207_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_208_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_208_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_208_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_209_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_21_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_210_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_211_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_212_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_213_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_213_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_213_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_214_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_215_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_216_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_217_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_218_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_218_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_218_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_219_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_22_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_220_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_221_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_222_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_223_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_223_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_223_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_224_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_225_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_226_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_227_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_228_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_228_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_228_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_229_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_23_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_230_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_231_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_232_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_233_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_234_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_235_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_236_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_237_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_238_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_238_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_238_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_238_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_238_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_238_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_238_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_238_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_238_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_238_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_238_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_238_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_238_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_238_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_238_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_24_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_243_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_243_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_243_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_244_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_245_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_246_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_247_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_248_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_248_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_248_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_249_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_25_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_250_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_251_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_252_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_253_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_253_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_253_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_254_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_254_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_254_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_255_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_255_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_255_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_256_0" hidden="1">"U36160"</definedName>
+    <definedName name="FDD_256_1" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_256_2" hidden="1">"U36891"</definedName>
+    <definedName name="FDD_257_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_257_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_257_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_258_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_258_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_258_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_259_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_259_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_259_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_26_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_260_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_260_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_260_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_261_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_261_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_261_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_264_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_264_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_264_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_265_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_266_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_267_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_268_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_269_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_269_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_269_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_27_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_270_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_271_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_272_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_273_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_274_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_274_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_274_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_275_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_276_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_277_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_278_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_279_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_279_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_279_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_28_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_280_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_280_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_280_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_281_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_281_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_281_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_282_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_282_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_282_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_283_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_283_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_283_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_284_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_284_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_284_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_284_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_284_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_284_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_284_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_284_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_284_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_284_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_284_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_284_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_284_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_284_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_284_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_285_0" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_285_1" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_285_10" hidden="1">"E39447"</definedName>
+    <definedName name="FDD_285_11" hidden="1">"E39813"</definedName>
+    <definedName name="FDD_285_12" hidden="1">"E40178"</definedName>
+    <definedName name="FDD_285_13" hidden="1">"E40543"</definedName>
+    <definedName name="FDD_285_14" hidden="1">"E40908"</definedName>
+    <definedName name="FDD_285_15" hidden="1">"E41274"</definedName>
+    <definedName name="FDD_285_16" hidden="1">"E41639"</definedName>
+    <definedName name="FDD_285_17" hidden="1">"E42004"</definedName>
+    <definedName name="FDD_285_18" hidden="1">"E42369"</definedName>
+    <definedName name="FDD_285_19" hidden="1">"E42735"</definedName>
+    <definedName name="FDD_285_2" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_285_20" hidden="1">"E43100"</definedName>
+    <definedName name="FDD_285_21" hidden="1">"E43465"</definedName>
+    <definedName name="FDD_285_22" hidden="1">"E43830"</definedName>
+    <definedName name="FDD_285_23" hidden="1">"E44196"</definedName>
+    <definedName name="FDD_285_24" hidden="1">"E44561"</definedName>
+    <definedName name="FDD_285_25" hidden="1">"E44926"</definedName>
+    <definedName name="FDD_285_3" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_285_4" hidden="1">"E37256"</definedName>
+    <definedName name="FDD_285_5" hidden="1">"E37621"</definedName>
+    <definedName name="FDD_285_6" hidden="1">"E37986"</definedName>
+    <definedName name="FDD_285_7" hidden="1">"E38352"</definedName>
+    <definedName name="FDD_285_8" hidden="1">"E38717"</definedName>
+    <definedName name="FDD_285_9" hidden="1">"E39082"</definedName>
+    <definedName name="FDD_286_0" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_286_1" hidden="1">"E36525"</definedName>
+    <definedName name="FDD_286_10" hidden="1">"E39813"</definedName>
+    <definedName name="FDD_286_11" hidden="1">"E40178"</definedName>
+    <definedName name="FDD_286_12" hidden="1">"E40543"</definedName>
+    <definedName name="FDD_286_13" hidden="1">"E40908"</definedName>
+    <definedName name="FDD_286_14" hidden="1">"E41274"</definedName>
+    <definedName name="FDD_286_15" hidden="1">"E41639"</definedName>
+    <definedName name="FDD_286_16" hidden="1">"E42004"</definedName>
+    <definedName name="FDD_286_17" hidden="1">"E42369"</definedName>
+    <definedName name="FDD_286_18" hidden="1">"E42735"</definedName>
+    <definedName name="FDD_286_19" hidden="1">"E43100"</definedName>
+    <definedName name="FDD_286_2" hidden="1">"E36891"</definedName>
+    <definedName name="FDD_286_20" hidden="1">"E43465"</definedName>
+    <definedName name="FDD_286_21" hidden="1">"E43830"</definedName>
+    <definedName name="FDD_286_22" hidden="1">"E44196"</definedName>
+    <definedName name="FDD_286_23" hidden="1">"E44561"</definedName>
+    <definedName name="FDD_286_24" hidden="1">"E44926"</definedName>
+    <definedName name="FDD_286_3" hidden="1">"E37256"</definedName>
+    <definedName name="FDD_286_4" hidden="1">"E37621"</definedName>
+    <definedName name="FDD_286_5" hidden="1">"E37986"</definedName>
+    <definedName name="FDD_286_6" hidden="1">"E38352"</definedName>
+    <definedName name="FDD_286_7" hidden="1">"E38717"</definedName>
+    <definedName name="FDD_286_8" hidden="1">"E39082"</definedName>
+    <definedName name="FDD_286_9" hidden="1">"E39447"</definedName>
+    <definedName name="FDD_287_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_288_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_289_0" hidden="1">"A36890"</definedName>
+    <definedName name="FDD_29_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_290_0" hidden="1">"A36890"</definedName>
+    <definedName name="FDD_291_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_295_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_296_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_297_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_298_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_299_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_3_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_30_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_300_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_301_0" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_301_1" hidden="1">"U36160"</definedName>
+    <definedName name="FDD_301_2" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_302_0" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_302_1" hidden="1">"U36160"</definedName>
+    <definedName name="FDD_302_2" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_303_0" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_303_1" hidden="1">"U36160"</definedName>
+    <definedName name="FDD_303_2" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_304_0" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_304_1" hidden="1">"U36160"</definedName>
+    <definedName name="FDD_304_2" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_305_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_305_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_305_10" hidden="1">"U34334"</definedName>
+    <definedName name="FDD_305_11" hidden="1">"U34699"</definedName>
+    <definedName name="FDD_305_12" hidden="1">"U35064"</definedName>
+    <definedName name="FDD_305_13" hidden="1">"U35430"</definedName>
+    <definedName name="FDD_305_14" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_305_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_305_3" hidden="1">"U31777"</definedName>
+    <definedName name="FDD_305_4" hidden="1">"U32142"</definedName>
+    <definedName name="FDD_305_5" hidden="1">"U32508"</definedName>
+    <definedName name="FDD_305_6" hidden="1">"U32873"</definedName>
+    <definedName name="FDD_305_7" hidden="1">"U33238"</definedName>
+    <definedName name="FDD_305_8" hidden="1">"U33603"</definedName>
+    <definedName name="FDD_305_9" hidden="1">"U33969"</definedName>
+    <definedName name="FDD_306_0" hidden="1">"U35795"</definedName>
+    <definedName name="FDD_306_1" hidden="1">"E36160"</definedName>
+    <definedName name="FDD_306_2" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_307_0" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_307_1" hidden="1">"U36160"</definedName>
+    <definedName name="FDD_307_2" hidden="1">"U36525"</definedName>
+    <definedName name="FDD_31_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_32_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_33_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_34_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_35_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_36_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_37_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_38_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_39_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_4_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_40_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_41_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_42_0" hidden="1">"U25569"</definedName>
+    <definedName name="FDD_43_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_44_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_44_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_44_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_44_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_44_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_44_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_44_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_44_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_44_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_44_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_44_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_44_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_44_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_44_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_44_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_45_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_45_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_45_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_45_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_45_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_45_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_45_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_45_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_45_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_45_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_45_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_45_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_45_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_45_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_45_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_46_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_46_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_46_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_46_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_46_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_46_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_46_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_46_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_46_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_46_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_46_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_46_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_46_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_46_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_46_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_47_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_47_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_47_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_47_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_47_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_47_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_47_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_47_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_47_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_47_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_47_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_47_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_47_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_47_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_47_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_48_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_48_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_48_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_48_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_48_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_48_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_48_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_48_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_48_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_48_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_48_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_48_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_48_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_48_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_48_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_49_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_49_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_49_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_49_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_49_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_49_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_49_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_49_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_49_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_49_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_49_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_49_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_49_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_49_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_49_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_5_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_50_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_50_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_50_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_50_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_50_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_50_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_50_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_50_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_50_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_50_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_50_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_50_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_50_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_50_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_50_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_51_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_51_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_51_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_51_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_51_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_51_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_51_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_51_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_51_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_51_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_51_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_51_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_51_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_51_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_51_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_52_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_52_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_52_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_52_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_52_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_52_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_52_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_52_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_52_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_52_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_52_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_52_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_52_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_52_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_52_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_53_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_53_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_53_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_53_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_53_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_53_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_53_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_53_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_53_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_53_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_53_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_53_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_53_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_53_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_53_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_54_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_54_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_54_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_54_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_54_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_54_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_54_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_54_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_54_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_54_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_54_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_54_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_54_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_54_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_54_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_55_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_55_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_55_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_55_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_55_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_55_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_55_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_55_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_55_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_55_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_55_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_55_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_55_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_55_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_55_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_56_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_56_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_56_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_56_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_56_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_56_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_56_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_56_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_56_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_56_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_56_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_56_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_56_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_56_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_56_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_57_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_57_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_57_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_57_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_57_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_57_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_57_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_57_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_57_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_57_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_57_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_57_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_57_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_57_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_57_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_58_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_58_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_58_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_58_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_58_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_58_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_58_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_58_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_58_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_58_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_58_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_58_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_58_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_58_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_58_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_59_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_59_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_59_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_59_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_59_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_59_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_59_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_59_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_59_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_59_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_59_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_59_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_59_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_59_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_59_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_6_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_60_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_60_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_60_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_60_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_60_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_60_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_60_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_60_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_60_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_60_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_60_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_60_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_60_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_60_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_60_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_61_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_61_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_61_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_61_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_61_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_61_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_61_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_61_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_61_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_61_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_61_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_61_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_61_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_61_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_61_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_62_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_62_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_62_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_62_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_62_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_62_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_62_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_62_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_62_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_62_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_62_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_62_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_62_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_62_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_62_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_63_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_63_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_63_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_63_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_63_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_63_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_63_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_63_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_63_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_63_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_63_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_63_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_63_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_63_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_63_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_64_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_64_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_64_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_64_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_64_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_64_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_64_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_64_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_64_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_64_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_64_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_64_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_64_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_64_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_64_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_65_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_65_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_65_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_65_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_65_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_65_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_65_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_65_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_65_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_65_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_65_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_65_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_65_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_65_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_65_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_66_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_66_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_66_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_66_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_66_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_66_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_66_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_66_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_66_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_66_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_66_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_66_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_66_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_66_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_66_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_67_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_67_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_67_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_67_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_67_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_67_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_67_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_67_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_67_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_67_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_67_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_67_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_67_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_67_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_67_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_68_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_68_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_68_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_68_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_68_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_68_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_68_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_68_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_68_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_68_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_68_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_68_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_68_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_68_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_68_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_69_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_69_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_69_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_69_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_69_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_69_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_69_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_69_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_69_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_69_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_69_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_69_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_69_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_69_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_69_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_7_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_70_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_70_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_70_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_70_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_70_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_70_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_70_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_70_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_70_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_70_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_70_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_70_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_70_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_70_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_70_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_71_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_71_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_71_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_71_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_71_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_71_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_71_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_71_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_71_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_71_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_71_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_71_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_71_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_71_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_71_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_72_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_72_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_72_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_72_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_72_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_72_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_72_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_72_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_72_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_72_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_72_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_72_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_72_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_72_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_72_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_73_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_73_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_73_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_73_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_73_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_73_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_73_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_73_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_73_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_73_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_73_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_73_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_73_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_73_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_73_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_74_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_74_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_74_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_74_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_74_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_74_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_74_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_74_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_74_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_74_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_74_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_74_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_74_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_74_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_74_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_75_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_75_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_75_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_75_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_75_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_75_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_75_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_75_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_75_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_75_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_75_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_75_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_75_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_75_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_75_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_76_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_76_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_76_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_76_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_76_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_76_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_76_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_76_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_76_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_76_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_76_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_76_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_76_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_76_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_76_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_77_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_77_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_77_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_77_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_77_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_77_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_77_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_77_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_77_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_77_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_77_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_77_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_77_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_77_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_77_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_78_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_78_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_78_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_78_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_78_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_78_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_78_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_78_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_78_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_78_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_78_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_78_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_78_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_78_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_78_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_79_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_79_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_79_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_79_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_79_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_79_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_79_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_79_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_79_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_79_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_79_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_79_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_79_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_79_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_79_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_8_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_80_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_80_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_80_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_80_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_80_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_80_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_80_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_80_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_80_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_80_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_80_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_80_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_80_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_80_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_80_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_81_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_81_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_81_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_81_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_81_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_81_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_81_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_81_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_81_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_81_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_81_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_81_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_81_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_81_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_81_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_82_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_82_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_82_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_82_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_82_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_82_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_82_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_82_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_82_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_82_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_82_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_82_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_82_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_82_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_82_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_83_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_83_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_83_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_83_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_83_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_83_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_83_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_83_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_83_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_83_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_83_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_83_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_83_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_83_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_83_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_84_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_84_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_84_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_84_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_84_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_84_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_84_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_84_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_84_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_84_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_84_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_84_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_84_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_84_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_84_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_85_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_85_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_85_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_85_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_85_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_85_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_85_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_85_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_85_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_85_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_85_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_85_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_85_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_85_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_85_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_86_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_86_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_86_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_86_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_86_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_86_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_86_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_86_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_86_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_86_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_86_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_86_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_86_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_86_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_86_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_87_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_87_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_87_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_87_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_87_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_87_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_87_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_87_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_87_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_87_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_87_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_87_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_87_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_87_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_87_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_88_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_88_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_88_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_88_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_88_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_88_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_88_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_88_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_88_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_88_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_88_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_88_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_88_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_88_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_88_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_89_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_89_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_89_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_89_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_89_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_89_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_89_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_89_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_89_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_89_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_89_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_89_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_89_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_89_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_89_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_9_0" hidden="1">"A25569"</definedName>
+    <definedName name="FDD_90_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_90_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_90_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_90_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_90_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_90_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_90_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_90_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_90_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_90_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_90_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_90_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_90_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_90_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_90_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_91_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_91_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_91_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_91_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_91_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_91_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_91_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_91_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_91_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_91_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_91_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_91_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_91_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_91_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_91_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_92_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_92_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_92_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_92_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_92_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_92_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_92_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_92_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_92_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_92_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_92_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_92_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_92_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_92_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_92_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_93_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_93_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_93_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_93_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_93_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_93_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_93_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_93_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_93_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_93_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_93_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_93_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_93_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_93_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_93_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_94_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_94_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_94_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_94_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_94_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_94_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_94_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_94_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_94_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_94_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_94_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_94_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_94_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_94_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_94_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_95_0" hidden="1">"A30681"</definedName>
+    <definedName name="FDD_95_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_95_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_95_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_95_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_95_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_95_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_95_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_95_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_95_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_95_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_95_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_95_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_95_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_95_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_96_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_96_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_96_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_96_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_96_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_96_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_96_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_96_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_96_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_96_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_96_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_96_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_96_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_96_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_96_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_97_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_97_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_97_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_97_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_97_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_97_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_97_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_97_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_97_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_97_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_97_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_97_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_97_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_97_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_97_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_98_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_98_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_98_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_98_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_98_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_98_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_98_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_98_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_98_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_98_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_98_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_98_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_98_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_98_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_98_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDD_99_0" hidden="1">"U30681"</definedName>
+    <definedName name="FDD_99_1" hidden="1">"A31047"</definedName>
+    <definedName name="FDD_99_10" hidden="1">"A34334"</definedName>
+    <definedName name="FDD_99_11" hidden="1">"A34699"</definedName>
+    <definedName name="FDD_99_12" hidden="1">"A35064"</definedName>
+    <definedName name="FDD_99_13" hidden="1">"A35430"</definedName>
+    <definedName name="FDD_99_14" hidden="1">"A35795"</definedName>
+    <definedName name="FDD_99_2" hidden="1">"A31412"</definedName>
+    <definedName name="FDD_99_3" hidden="1">"A31777"</definedName>
+    <definedName name="FDD_99_4" hidden="1">"A32142"</definedName>
+    <definedName name="FDD_99_5" hidden="1">"A32508"</definedName>
+    <definedName name="FDD_99_6" hidden="1">"A32873"</definedName>
+    <definedName name="FDD_99_7" hidden="1">"A33238"</definedName>
+    <definedName name="FDD_99_8" hidden="1">"A33603"</definedName>
+    <definedName name="FDD_99_9" hidden="1">"A33969"</definedName>
+    <definedName name="FDP_280_1_aSrv" hidden="1">#REF!</definedName>
+    <definedName name="FDP_281_1_aSrv" hidden="1">#REF!</definedName>
+    <definedName name="FDP_282_1_aSrv" hidden="1">#REF!</definedName>
+    <definedName name="FDP_283_1_aSrv" hidden="1">#REF!</definedName>
+    <definedName name="FixedAssets">[1]Valuation!$A$1:$V$51</definedName>
+    <definedName name="ForecastVersion">#REF!</definedName>
+    <definedName name="GenentechFrom1996">[1]ROCHE!#REF!</definedName>
+    <definedName name="GenentechTo1995">[1]ROCHE!#REF!</definedName>
+    <definedName name="Geographic">[1]ROCHE!#REF!</definedName>
+    <definedName name="graphdata">#REF!</definedName>
+    <definedName name="Loan_Loss_Provision_fore">#REF!</definedName>
+    <definedName name="M_PlaceofPath" hidden="1">"\\snyceqt0301\vdf$\tmp\blabla"</definedName>
+    <definedName name="NetDebtPerShare">[2]projections!#REF!</definedName>
+    <definedName name="Number_of_Shares">#REF!</definedName>
+    <definedName name="Off_B_S_Income_fore">#REF!</definedName>
+    <definedName name="Off_B_S_Income_growth_fore">#REF!</definedName>
+    <definedName name="Partial_year">#REF!</definedName>
+    <definedName name="Patent">[1]Valuation!#REF!</definedName>
+    <definedName name="Payout_ratio_on_underlying">[2]Figures!#REF!</definedName>
+    <definedName name="Post_tax_stock_gains_losses">[2]Figures!#REF!</definedName>
+    <definedName name="Products">[1]ROCHE!#REF!</definedName>
+    <definedName name="quarter">#REF!</definedName>
+    <definedName name="Reported_net_income">[2]Figures!#REF!</definedName>
+    <definedName name="ResearchForecasts">#REF!</definedName>
+    <definedName name="SalesAndOperatingDivisions">[1]ROCHE!#REF!</definedName>
+    <definedName name="Schroder_exceptionals">[2]Figures!#REF!</definedName>
+    <definedName name="Segment1_income_fore">#REF!</definedName>
+    <definedName name="Segment1_income_growth_fore">#REF!</definedName>
+    <definedName name="Segment2_income_fore">#REF!</definedName>
+    <definedName name="Segment2_income_growth_fore">#REF!</definedName>
+    <definedName name="Share_Price">#REF!</definedName>
+    <definedName name="summary">#REF!</definedName>
+    <definedName name="Value_of_Equity">#REF!</definedName>
+    <definedName name="WWSalesQuarter">#REF!</definedName>
+    <definedName name="WWSalesYear">#REF!</definedName>
+    <definedName name="year">#REF!</definedName>
+    <definedName name="ytd">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +2299,103 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin Shkreli</author>
+  </authors>
+  <commentList>
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2006: ex-US patents expire
+1/07: COM patent expires
+9/07: besylate salt patent expires
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin Shkreli</author>
+  </authors>
+  <commentList>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+558 full PHA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Shkreli:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+175 full PHA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="318">
   <si>
     <t>Price</t>
   </si>
@@ -315,13 +2674,688 @@
   </si>
   <si>
     <t>CFO: Sanjeev Narula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ex-US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  US</t>
+  </si>
+  <si>
+    <t>Norvasc 9/07</t>
+  </si>
+  <si>
+    <t>Q408</t>
+  </si>
+  <si>
+    <t>Q308</t>
+  </si>
+  <si>
+    <t>Q208</t>
+  </si>
+  <si>
+    <t>Q108</t>
+  </si>
+  <si>
+    <t>Q407</t>
+  </si>
+  <si>
+    <t>Q307</t>
+  </si>
+  <si>
+    <t>Q207</t>
+  </si>
+  <si>
+    <t>Q107</t>
+  </si>
+  <si>
+    <t>Q406E</t>
+  </si>
+  <si>
+    <t>Q306</t>
+  </si>
+  <si>
+    <t>Q206</t>
+  </si>
+  <si>
+    <t>Q106</t>
+  </si>
+  <si>
+    <t>Q405</t>
+  </si>
+  <si>
+    <t>Q305</t>
+  </si>
+  <si>
+    <t>Q205</t>
+  </si>
+  <si>
+    <t>Q105</t>
+  </si>
+  <si>
+    <t>Q404</t>
+  </si>
+  <si>
+    <t>Q304</t>
+  </si>
+  <si>
+    <t>Q204</t>
+  </si>
+  <si>
+    <t>Q104</t>
+  </si>
+  <si>
+    <t>Q403</t>
+  </si>
+  <si>
+    <t>Q303</t>
+  </si>
+  <si>
+    <t>Q203</t>
+  </si>
+  <si>
+    <t>Q103</t>
+  </si>
+  <si>
+    <t>Q402</t>
+  </si>
+  <si>
+    <t>Q302</t>
+  </si>
+  <si>
+    <t>Q202</t>
+  </si>
+  <si>
+    <t>Q102</t>
+  </si>
+  <si>
+    <t>Q401</t>
+  </si>
+  <si>
+    <t>Q301</t>
+  </si>
+  <si>
+    <t>Q201</t>
+  </si>
+  <si>
+    <t>Q101</t>
+  </si>
+  <si>
+    <t>Q400</t>
+  </si>
+  <si>
+    <t>Q300</t>
+  </si>
+  <si>
+    <t>Q200</t>
+  </si>
+  <si>
+    <t>Q100</t>
+  </si>
+  <si>
+    <t>Q499</t>
+  </si>
+  <si>
+    <t>Q399</t>
+  </si>
+  <si>
+    <t>Q299</t>
+  </si>
+  <si>
+    <t>Q199</t>
+  </si>
+  <si>
+    <t>Q498</t>
+  </si>
+  <si>
+    <t>Q398</t>
+  </si>
+  <si>
+    <t>Q298</t>
+  </si>
+  <si>
+    <t>Q198</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>2006E</t>
+  </si>
+  <si>
+    <t>New patents have been filed. - Cowen</t>
+  </si>
+  <si>
+    <t>Proceedings likely set for early 2006, final approval for MYL/RDY should be soon.</t>
+  </si>
+  <si>
+    <t>The judge felt the extention applied to the salt, not the compound itself. A higher court reversed the lower court decision.</t>
+  </si>
+  <si>
+    <t>DC of NJ dismissed PFE's lawsuit against RDY, clearing the way for non-AB, because PFE received a 3 year patent extention.</t>
+  </si>
+  <si>
+    <t>Salt patent #4879303 expires 9/25/2007</t>
+  </si>
+  <si>
+    <t>COM patent #4572909 expires 1/31/2007 (including P-extention)</t>
+  </si>
+  <si>
+    <t>Published in Lancet 9/2005.</t>
+  </si>
+  <si>
+    <t>Stopped early due to greater than anticipated benefit for Norvasc vs. atenolol.</t>
+  </si>
+  <si>
+    <t>ASCOT</t>
+  </si>
+  <si>
+    <t>Trying to switch people to Caduet</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Efficacy</t>
+  </si>
+  <si>
+    <t>COM 1/31/2007, Salt 9/25/2007. MYL has received final generic approval. Several firms have received tentative approvals including PRX, PRGO. Pediatric exclusivity?</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Approved/Launched</t>
+  </si>
+  <si>
+    <t>93% of the circulating drug is bound to plasma proteins in HTN patients. Terminal elimination half-life is 30-50 hours. Steady state reached after 7-8 days qd dosing.</t>
+  </si>
+  <si>
+    <t>F=64-90%. Absorption produces peak plasma concentrations between 64-90%. 90% converted to inactive metabolites. 10% of parent and 60% of metabolites excreted through urine.</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>MYL/RDY's AmVaz, ACEs, ARBs, dieuretics, renins</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Amlodipine inhibits calcium ion influx across cell membranes selectively, with a greater effect on vascular smooth muscle cells than on cardiac muscle cells.</t>
+  </si>
+  <si>
+    <t>The contractile processes of cardiac muscle and vascular smooth muscle depend on the movement of extracellular calcium ions into these cells through specific ion channels.</t>
+  </si>
+  <si>
+    <t>Inhibits the transmembrane influx of calcium ions into vascular smooth muscle and cardiac muscle. Binds to both dihydropyridine and nondihydropyridine binding sites.</t>
+  </si>
+  <si>
+    <t>Calcium Channel Blocker - dihydropyridine calcium antagonist (calcium ion antagonist or slow-channel blocker)</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>Hypertension and Angina</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Amlodipine besylate</t>
+  </si>
+  <si>
+    <t>Generic Name</t>
+  </si>
+  <si>
+    <t>Branded Name</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>NRX</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>5563175 issued 10/8/96, expires 10/8/13. 5-year HW?</t>
+  </si>
+  <si>
+    <t>6197819 expires 12/30/18. COM-style patent issued to Northwestern University. Filed 1995, continued from 1992 and 1990 filings. Issued 2001.</t>
+  </si>
+  <si>
+    <t>6/27/2007: Receives approval for fibromyalgia.</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>GAD received rec in EU on 1/29, non-approvable in the US in 2004</t>
+  </si>
+  <si>
+    <t>Neuropathic pain associated with diabetic peripheral neuropathy, post-herpetic neuralgia, adjunctive partial onset seizures, fibromyalgia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABA mimetic that modulates voltage-gated calcium channels in the CNS. </t>
+  </si>
+  <si>
+    <t>pregabalin</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Q406</t>
+  </si>
+  <si>
+    <t>6469012 method of use patent 2019.</t>
+  </si>
+  <si>
+    <t>5250534 COM expires 2012.</t>
+  </si>
+  <si>
+    <t>Revatio is sildenafil 3x day for PAH.</t>
+  </si>
+  <si>
+    <t>Being investigated in CHF and diabetes</t>
+  </si>
+  <si>
+    <t>sildenafil</t>
+  </si>
+  <si>
+    <t>NRx</t>
+  </si>
+  <si>
+    <t>TRx</t>
+  </si>
+  <si>
+    <t>NRx Y/Y</t>
+  </si>
+  <si>
+    <t>TRx Y/Y</t>
+  </si>
+  <si>
+    <t>Pravachol</t>
+  </si>
+  <si>
+    <t>Zocor</t>
+  </si>
+  <si>
+    <t>Vytorin</t>
+  </si>
+  <si>
+    <t>Crestor</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>41m americans have elevated cholsterol (total over 240mg/dL). 12m treated patients, only 40% achieving goal cholesterol levels</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>80mg</t>
+  </si>
+  <si>
+    <t>40mg</t>
+  </si>
+  <si>
+    <t>20mg</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>5mg</t>
+  </si>
+  <si>
+    <t>Zetia</t>
+  </si>
+  <si>
+    <t>+6-10</t>
+  </si>
+  <si>
+    <t>-23-31</t>
+  </si>
+  <si>
+    <t>-35-49</t>
+  </si>
+  <si>
+    <t>-45-60</t>
+  </si>
+  <si>
+    <t>-31-43</t>
+  </si>
+  <si>
+    <t>+5-8</t>
+  </si>
+  <si>
+    <t>-17-27</t>
+  </si>
+  <si>
+    <t>-29-39</t>
+  </si>
+  <si>
+    <t>-14-47</t>
+  </si>
+  <si>
+    <t>-23-35</t>
+  </si>
+  <si>
+    <t>+3-12</t>
+  </si>
+  <si>
+    <t>-11-24</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>-22-37</t>
+  </si>
+  <si>
+    <t>-16-27</t>
+  </si>
+  <si>
+    <t>+41</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>Advicor</t>
+  </si>
+  <si>
+    <t>+7-12</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>Mevacor</t>
+  </si>
+  <si>
+    <t>+10-26</t>
+  </si>
+  <si>
+    <t>-5-35</t>
+  </si>
+  <si>
+    <t>-2-16</t>
+  </si>
+  <si>
+    <t>-3-17</t>
+  </si>
+  <si>
+    <t>-2-12</t>
+  </si>
+  <si>
+    <t>Niaspan</t>
+  </si>
+  <si>
+    <t>+3-7</t>
+  </si>
+  <si>
+    <t>-12-19</t>
+  </si>
+  <si>
+    <t>-19-27</t>
+  </si>
+  <si>
+    <t>-22-35</t>
+  </si>
+  <si>
+    <t>-17-25</t>
+  </si>
+  <si>
+    <t>Lescol</t>
+  </si>
+  <si>
+    <t>+8-14</t>
+  </si>
+  <si>
+    <t>-10-35</t>
+  </si>
+  <si>
+    <t>-38-54</t>
+  </si>
+  <si>
+    <t>-45-63</t>
+  </si>
+  <si>
+    <t>-33-46</t>
+  </si>
+  <si>
+    <t>+62</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>Torcetrapib</t>
+  </si>
+  <si>
+    <t>+5-9</t>
+  </si>
+  <si>
+    <t>-19-37</t>
+  </si>
+  <si>
+    <t>-32-50</t>
+  </si>
+  <si>
+    <t>-39-60</t>
+  </si>
+  <si>
+    <t>-29-45</t>
+  </si>
+  <si>
+    <t>HDL-C</t>
+  </si>
+  <si>
+    <t>Triglyc</t>
+  </si>
+  <si>
+    <t>Apo-B</t>
+  </si>
+  <si>
+    <t>LDL-C</t>
+  </si>
+  <si>
+    <t>Tot. Chol</t>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Tier 2 or better for 70% of commercial lives through 2007</t>
+  </si>
+  <si>
+    <t>HMO</t>
+  </si>
+  <si>
+    <t>1/1/07 5% price increase. Lipitor 874-1246 annual cost. Crestor 945, Vytorin 982, Zetia 913, Zocor 20-58.</t>
+  </si>
+  <si>
+    <t>The Editor's Roundtable: Statin Therapy in Acute Coronary Syndrome. Am Journ Cardiology Friedewald.</t>
+  </si>
+  <si>
+    <t>Papers</t>
+  </si>
+  <si>
+    <t>PRISM - Platelet Receptor Inhibition in Ischemic Syndrome Management</t>
+  </si>
+  <si>
+    <t>GRACE - Global Registry of Acute Coronary Events</t>
+  </si>
+  <si>
+    <t>MIRACL - Effects of atorvastatin in patients with unstable angina or non-Q wave MI. Circulation 2002;106:1690-1695.</t>
+  </si>
+  <si>
+    <t>MIRACL - Effects of atorvastatin on early recurrent ischemic events in ACS. JAMA 2001;285:1711-1718.</t>
+  </si>
+  <si>
+    <t>Benefits of early lipid-lowering intervention in high-risk patients: the lipid intervention strategies for coronary patients study. Clin Ther 2000;22:949-960. Pedersen et al.</t>
+  </si>
+  <si>
+    <t>MIRACL--high-dose atorvastatin enhances the decline in inflammatory markersw in patients with ACS - Circulation 2003;108:1560-1566.</t>
+  </si>
+  <si>
+    <t>Statin therapy on ventricular late potentials in AMI. Intl J Cardiol 2003;90:63-72.</t>
+  </si>
+  <si>
+    <t>RECIFE - Cholesterol reduction rapidly improves endothelial function after ACS. Circulation 1999;99:3227-3233. Dupuis et al.</t>
+  </si>
+  <si>
+    <t>Early intensive vs a delayed conservative simvastatin strategy in patients with ACS. Phase Z of A to Z. JAMA 2004;292:1307-1316. de Lamos et al.</t>
+  </si>
+  <si>
+    <t>Intensive versus moedate lipid lowering with statins after ACS. NEJM 2004;350:1495-1504. Cannon et al.</t>
+  </si>
+  <si>
+    <t>L-CAD: Pravastatin initiated immediately after a coronary event. Am J Cardiol 2000;86:1293-1298.</t>
+  </si>
+  <si>
+    <t>LIPID: Prevention of CV events/death with pravastatin in patients with CHD. NEJM 1998;339:1349-1357.</t>
+  </si>
+  <si>
+    <t>Cholesterol and Recurrent Events Trial - Pravastatin on coronary events after MI in patients with average cholesterol levels. NEJM 1996;335:1001-1009.</t>
+  </si>
+  <si>
+    <t>SSSS - Scandinavian Simvastatin Survival Study Group - Lancet 1994;344:1383-1389. Cholesterol lowering in n=4444 CHD to achieve secondary prevention.</t>
+  </si>
+  <si>
+    <t>CASHMERE - Failed to beat placebo in CIMT.</t>
+  </si>
+  <si>
+    <t>A to Z</t>
+  </si>
+  <si>
+    <t>BONES - no effect of lipitor on BMD</t>
+  </si>
+  <si>
+    <t>BELLES - no effect on calcification as measured by Ultrafast CAT in postmenopausal women</t>
+  </si>
+  <si>
+    <t>ALLIANCE - Lipitor reduces MI 47% vs SOC (post-MI)</t>
+  </si>
+  <si>
+    <t>SAGE - Lipitor 80mg vs. Pravachol 40mg showed sig. reduction in duration of myocarial ischemia</t>
+  </si>
+  <si>
+    <t>MIRACL - ACS study n=3086 placebo vs 80mg. 14.8% vs 17.4% primary endpoint.</t>
+  </si>
+  <si>
+    <t>PROVE-IT n=4162 Pravachol vs Lipitor. 26.3% vs 22.4%.</t>
+  </si>
+  <si>
+    <t>ASCOT-LLA - atorvastatin vs placebo arm of atenolol vs Norvasc stopped early on events</t>
+  </si>
+  <si>
+    <t>REVERSAL - Lipitor had no plaque progresion vs. progression with pravastatin 40mg</t>
+  </si>
+  <si>
+    <t>CARDS - 10mg Lipitor reduced CV events 37% and stroke by 48% in T2D patients.</t>
+  </si>
+  <si>
+    <t>SPARCL - showed 16% reduction in the incidence of recurrent stroke. PE: reduce second stroke with 80mg Lipitor - Published in NEJM - 2.2% absolute reduction</t>
+  </si>
+  <si>
+    <t>TNT - showed 22% reduction in events with 80mg vs. 10mg lipitor</t>
+  </si>
+  <si>
+    <t>IDEAL - patients with history of prior MI - failed to show PE benefit vs. Zocor (80mg Lipitor vs. 20-40mg Zocor), p=0.07</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>HMG-CoA reductase inhibitor. Beneficial effects in acute coronary occlusion: remodeling/anti-inflammatory effects due to nitric oxide release. Anumal studies show reversal of hypertrophic cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Dyslipidemia, ACS</t>
+  </si>
+  <si>
+    <t>Mgmt feels low-cost statins will bring new patients to the market. Pharmacoeconomic analysis of IDEAL shows Lipitor adds more value than 75% discounted Zocor.</t>
+  </si>
+  <si>
+    <t>Other growth drivers include SPARCL, pharmacoeconomic studies and lower cholesterol guidelines.</t>
+  </si>
+  <si>
+    <t>5/25/06 - ML meets with mgmt and notes aggressive 2-tier formulary contracting (3-year deal with WLP to keep Lipitor on 2nd-tier).</t>
+  </si>
+  <si>
+    <t>5686104 is stability patent expiring 2015.</t>
+  </si>
+  <si>
+    <t>5969156 is crystal form patent expiring 2016.</t>
+  </si>
+  <si>
+    <t>6126971 is a salt patent, expiring 2013.</t>
+  </si>
+  <si>
+    <t>4681893 patent protects until March 2010 and claims racemate production process. Upheld in court and USCAFC, including patent term extension.</t>
+  </si>
+  <si>
+    <t>5273995 reissued 3/17/09 as RE40667. Expires 6/2011 including pediatric exclusivity. This is a salt/R-trans patent. Ranbaxy FTF?</t>
+  </si>
+  <si>
+    <t>Ranbaxy settles 6/18/08 to launch generics 11/30/11.</t>
+  </si>
+  <si>
+    <t>atorvastatin</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>Geodon</t>
+  </si>
+  <si>
+    <t>TEVA challening. PFE sued TEVA 1/11/07. 07-cv-174, USDC, DofNJ (Newark), Pfizer v. Ivax.</t>
+  </si>
+  <si>
+    <t>Detrol</t>
+  </si>
+  <si>
+    <t>Effexor XR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -342,13 +3376,68 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -360,11 +3449,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -385,10 +3480,78 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{0CCD5425-0045-4669-AE8C-0C6883080D73}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FCED1AB9-9B34-4C17-AA06-32893396C27A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{430EDDB5-2D5A-4E43-BFE8-008BF837DB00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,6 +3564,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Valuation"/>
+      <sheetName val="ROCHE"/>
+      <sheetName val="Old Valuation"/>
+      <sheetName val="Hill Samuel"/>
+      <sheetName val="NoteXpress"/>
+      <sheetName val="Bus Seg"/>
+      <sheetName val="Financial "/>
+      <sheetName val="Geographic"/>
+      <sheetName val="Divisional breakdown"/>
+      <sheetName val="Pharma"/>
+      <sheetName val="Quarters"/>
+      <sheetName val="Interims"/>
+      <sheetName val="CashFlow"/>
+      <sheetName val="OLD divisional"/>
+      <sheetName val="Liq Funds"/>
+      <sheetName val="Standard Qs Sheet"/>
+      <sheetName val="Qtrly Product Sales"/>
+      <sheetName val="Sensitivity multiples"/>
+      <sheetName val="DCF"/>
+      <sheetName val="BSheet"/>
+      <sheetName val="Financials"/>
+      <sheetName val="Roche ex-Genentech"/>
+      <sheetName val="Sum of the Parts"/>
+      <sheetName val="Pharma Only"/>
+      <sheetName val="Discounted CashFlow"/>
+      <sheetName val="ex-F&amp;F"/>
+      <sheetName val="Therapeutic Areas"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Xenical"/>
+      <sheetName val="Genentech"/>
+      <sheetName val="Product Buffer Sheet"/>
+      <sheetName val="Genentech Phasing"/>
+      <sheetName val="Chart1"/>
+      <sheetName val="Charts"/>
+      <sheetName val="Conversion"/>
+      <sheetName val="Quarterly product sales"/>
+      <sheetName val="Quantum"/>
+      <sheetName val="Pharma Half Year"/>
+      <sheetName val="Div'l Analysis"/>
+      <sheetName val="half year results"/>
+      <sheetName val="EVA"/>
+      <sheetName val="R&amp;D"/>
+      <sheetName val="EVA Calculations"/>
+      <sheetName val="Historical Division"/>
+      <sheetName val="Valuations"/>
+      <sheetName val="#REF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Q"/>
+      <sheetName val="Figures"/>
+      <sheetName val="projections"/>
+      <sheetName val="Targets &amp; Cost cutting"/>
+      <sheetName val="eval"/>
+      <sheetName val="dayval"/>
+      <sheetName val="debt"/>
+      <sheetName val="dcf"/>
+      <sheetName val="Oildisc"/>
+      <sheetName val="assms"/>
+      <sheetName val="chem"/>
+      <sheetName val="r&amp;m"/>
+      <sheetName val="Gas&amp;Power"/>
+      <sheetName val="group e&amp;p"/>
+      <sheetName val="ARCO_E&amp;P"/>
+      <sheetName val="USA"/>
+      <sheetName val="UK"/>
+      <sheetName val="Europe"/>
+      <sheetName val="RoW"/>
+      <sheetName val="prodprofile"/>
+      <sheetName val="lr"/>
+      <sheetName val="SOP"/>
+      <sheetName val="Amoco Cost savings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,15 +4023,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E017A8A-799D-4C3F-B6D7-D970F67C6431}">
-  <dimension ref="L2:N11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +4043,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
         <v>1</v>
       </c>
@@ -727,7 +4054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +4064,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
         <v>3</v>
       </c>
@@ -748,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
         <v>4</v>
       </c>
@@ -760,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
         <v>5</v>
       </c>
@@ -769,17 +4096,17 @@
         <v>29202.8283686</v>
       </c>
     </row>
-    <row r="9" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>92</v>
       </c>
@@ -791,6 +4118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2229FB-F424-40E9-A974-86FFAA24DCFE}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -2656,4 +5984,6443 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDC89D-EC72-46B3-B2FF-9C49F601E783}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AV12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="48" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C4" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C5" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C7" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C9" s="28">
+        <v>2002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2003</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2004</v>
+      </c>
+      <c r="F9" s="28">
+        <v>2005</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2007</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2008</v>
+      </c>
+      <c r="J9" s="30">
+        <v>2009</v>
+      </c>
+      <c r="K9" s="30">
+        <v>2010</v>
+      </c>
+      <c r="L9" s="30">
+        <v>2011</v>
+      </c>
+      <c r="M9" s="30">
+        <v>2012</v>
+      </c>
+      <c r="N9" s="30">
+        <v>2013</v>
+      </c>
+      <c r="O9" s="30">
+        <v>2014</v>
+      </c>
+      <c r="P9" s="30">
+        <v>2015</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>2016</v>
+      </c>
+      <c r="R9" s="30">
+        <v>2017</v>
+      </c>
+      <c r="S9" s="30">
+        <v>2018</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y9" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB9" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC9" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD9" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE9" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF9" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG9" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI9" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ9" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM9" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR9" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU9" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV9" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="27">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1103</v>
+      </c>
+      <c r="E10" s="27">
+        <v>886</v>
+      </c>
+      <c r="F10" s="27">
+        <v>884</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="Y10" s="26">
+        <v>263</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>213</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>256</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>285</v>
+      </c>
+      <c r="AC10" s="26">
+        <v>293</v>
+      </c>
+      <c r="AD10" s="26">
+        <v>227</v>
+      </c>
+      <c r="AE10" s="26">
+        <v>282</v>
+      </c>
+      <c r="AF10" s="26">
+        <v>301</v>
+      </c>
+      <c r="AG10" s="27">
+        <v>220</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>201</v>
+      </c>
+      <c r="AI10" s="27">
+        <v>217</v>
+      </c>
+      <c r="AJ10" s="27">
+        <v>248</v>
+      </c>
+      <c r="AK10" s="27">
+        <v>230</v>
+      </c>
+      <c r="AL10" s="27">
+        <v>174</v>
+      </c>
+      <c r="AP10" s="28"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="27">
+        <v>735</v>
+      </c>
+      <c r="D11" s="27">
+        <v>776</v>
+      </c>
+      <c r="E11" s="27">
+        <v>791</v>
+      </c>
+      <c r="F11" s="27">
+        <v>790</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="Y11" s="26">
+        <v>159</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>172</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>181</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>206</v>
+      </c>
+      <c r="AC11" s="26">
+        <v>182</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>192</v>
+      </c>
+      <c r="AE11" s="26">
+        <v>194</v>
+      </c>
+      <c r="AF11" s="26">
+        <v>208</v>
+      </c>
+      <c r="AG11" s="27">
+        <v>196</v>
+      </c>
+      <c r="AH11" s="27">
+        <v>188</v>
+      </c>
+      <c r="AI11" s="27">
+        <v>186</v>
+      </c>
+      <c r="AJ11" s="27">
+        <v>221</v>
+      </c>
+      <c r="AK11" s="27">
+        <v>208</v>
+      </c>
+      <c r="AL11" s="27">
+        <v>217</v>
+      </c>
+      <c r="AP11" s="28"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="27">
+        <f>C11+C10</f>
+        <v>1735</v>
+      </c>
+      <c r="D12" s="27">
+        <f>D11+D10</f>
+        <v>1879</v>
+      </c>
+      <c r="E12" s="27">
+        <f>E11+E10</f>
+        <v>1677</v>
+      </c>
+      <c r="F12" s="27">
+        <f>F11+F10</f>
+        <v>1674</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6771F566-9DB8-4C45-9280-F213A1DE4980}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE14837-4C12-42AB-9DAC-3CC46D00BE3F}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:BT35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
+    <col min="4" max="6" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="36" width="5.85546875" style="10" customWidth="1"/>
+    <col min="37" max="49" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="63" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="65" max="72" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="23">
+        <v>33816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+      <c r="C32" s="15">
+        <v>1994</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1995</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1996</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1997</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1998</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1999</v>
+      </c>
+      <c r="I32" s="15">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2001</v>
+      </c>
+      <c r="K32" s="15">
+        <v>2002</v>
+      </c>
+      <c r="L32" s="15">
+        <v>2003</v>
+      </c>
+      <c r="M32" s="15">
+        <v>2004</v>
+      </c>
+      <c r="N32" s="15">
+        <v>2005</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="15">
+        <v>2007</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>2008</v>
+      </c>
+      <c r="R32" s="17">
+        <v>2009</v>
+      </c>
+      <c r="S32" s="17">
+        <v>2010</v>
+      </c>
+      <c r="T32" s="17">
+        <v>2011</v>
+      </c>
+      <c r="U32" s="17">
+        <v>2012</v>
+      </c>
+      <c r="V32" s="17">
+        <v>2013</v>
+      </c>
+      <c r="W32" s="17">
+        <v>2014</v>
+      </c>
+      <c r="X32" s="17">
+        <v>2015</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>2016</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>2017</v>
+      </c>
+      <c r="AA32" s="17">
+        <v>2018</v>
+      </c>
+      <c r="AB32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF32" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG32" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH32" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ32" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL32" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM32" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN32" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP32" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ32" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS32" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT32" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY32" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ32" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA32" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB32" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC32" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH32" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL32" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN32" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT32" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:72" s="11" customFormat="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
+        <v>2575</v>
+      </c>
+      <c r="H33" s="12">
+        <v>3030</v>
+      </c>
+      <c r="I33" s="12">
+        <v>3361</v>
+      </c>
+      <c r="J33" s="12">
+        <v>3581</v>
+      </c>
+      <c r="K33" s="12">
+        <f>K34+K35</f>
+        <v>3846</v>
+      </c>
+      <c r="L33" s="12">
+        <f>L34+L35</f>
+        <v>4335</v>
+      </c>
+      <c r="M33" s="12">
+        <f>M34+M35</f>
+        <v>4462</v>
+      </c>
+      <c r="N33" s="12">
+        <f>N34+N35</f>
+        <v>4612</v>
+      </c>
+      <c r="O33" s="12">
+        <v>5164</v>
+      </c>
+      <c r="P33" s="12">
+        <f>O33*0.65</f>
+        <v>3356.6</v>
+      </c>
+      <c r="Q33" s="12">
+        <f>P33*0.1</f>
+        <v>335.66</v>
+      </c>
+      <c r="R33" s="12">
+        <f>Q33*0.4</f>
+        <v>134.26400000000001</v>
+      </c>
+      <c r="S33" s="12">
+        <f>R33*0.2</f>
+        <v>26.852800000000002</v>
+      </c>
+      <c r="T33" s="12">
+        <f>S33*0.2</f>
+        <v>5.3705600000000011</v>
+      </c>
+      <c r="U33" s="12">
+        <f>T33*0.2</f>
+        <v>1.0741120000000002</v>
+      </c>
+      <c r="V33" s="12">
+        <f>U33*0.2</f>
+        <v>0.21482240000000005</v>
+      </c>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AC33" s="12">
+        <f t="shared" ref="AC33:BK33" si="0">AC34+AC35</f>
+        <v>567</v>
+      </c>
+      <c r="AD33" s="12">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="AE33" s="12">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+      <c r="AF33" s="12">
+        <f t="shared" si="0"/>
+        <v>719</v>
+      </c>
+      <c r="AG33" s="12">
+        <f t="shared" si="0"/>
+        <v>694</v>
+      </c>
+      <c r="AH33" s="12">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+      <c r="AI33" s="12">
+        <f t="shared" si="0"/>
+        <v>778</v>
+      </c>
+      <c r="AJ33" s="12">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+      <c r="AK33" s="12">
+        <f t="shared" si="0"/>
+        <v>782</v>
+      </c>
+      <c r="AL33" s="12">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="AM33" s="12">
+        <f t="shared" si="0"/>
+        <v>847</v>
+      </c>
+      <c r="AN33" s="12">
+        <f t="shared" si="0"/>
+        <v>928</v>
+      </c>
+      <c r="AO33" s="12">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+      <c r="AP33" s="12">
+        <f t="shared" si="0"/>
+        <v>879</v>
+      </c>
+      <c r="AQ33" s="12">
+        <f t="shared" si="0"/>
+        <v>881</v>
+      </c>
+      <c r="AR33" s="12">
+        <f t="shared" si="0"/>
+        <v>962</v>
+      </c>
+      <c r="AS33" s="12">
+        <f t="shared" si="0"/>
+        <v>931</v>
+      </c>
+      <c r="AT33" s="12">
+        <f t="shared" si="0"/>
+        <v>886</v>
+      </c>
+      <c r="AU33" s="12">
+        <f t="shared" si="0"/>
+        <v>963</v>
+      </c>
+      <c r="AV33" s="12">
+        <f t="shared" si="0"/>
+        <v>1066</v>
+      </c>
+      <c r="AW33" s="12">
+        <f t="shared" si="0"/>
+        <v>983</v>
+      </c>
+      <c r="AX33" s="12">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="AY33" s="12">
+        <f t="shared" si="0"/>
+        <v>1104</v>
+      </c>
+      <c r="AZ33" s="12">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
+      <c r="BA33" s="12">
+        <f t="shared" si="0"/>
+        <v>1141</v>
+      </c>
+      <c r="BB33" s="12">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+      <c r="BC33" s="12">
+        <f t="shared" si="0"/>
+        <v>1036</v>
+      </c>
+      <c r="BD33" s="12">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="BE33" s="12">
+        <f t="shared" si="0"/>
+        <v>1175</v>
+      </c>
+      <c r="BF33" s="12">
+        <f t="shared" si="0"/>
+        <v>1156</v>
+      </c>
+      <c r="BG33" s="12">
+        <f t="shared" si="0"/>
+        <v>1131</v>
+      </c>
+      <c r="BH33" s="12">
+        <f t="shared" si="0"/>
+        <v>1244</v>
+      </c>
+      <c r="BI33" s="12">
+        <f t="shared" si="0"/>
+        <v>1183</v>
+      </c>
+      <c r="BJ33" s="12">
+        <f t="shared" si="0"/>
+        <v>1158</v>
+      </c>
+      <c r="BK33" s="12">
+        <f t="shared" si="0"/>
+        <v>1208</v>
+      </c>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="12"/>
+    </row>
+    <row r="34" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
+        <v>1775</v>
+      </c>
+      <c r="L34" s="12">
+        <f>SUM(AW34:AZ34)</f>
+        <v>1934</v>
+      </c>
+      <c r="M34" s="12">
+        <v>1991</v>
+      </c>
+      <c r="N34" s="12">
+        <v>2112</v>
+      </c>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12">
+        <v>259</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>280</v>
+      </c>
+      <c r="AE34" s="12">
+        <v>342</v>
+      </c>
+      <c r="AF34" s="12">
+        <v>324</v>
+      </c>
+      <c r="AG34" s="12">
+        <v>307</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>306</v>
+      </c>
+      <c r="AI34" s="12">
+        <v>358</v>
+      </c>
+      <c r="AJ34" s="12">
+        <v>364</v>
+      </c>
+      <c r="AK34" s="12">
+        <v>346</v>
+      </c>
+      <c r="AL34" s="12">
+        <v>337</v>
+      </c>
+      <c r="AM34" s="12">
+        <v>404</v>
+      </c>
+      <c r="AN34" s="12">
+        <v>439</v>
+      </c>
+      <c r="AO34" s="12">
+        <v>391</v>
+      </c>
+      <c r="AP34" s="12">
+        <v>391</v>
+      </c>
+      <c r="AQ34" s="12">
+        <v>426</v>
+      </c>
+      <c r="AR34" s="12">
+        <v>459</v>
+      </c>
+      <c r="AS34" s="12">
+        <v>448</v>
+      </c>
+      <c r="AT34" s="12">
+        <v>380</v>
+      </c>
+      <c r="AU34" s="12">
+        <v>440</v>
+      </c>
+      <c r="AV34" s="12">
+        <v>507</v>
+      </c>
+      <c r="AW34" s="12">
+        <v>436</v>
+      </c>
+      <c r="AX34" s="12">
+        <v>424</v>
+      </c>
+      <c r="AY34" s="12">
+        <v>489</v>
+      </c>
+      <c r="AZ34" s="12">
+        <v>585</v>
+      </c>
+      <c r="BA34" s="12">
+        <v>489</v>
+      </c>
+      <c r="BB34" s="12">
+        <v>412</v>
+      </c>
+      <c r="BC34" s="12">
+        <v>471</v>
+      </c>
+      <c r="BD34" s="12">
+        <v>619</v>
+      </c>
+      <c r="BE34" s="12">
+        <v>540</v>
+      </c>
+      <c r="BF34" s="12">
+        <v>523</v>
+      </c>
+      <c r="BG34" s="12">
+        <v>546</v>
+      </c>
+      <c r="BH34" s="12">
+        <v>613</v>
+      </c>
+      <c r="BI34" s="12">
+        <v>626</v>
+      </c>
+      <c r="BJ34" s="12">
+        <v>560</v>
+      </c>
+      <c r="BK34" s="12">
+        <v>628</v>
+      </c>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="12"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+    </row>
+    <row r="35" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
+        <v>2071</v>
+      </c>
+      <c r="L35" s="12">
+        <f>SUM(AW35:AZ35)</f>
+        <v>2401</v>
+      </c>
+      <c r="M35" s="12">
+        <v>2471</v>
+      </c>
+      <c r="N35" s="12">
+        <v>2500</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AC35" s="12">
+        <v>308</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>338</v>
+      </c>
+      <c r="AE35" s="12">
+        <v>329</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>395</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>387</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>407</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>420</v>
+      </c>
+      <c r="AJ35" s="12">
+        <v>443</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>436</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>468</v>
+      </c>
+      <c r="AM35" s="12">
+        <v>443</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>489</v>
+      </c>
+      <c r="AO35" s="12">
+        <v>469</v>
+      </c>
+      <c r="AP35" s="12">
+        <v>488</v>
+      </c>
+      <c r="AQ35" s="12">
+        <v>455</v>
+      </c>
+      <c r="AR35" s="12">
+        <v>503</v>
+      </c>
+      <c r="AS35" s="12">
+        <v>483</v>
+      </c>
+      <c r="AT35" s="12">
+        <v>506</v>
+      </c>
+      <c r="AU35" s="12">
+        <v>523</v>
+      </c>
+      <c r="AV35" s="12">
+        <v>559</v>
+      </c>
+      <c r="AW35" s="12">
+        <v>547</v>
+      </c>
+      <c r="AX35" s="12">
+        <v>579</v>
+      </c>
+      <c r="AY35" s="12">
+        <v>615</v>
+      </c>
+      <c r="AZ35" s="12">
+        <v>660</v>
+      </c>
+      <c r="BA35" s="12">
+        <v>652</v>
+      </c>
+      <c r="BB35" s="12">
+        <v>620</v>
+      </c>
+      <c r="BC35" s="12">
+        <v>565</v>
+      </c>
+      <c r="BD35" s="12">
+        <v>634</v>
+      </c>
+      <c r="BE35" s="12">
+        <v>635</v>
+      </c>
+      <c r="BF35" s="12">
+        <v>633</v>
+      </c>
+      <c r="BG35" s="12">
+        <v>585</v>
+      </c>
+      <c r="BH35" s="12">
+        <v>631</v>
+      </c>
+      <c r="BI35" s="12">
+        <v>557</v>
+      </c>
+      <c r="BJ35" s="12">
+        <v>598</v>
+      </c>
+      <c r="BK35" s="12">
+        <v>580</v>
+      </c>
+      <c r="BL35" s="13"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="12"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9123C3FA-F081-4CBA-88A6-0D80534EB2CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27366628-F333-4875-A4E3-B3DF6EB0E6AB}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="10" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="13.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="25">
+        <v>40130</v>
+      </c>
+      <c r="C13" s="12">
+        <v>49634</v>
+      </c>
+      <c r="D13" s="12">
+        <v>209947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="25">
+        <f t="shared" ref="B14:B20" si="0">B13-7</f>
+        <v>40123</v>
+      </c>
+      <c r="C14" s="12">
+        <v>52695</v>
+      </c>
+      <c r="D14" s="12">
+        <v>220362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="25">
+        <f t="shared" si="0"/>
+        <v>40116</v>
+      </c>
+      <c r="C15" s="12">
+        <v>52148</v>
+      </c>
+      <c r="D15" s="12">
+        <v>210793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="25">
+        <f t="shared" si="0"/>
+        <v>40109</v>
+      </c>
+      <c r="C16" s="12">
+        <v>52617</v>
+      </c>
+      <c r="D16" s="12">
+        <v>207146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="25">
+        <f t="shared" si="0"/>
+        <v>40102</v>
+      </c>
+      <c r="C17" s="12">
+        <v>52309</v>
+      </c>
+      <c r="D17" s="12">
+        <v>201328</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="25">
+        <f t="shared" si="0"/>
+        <v>40095</v>
+      </c>
+      <c r="C18" s="12">
+        <v>57242</v>
+      </c>
+      <c r="D18" s="12">
+        <v>208037</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="25">
+        <f t="shared" si="0"/>
+        <v>40088</v>
+      </c>
+      <c r="C19" s="12">
+        <v>59496</v>
+      </c>
+      <c r="D19" s="12">
+        <v>219471</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="25">
+        <f t="shared" si="0"/>
+        <v>40081</v>
+      </c>
+      <c r="C20" s="12">
+        <v>57651</v>
+      </c>
+      <c r="D20" s="12">
+        <v>210721</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="25">
+        <v>39759</v>
+      </c>
+      <c r="C21" s="12">
+        <v>128829</v>
+      </c>
+      <c r="D21" s="12">
+        <v>242130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="25">
+        <v>39304</v>
+      </c>
+      <c r="C22" s="12">
+        <v>104844</v>
+      </c>
+      <c r="D22" s="12">
+        <v>175214</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="25">
+        <f>B24+7</f>
+        <v>39297</v>
+      </c>
+      <c r="C23" s="12">
+        <v>105008</v>
+      </c>
+      <c r="D23" s="12">
+        <v>177479</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="25">
+        <v>39290</v>
+      </c>
+      <c r="C24" s="12">
+        <v>100901</v>
+      </c>
+      <c r="D24" s="12">
+        <v>168257</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="25">
+        <v>39283</v>
+      </c>
+      <c r="C25" s="12">
+        <v>99262</v>
+      </c>
+      <c r="D25" s="12">
+        <v>167102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="25">
+        <v>39276</v>
+      </c>
+      <c r="C26" s="12">
+        <v>98465</v>
+      </c>
+      <c r="D26" s="12">
+        <v>162285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="25">
+        <f>B26-7</f>
+        <v>39269</v>
+      </c>
+      <c r="C27" s="12">
+        <v>85691</v>
+      </c>
+      <c r="D27" s="12">
+        <v>155583</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="25">
+        <v>39251</v>
+      </c>
+      <c r="C28" s="12">
+        <v>93717</v>
+      </c>
+      <c r="D28" s="12">
+        <v>162729</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="25">
+        <f>B28-7</f>
+        <v>39244</v>
+      </c>
+      <c r="C29" s="12">
+        <v>82375</v>
+      </c>
+      <c r="D29" s="12">
+        <v>148171</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="25">
+        <v>39192</v>
+      </c>
+      <c r="C30" s="12">
+        <v>87415</v>
+      </c>
+      <c r="D30" s="12">
+        <v>151082</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="25">
+        <v>39185</v>
+      </c>
+      <c r="C31" s="12">
+        <v>84808</v>
+      </c>
+      <c r="D31" s="12">
+        <v>147646</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="25">
+        <v>39108</v>
+      </c>
+      <c r="C32" s="12">
+        <v>83184</v>
+      </c>
+      <c r="D32" s="12">
+        <v>140832</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="25">
+        <v>39094</v>
+      </c>
+      <c r="C33" s="12">
+        <v>85518</v>
+      </c>
+      <c r="D33" s="12">
+        <v>147117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="25">
+        <v>39087</v>
+      </c>
+      <c r="C34" s="12">
+        <v>75652</v>
+      </c>
+      <c r="D34" s="12">
+        <v>139183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="25">
+        <v>39080</v>
+      </c>
+      <c r="C35" s="12">
+        <v>64517</v>
+      </c>
+      <c r="D35" s="12">
+        <v>120643</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="25">
+        <v>39066</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12">
+        <v>137766</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="25">
+        <v>39059</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12">
+        <v>140308</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F9ADAA24-2D20-419A-8F02-0E370DC5723E}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C7AEE2-BA4A-47CF-9BFC-FDD7E8A6B133}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P226"/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="13.5703125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="C4" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="C5" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="C6" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="C7" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="C8" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C47" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C49" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C50" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C52" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C53" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C54" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C55" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C56" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C57" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C59" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C60" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="10">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J60" s="10">
+        <v>2.27</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L60" s="10">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C61" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="10">
+        <v>3.31</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" s="10">
+        <v>2.79</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L61" s="10">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C62" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="10">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" s="10">
+        <v>3.15</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L62" s="10">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C63" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="10">
+        <v>3.15</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L63" s="10">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C66" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="P66" s="42"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C67" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="25">
+        <f t="shared" ref="B68:B99" si="0">B69+7</f>
+        <v>40221</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="25">
+        <f t="shared" si="0"/>
+        <v>40214</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="25">
+        <f t="shared" si="0"/>
+        <v>40207</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="25">
+        <f t="shared" si="0"/>
+        <v>40200</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="25">
+        <f t="shared" si="0"/>
+        <v>40193</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B73" s="25">
+        <f t="shared" si="0"/>
+        <v>40186</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B74" s="25">
+        <f t="shared" si="0"/>
+        <v>40179</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B75" s="25">
+        <f t="shared" si="0"/>
+        <v>40172</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B76" s="25">
+        <f t="shared" si="0"/>
+        <v>40165</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B77" s="25">
+        <f t="shared" si="0"/>
+        <v>40158</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B78" s="25">
+        <f t="shared" si="0"/>
+        <v>40151</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B79" s="25">
+        <f t="shared" si="0"/>
+        <v>40144</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B80" s="25">
+        <f t="shared" si="0"/>
+        <v>40137</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B81" s="25">
+        <f t="shared" si="0"/>
+        <v>40130</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="12">
+        <v>1244936</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="12">
+        <v>553680</v>
+      </c>
+      <c r="J81" s="15"/>
+      <c r="K81" s="12">
+        <v>267299</v>
+      </c>
+      <c r="L81" s="15"/>
+      <c r="M81" s="12">
+        <f>1960934+7410</f>
+        <v>1968344</v>
+      </c>
+      <c r="N81" s="15"/>
+      <c r="O81" s="12">
+        <f>410232+3008</f>
+        <v>413240</v>
+      </c>
+      <c r="P81" s="15"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B82" s="25">
+        <f t="shared" si="0"/>
+        <v>40123</v>
+      </c>
+      <c r="C82" s="34">
+        <f>E82/E134-1</f>
+        <v>0.16059951450905285</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="12">
+        <v>1302860</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="12">
+        <v>574381</v>
+      </c>
+      <c r="J82" s="15"/>
+      <c r="K82" s="12">
+        <v>279971</v>
+      </c>
+      <c r="L82" s="15"/>
+      <c r="M82" s="12">
+        <f>2036533+7526</f>
+        <v>2044059</v>
+      </c>
+      <c r="N82" s="15"/>
+      <c r="O82" s="12">
+        <f>413424+3144</f>
+        <v>416568</v>
+      </c>
+      <c r="P82" s="15"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B83" s="25">
+        <f t="shared" si="0"/>
+        <v>40116</v>
+      </c>
+      <c r="C83" s="34"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="12">
+        <v>1264561</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="12">
+        <v>549275</v>
+      </c>
+      <c r="J83" s="15"/>
+      <c r="K83" s="12">
+        <v>270499</v>
+      </c>
+      <c r="L83" s="15"/>
+      <c r="M83" s="12">
+        <f>1958794+7472</f>
+        <v>1966266</v>
+      </c>
+      <c r="N83" s="15"/>
+      <c r="O83" s="12">
+        <f>408731+3370</f>
+        <v>412101</v>
+      </c>
+      <c r="P83" s="15"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B84" s="25">
+        <f t="shared" si="0"/>
+        <v>40109</v>
+      </c>
+      <c r="C84" s="34">
+        <f>E84/E136-1</f>
+        <v>0.18308012307456356</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="12">
+        <v>1234272</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="12">
+        <v>542200</v>
+      </c>
+      <c r="J84" s="15"/>
+      <c r="K84" s="12">
+        <v>264541</v>
+      </c>
+      <c r="L84" s="15"/>
+      <c r="M84" s="12">
+        <f>1911713+7341</f>
+        <v>1919054</v>
+      </c>
+      <c r="N84" s="15"/>
+      <c r="O84" s="12">
+        <f>388439+3220</f>
+        <v>391659</v>
+      </c>
+      <c r="P84" s="15"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B85" s="25">
+        <f t="shared" si="0"/>
+        <v>40102</v>
+      </c>
+      <c r="C85" s="34">
+        <f>E85/E137-1</f>
+        <v>0.15180250558340602</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="12">
+        <v>1201641</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="12">
+        <v>524453</v>
+      </c>
+      <c r="J85" s="15"/>
+      <c r="K85" s="12">
+        <v>257895</v>
+      </c>
+      <c r="L85" s="15"/>
+      <c r="M85" s="12">
+        <f>1847003+7234</f>
+        <v>1854237</v>
+      </c>
+      <c r="N85" s="15"/>
+      <c r="O85" s="12">
+        <f>374173+3131</f>
+        <v>377304</v>
+      </c>
+      <c r="P85" s="15"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B86" s="25">
+        <f t="shared" si="0"/>
+        <v>40095</v>
+      </c>
+      <c r="C86" s="34">
+        <f>E86/E138-1</f>
+        <v>0.15812828646086508</v>
+      </c>
+      <c r="D86" s="15"/>
+      <c r="E86" s="12">
+        <v>1255623</v>
+      </c>
+      <c r="F86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="12">
+        <v>539816</v>
+      </c>
+      <c r="J86" s="15"/>
+      <c r="K86" s="12">
+        <v>268125</v>
+      </c>
+      <c r="L86" s="15"/>
+      <c r="M86" s="12">
+        <f>1919989+7409</f>
+        <v>1927398</v>
+      </c>
+      <c r="N86" s="15"/>
+      <c r="O86" s="12">
+        <f>392268+3089</f>
+        <v>395357</v>
+      </c>
+      <c r="P86" s="15"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B87" s="25">
+        <f t="shared" si="0"/>
+        <v>40088</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="12">
+        <v>1311075</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="12">
+        <v>562927</v>
+      </c>
+      <c r="J87" s="15"/>
+      <c r="K87" s="12">
+        <v>282165</v>
+      </c>
+      <c r="L87" s="15"/>
+      <c r="M87" s="12">
+        <f>2001454+7624</f>
+        <v>2009078</v>
+      </c>
+      <c r="N87" s="15"/>
+      <c r="O87" s="12">
+        <f>409841+3424</f>
+        <v>413265</v>
+      </c>
+      <c r="P87" s="15"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B88" s="25">
+        <f t="shared" si="0"/>
+        <v>40081</v>
+      </c>
+      <c r="C88" s="34">
+        <f>E88/E140-1</f>
+        <v>0.16611351798846918</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="12">
+        <v>1256450</v>
+      </c>
+      <c r="F88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="12">
+        <v>542271</v>
+      </c>
+      <c r="J88" s="15"/>
+      <c r="K88" s="12">
+        <v>270801</v>
+      </c>
+      <c r="L88" s="15"/>
+      <c r="M88" s="12">
+        <f>1902259+7405</f>
+        <v>1909664</v>
+      </c>
+      <c r="N88" s="15"/>
+      <c r="O88" s="12">
+        <f>390436+7405</f>
+        <v>397841</v>
+      </c>
+      <c r="P88" s="15"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B89" s="25">
+        <f t="shared" si="0"/>
+        <v>40074</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B90" s="25">
+        <f t="shared" si="0"/>
+        <v>40067</v>
+      </c>
+      <c r="C90" s="34"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B91" s="25">
+        <f t="shared" si="0"/>
+        <v>40060</v>
+      </c>
+      <c r="C91" s="34"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B92" s="25">
+        <f t="shared" si="0"/>
+        <v>40053</v>
+      </c>
+      <c r="C92" s="34"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B93" s="25">
+        <f t="shared" si="0"/>
+        <v>40046</v>
+      </c>
+      <c r="C93" s="34"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B94" s="25">
+        <f t="shared" si="0"/>
+        <v>40039</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B95" s="25">
+        <f t="shared" si="0"/>
+        <v>40032</v>
+      </c>
+      <c r="C95" s="34"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B96" s="25">
+        <f t="shared" si="0"/>
+        <v>40025</v>
+      </c>
+      <c r="C96" s="34"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B97" s="25">
+        <f t="shared" si="0"/>
+        <v>40018</v>
+      </c>
+      <c r="C97" s="34"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B98" s="25">
+        <f t="shared" si="0"/>
+        <v>40011</v>
+      </c>
+      <c r="C98" s="34"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B99" s="25">
+        <f t="shared" si="0"/>
+        <v>40004</v>
+      </c>
+      <c r="C99" s="34"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B100" s="25">
+        <f t="shared" ref="B100:B131" si="1">B101+7</f>
+        <v>39997</v>
+      </c>
+      <c r="C100" s="34"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B101" s="25">
+        <f t="shared" si="1"/>
+        <v>39990</v>
+      </c>
+      <c r="C101" s="34"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B102" s="25">
+        <f t="shared" si="1"/>
+        <v>39983</v>
+      </c>
+      <c r="C102" s="34"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B103" s="25">
+        <f t="shared" si="1"/>
+        <v>39976</v>
+      </c>
+      <c r="C103" s="34"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B104" s="25">
+        <f t="shared" si="1"/>
+        <v>39969</v>
+      </c>
+      <c r="C104" s="34"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B105" s="25">
+        <f t="shared" si="1"/>
+        <v>39962</v>
+      </c>
+      <c r="C105" s="34"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B106" s="25">
+        <f t="shared" si="1"/>
+        <v>39955</v>
+      </c>
+      <c r="C106" s="34"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B107" s="25">
+        <f t="shared" si="1"/>
+        <v>39948</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B108" s="25">
+        <f t="shared" si="1"/>
+        <v>39941</v>
+      </c>
+      <c r="C108" s="34"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B109" s="25">
+        <f t="shared" si="1"/>
+        <v>39934</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B110" s="25">
+        <f t="shared" si="1"/>
+        <v>39927</v>
+      </c>
+      <c r="C110" s="34"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B111" s="25">
+        <f t="shared" si="1"/>
+        <v>39920</v>
+      </c>
+      <c r="C111" s="34"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B112" s="25">
+        <f t="shared" si="1"/>
+        <v>39913</v>
+      </c>
+      <c r="C112" s="34"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B113" s="25">
+        <f t="shared" si="1"/>
+        <v>39906</v>
+      </c>
+      <c r="C113" s="34"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B114" s="25">
+        <f t="shared" si="1"/>
+        <v>39899</v>
+      </c>
+      <c r="C114" s="34"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B115" s="25">
+        <f t="shared" si="1"/>
+        <v>39892</v>
+      </c>
+      <c r="C115" s="34"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B116" s="25">
+        <f t="shared" si="1"/>
+        <v>39885</v>
+      </c>
+      <c r="C116" s="34"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B117" s="25">
+        <f t="shared" si="1"/>
+        <v>39878</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B118" s="25">
+        <f t="shared" si="1"/>
+        <v>39871</v>
+      </c>
+      <c r="C118" s="34"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B119" s="25">
+        <f t="shared" si="1"/>
+        <v>39864</v>
+      </c>
+      <c r="C119" s="34"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B120" s="25">
+        <f t="shared" si="1"/>
+        <v>39857</v>
+      </c>
+      <c r="C120" s="34"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B121" s="25">
+        <f t="shared" si="1"/>
+        <v>39850</v>
+      </c>
+      <c r="C121" s="34"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B122" s="25">
+        <f t="shared" si="1"/>
+        <v>39843</v>
+      </c>
+      <c r="C122" s="34"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B123" s="25">
+        <f t="shared" si="1"/>
+        <v>39836</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B124" s="25">
+        <f t="shared" si="1"/>
+        <v>39829</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B125" s="25">
+        <f t="shared" si="1"/>
+        <v>39822</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B126" s="25">
+        <f t="shared" si="1"/>
+        <v>39815</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B127" s="25">
+        <f t="shared" si="1"/>
+        <v>39808</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B128" s="25">
+        <f t="shared" si="1"/>
+        <v>39801</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B129" s="25">
+        <f t="shared" si="1"/>
+        <v>39794</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B130" s="25">
+        <f t="shared" si="1"/>
+        <v>39787</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B131" s="25">
+        <f t="shared" si="1"/>
+        <v>39780</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B132" s="25">
+        <f t="shared" ref="B132:B153" si="2">B133+7</f>
+        <v>39773</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B133" s="25">
+        <f t="shared" si="2"/>
+        <v>39766</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B134" s="25">
+        <f t="shared" si="2"/>
+        <v>39759</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="12">
+        <v>1122575</v>
+      </c>
+      <c r="F134" s="12">
+        <v>337278</v>
+      </c>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="12">
+        <v>366666</v>
+      </c>
+      <c r="J134" s="12">
+        <v>122355</v>
+      </c>
+      <c r="K134" s="12">
+        <v>277672</v>
+      </c>
+      <c r="L134" s="12">
+        <v>80237</v>
+      </c>
+      <c r="M134" s="12">
+        <v>1456845</v>
+      </c>
+      <c r="N134" s="12">
+        <v>472225</v>
+      </c>
+      <c r="O134" s="12">
+        <v>285700</v>
+      </c>
+      <c r="P134" s="12">
+        <v>95102</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B135" s="25">
+        <f t="shared" si="2"/>
+        <v>39752</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="12"/>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B136" s="25">
+        <f t="shared" si="2"/>
+        <v>39745</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="12">
+        <v>1043270</v>
+      </c>
+      <c r="F136" s="12">
+        <v>315823</v>
+      </c>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="12">
+        <v>337257</v>
+      </c>
+      <c r="J136" s="12">
+        <v>113989</v>
+      </c>
+      <c r="K136" s="12">
+        <v>262636</v>
+      </c>
+      <c r="L136" s="12">
+        <v>76234</v>
+      </c>
+      <c r="M136" s="12">
+        <v>1342025</v>
+      </c>
+      <c r="N136" s="12">
+        <v>446292</v>
+      </c>
+      <c r="O136" s="12">
+        <v>263570</v>
+      </c>
+      <c r="P136" s="12">
+        <v>88767</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B137" s="25">
+        <f t="shared" si="2"/>
+        <v>39738</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="12">
+        <v>1043270</v>
+      </c>
+      <c r="F137" s="12">
+        <v>315823</v>
+      </c>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="12">
+        <v>337257</v>
+      </c>
+      <c r="J137" s="12">
+        <v>113989</v>
+      </c>
+      <c r="K137" s="12">
+        <v>262636</v>
+      </c>
+      <c r="L137" s="12">
+        <v>76234</v>
+      </c>
+      <c r="M137" s="12">
+        <v>1342025</v>
+      </c>
+      <c r="N137" s="12">
+        <v>446292</v>
+      </c>
+      <c r="O137" s="12">
+        <v>263570</v>
+      </c>
+      <c r="P137" s="12">
+        <v>88767</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B138" s="25">
+        <f t="shared" si="2"/>
+        <v>39731</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="12">
+        <v>1084183</v>
+      </c>
+      <c r="F138" s="12">
+        <v>326304</v>
+      </c>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="12">
+        <v>349957</v>
+      </c>
+      <c r="J138" s="12">
+        <v>117208</v>
+      </c>
+      <c r="K138" s="12">
+        <v>273062</v>
+      </c>
+      <c r="L138" s="12">
+        <v>78661</v>
+      </c>
+      <c r="M138" s="12">
+        <v>1377413</v>
+      </c>
+      <c r="N138" s="12">
+        <v>460702</v>
+      </c>
+      <c r="O138" s="12">
+        <v>268780</v>
+      </c>
+      <c r="P138" s="12">
+        <v>89714</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B139" s="25">
+        <f t="shared" si="2"/>
+        <v>39724</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B140" s="25">
+        <f t="shared" si="2"/>
+        <v>39717</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="12">
+        <v>1077468</v>
+      </c>
+      <c r="F140" s="12">
+        <v>327911</v>
+      </c>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="12">
+        <v>341434</v>
+      </c>
+      <c r="J140" s="12">
+        <v>115173</v>
+      </c>
+      <c r="K140" s="12">
+        <v>271605</v>
+      </c>
+      <c r="L140" s="12">
+        <v>78151</v>
+      </c>
+      <c r="M140" s="12">
+        <v>1341811</v>
+      </c>
+      <c r="N140" s="12">
+        <v>467422</v>
+      </c>
+      <c r="O140" s="12">
+        <v>262879</v>
+      </c>
+      <c r="P140" s="12">
+        <v>88483</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B141" s="25">
+        <f t="shared" si="2"/>
+        <v>39710</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="12">
+        <v>1068721</v>
+      </c>
+      <c r="F141" s="12">
+        <v>326103</v>
+      </c>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="12">
+        <v>335336</v>
+      </c>
+      <c r="J141" s="12">
+        <v>114108</v>
+      </c>
+      <c r="K141" s="12">
+        <v>272695</v>
+      </c>
+      <c r="L141" s="12">
+        <v>78520</v>
+      </c>
+      <c r="M141" s="12">
+        <v>1329844</v>
+      </c>
+      <c r="N141" s="12">
+        <v>473081</v>
+      </c>
+      <c r="O141" s="12">
+        <v>258922</v>
+      </c>
+      <c r="P141" s="12">
+        <v>86978</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B142" s="25">
+        <f t="shared" si="2"/>
+        <v>39703</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="12"/>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B143" s="25">
+        <f t="shared" si="2"/>
+        <v>39696</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="12"/>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B144" s="25">
+        <f t="shared" si="2"/>
+        <v>39689</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B145" s="25">
+        <f t="shared" si="2"/>
+        <v>39682</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B146" s="25">
+        <f t="shared" si="2"/>
+        <v>39675</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="12">
+        <v>1071035</v>
+      </c>
+      <c r="F146" s="12">
+        <v>304626</v>
+      </c>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="12">
+        <v>333303</v>
+      </c>
+      <c r="J146" s="12">
+        <v>105689</v>
+      </c>
+      <c r="K146" s="12">
+        <v>278519</v>
+      </c>
+      <c r="L146" s="12">
+        <v>75857</v>
+      </c>
+      <c r="M146" s="12">
+        <v>1328758</v>
+      </c>
+      <c r="N146" s="12">
+        <v>460202</v>
+      </c>
+      <c r="O146" s="12">
+        <v>255717</v>
+      </c>
+      <c r="P146" s="12">
+        <v>80234</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B147" s="25">
+        <f t="shared" si="2"/>
+        <v>39668</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="12">
+        <v>1102924</v>
+      </c>
+      <c r="F147" s="12">
+        <v>330100</v>
+      </c>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="12">
+        <v>337562</v>
+      </c>
+      <c r="J147" s="12">
+        <v>112241</v>
+      </c>
+      <c r="K147" s="12">
+        <v>295350</v>
+      </c>
+      <c r="L147" s="12">
+        <v>84566</v>
+      </c>
+      <c r="M147" s="12">
+        <v>1332313</v>
+      </c>
+      <c r="N147" s="12">
+        <v>499433</v>
+      </c>
+      <c r="O147" s="12">
+        <v>258087</v>
+      </c>
+      <c r="P147" s="12">
+        <v>85574</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B148" s="25">
+        <f t="shared" si="2"/>
+        <v>39661</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="12">
+        <v>1111568</v>
+      </c>
+      <c r="F148" s="12">
+        <v>331983</v>
+      </c>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="12">
+        <v>339824</v>
+      </c>
+      <c r="J148" s="12">
+        <v>113623</v>
+      </c>
+      <c r="K148" s="12">
+        <v>297938</v>
+      </c>
+      <c r="L148" s="12">
+        <v>85087</v>
+      </c>
+      <c r="M148" s="12">
+        <v>1328223</v>
+      </c>
+      <c r="N148" s="12">
+        <v>493634</v>
+      </c>
+      <c r="O148" s="12">
+        <v>256863</v>
+      </c>
+      <c r="P148" s="12">
+        <v>84489</v>
+      </c>
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B149" s="25">
+        <f t="shared" si="2"/>
+        <v>39654</v>
+      </c>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="12">
+        <v>1064350</v>
+      </c>
+      <c r="F149" s="12">
+        <v>323461</v>
+      </c>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="12">
+        <v>325204</v>
+      </c>
+      <c r="J149" s="12">
+        <v>110435</v>
+      </c>
+      <c r="K149" s="12">
+        <v>286253</v>
+      </c>
+      <c r="L149" s="12">
+        <v>83253</v>
+      </c>
+      <c r="M149" s="12">
+        <v>1272391</v>
+      </c>
+      <c r="N149" s="12">
+        <v>471861</v>
+      </c>
+      <c r="O149" s="12">
+        <v>245845</v>
+      </c>
+      <c r="P149" s="12">
+        <v>82199</v>
+      </c>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B150" s="25">
+        <f t="shared" si="2"/>
+        <v>39647</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="12"/>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B151" s="25">
+        <f t="shared" si="2"/>
+        <v>39640</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B152" s="25">
+        <f t="shared" si="2"/>
+        <v>39633</v>
+      </c>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B153" s="25">
+        <f t="shared" si="2"/>
+        <v>39626</v>
+      </c>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="12">
+        <v>1097626</v>
+      </c>
+      <c r="F153" s="12">
+        <v>334955</v>
+      </c>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="12">
+        <v>328162</v>
+      </c>
+      <c r="J153" s="12">
+        <v>112676</v>
+      </c>
+      <c r="K153" s="12">
+        <v>305798</v>
+      </c>
+      <c r="L153" s="12">
+        <v>89079</v>
+      </c>
+      <c r="M153" s="12">
+        <v>1262484</v>
+      </c>
+      <c r="N153" s="12">
+        <v>430535</v>
+      </c>
+      <c r="O153" s="12">
+        <v>244748</v>
+      </c>
+      <c r="P153" s="12">
+        <v>82141</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B154" s="25">
+        <v>39619</v>
+      </c>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="12">
+        <v>1085854</v>
+      </c>
+      <c r="F154" s="12">
+        <v>332164</v>
+      </c>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="12">
+        <v>325513</v>
+      </c>
+      <c r="J154" s="12">
+        <v>111389</v>
+      </c>
+      <c r="K154" s="12">
+        <v>304164</v>
+      </c>
+      <c r="L154" s="12">
+        <v>88640</v>
+      </c>
+      <c r="M154" s="12">
+        <v>1254038</v>
+      </c>
+      <c r="N154" s="12">
+        <v>418719</v>
+      </c>
+      <c r="O154" s="12">
+        <v>244074</v>
+      </c>
+      <c r="P154" s="12">
+        <v>81896</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B155" s="25">
+        <v>39612</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="12">
+        <v>1096990</v>
+      </c>
+      <c r="F155" s="12">
+        <v>335427</v>
+      </c>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="12">
+        <v>324610</v>
+      </c>
+      <c r="J155" s="12">
+        <v>110347</v>
+      </c>
+      <c r="K155" s="12">
+        <v>308439</v>
+      </c>
+      <c r="L155" s="12">
+        <v>89439</v>
+      </c>
+      <c r="M155" s="12">
+        <v>1249507</v>
+      </c>
+      <c r="N155" s="12">
+        <v>410741</v>
+      </c>
+      <c r="O155" s="12">
+        <v>243627</v>
+      </c>
+      <c r="P155" s="12">
+        <v>80864</v>
+      </c>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B156" s="25">
+        <v>39605</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="12">
+        <v>1180313</v>
+      </c>
+      <c r="F156" s="12">
+        <v>356659</v>
+      </c>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="12">
+        <v>346921</v>
+      </c>
+      <c r="J156" s="12">
+        <v>116333</v>
+      </c>
+      <c r="K156" s="12">
+        <v>334600</v>
+      </c>
+      <c r="L156" s="12">
+        <v>95244</v>
+      </c>
+      <c r="M156" s="12">
+        <v>1339610</v>
+      </c>
+      <c r="N156" s="12">
+        <v>436458</v>
+      </c>
+      <c r="O156" s="12">
+        <v>258135</v>
+      </c>
+      <c r="P156" s="12">
+        <v>84643</v>
+      </c>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B157" s="25">
+        <v>39598</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="12">
+        <v>1034153</v>
+      </c>
+      <c r="F157" s="12">
+        <v>304092</v>
+      </c>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="12">
+        <v>302172</v>
+      </c>
+      <c r="J157" s="12">
+        <v>99025</v>
+      </c>
+      <c r="K157" s="12">
+        <v>295583</v>
+      </c>
+      <c r="L157" s="12">
+        <v>80785</v>
+      </c>
+      <c r="M157" s="12">
+        <v>1171586</v>
+      </c>
+      <c r="N157" s="12">
+        <v>370755</v>
+      </c>
+      <c r="O157" s="12">
+        <v>227255</v>
+      </c>
+      <c r="P157" s="12">
+        <v>72679</v>
+      </c>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B158" s="25">
+        <v>39591</v>
+      </c>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="12">
+        <v>1093517</v>
+      </c>
+      <c r="F158" s="12">
+        <v>335876</v>
+      </c>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="12">
+        <v>321678</v>
+      </c>
+      <c r="J158" s="12">
+        <v>110927</v>
+      </c>
+      <c r="K158" s="12">
+        <v>314551</v>
+      </c>
+      <c r="L158" s="12">
+        <v>90211</v>
+      </c>
+      <c r="M158" s="12">
+        <v>1237003</v>
+      </c>
+      <c r="N158" s="12">
+        <v>413427</v>
+      </c>
+      <c r="O158" s="12">
+        <v>240880</v>
+      </c>
+      <c r="P158" s="12">
+        <v>81245</v>
+      </c>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B159" s="25">
+        <v>39584</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="12">
+        <v>1097560</v>
+      </c>
+      <c r="F159" s="12">
+        <v>337807</v>
+      </c>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="12">
+        <v>321467</v>
+      </c>
+      <c r="J159" s="12">
+        <v>110885</v>
+      </c>
+      <c r="K159" s="12">
+        <v>316192</v>
+      </c>
+      <c r="L159" s="12">
+        <v>89770</v>
+      </c>
+      <c r="M159" s="12">
+        <v>1235906</v>
+      </c>
+      <c r="N159" s="12">
+        <v>418399</v>
+      </c>
+      <c r="O159" s="12">
+        <v>239407</v>
+      </c>
+      <c r="P159" s="12">
+        <v>79796</v>
+      </c>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B160" s="25">
+        <v>39570</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="12">
+        <v>1166306</v>
+      </c>
+      <c r="F160" s="12">
+        <v>355012</v>
+      </c>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="12">
+        <v>335348</v>
+      </c>
+      <c r="J160" s="12">
+        <v>114439</v>
+      </c>
+      <c r="K160" s="12">
+        <v>339650</v>
+      </c>
+      <c r="L160" s="12">
+        <v>94995</v>
+      </c>
+      <c r="M160" s="12">
+        <v>1292901</v>
+      </c>
+      <c r="N160" s="12">
+        <v>432797</v>
+      </c>
+      <c r="O160" s="12">
+        <v>248171</v>
+      </c>
+      <c r="P160" s="12">
+        <v>82915</v>
+      </c>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B161" s="25">
+        <v>39542</v>
+      </c>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="12">
+        <v>1183952</v>
+      </c>
+      <c r="F161" s="12">
+        <v>363506</v>
+      </c>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="12">
+        <v>333850</v>
+      </c>
+      <c r="J161" s="12">
+        <v>114883</v>
+      </c>
+      <c r="K161" s="12">
+        <v>350417</v>
+      </c>
+      <c r="L161" s="12">
+        <v>99475</v>
+      </c>
+      <c r="M161" s="12">
+        <v>1279837</v>
+      </c>
+      <c r="N161" s="12">
+        <v>440822</v>
+      </c>
+      <c r="O161" s="12">
+        <v>242924</v>
+      </c>
+      <c r="P161" s="12">
+        <v>81589</v>
+      </c>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B162" s="25">
+        <v>39507</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="12">
+        <v>1150494</v>
+      </c>
+      <c r="F162" s="12">
+        <v>366738</v>
+      </c>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="12">
+        <v>312554</v>
+      </c>
+      <c r="J162" s="12">
+        <v>109493</v>
+      </c>
+      <c r="K162" s="12">
+        <v>380219</v>
+      </c>
+      <c r="L162" s="12">
+        <v>114578</v>
+      </c>
+      <c r="M162" s="12">
+        <v>1181871</v>
+      </c>
+      <c r="N162" s="12">
+        <v>413072</v>
+      </c>
+      <c r="O162" s="12">
+        <v>219469</v>
+      </c>
+      <c r="P162" s="12">
+        <v>77044</v>
+      </c>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B163" s="25">
+        <v>39506</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="12">
+        <v>1100449</v>
+      </c>
+      <c r="F163" s="12">
+        <v>354021</v>
+      </c>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="12">
+        <v>302041</v>
+      </c>
+      <c r="J163" s="12">
+        <v>106269</v>
+      </c>
+      <c r="K163" s="12">
+        <v>364323</v>
+      </c>
+      <c r="L163" s="12">
+        <v>110031</v>
+      </c>
+      <c r="M163" s="12">
+        <v>1072550</v>
+      </c>
+      <c r="N163" s="12">
+        <v>378179</v>
+      </c>
+      <c r="O163" s="12">
+        <v>208645</v>
+      </c>
+      <c r="P163" s="12">
+        <v>73266</v>
+      </c>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B164" s="25">
+        <v>39304</v>
+      </c>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="12">
+        <v>1221454</v>
+      </c>
+      <c r="F164" s="12">
+        <v>361618</v>
+      </c>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="12">
+        <v>302735</v>
+      </c>
+      <c r="J164" s="12">
+        <v>101123</v>
+      </c>
+      <c r="K164" s="12">
+        <v>430336</v>
+      </c>
+      <c r="L164" s="12">
+        <v>136145</v>
+      </c>
+      <c r="M164" s="12">
+        <v>949365</v>
+      </c>
+      <c r="N164" s="12">
+        <v>319579</v>
+      </c>
+      <c r="O164" s="12">
+        <v>197625</v>
+      </c>
+      <c r="P164" s="12">
+        <v>64311</v>
+      </c>
+    </row>
+    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B165" s="25">
+        <v>39297</v>
+      </c>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B166" s="25">
+        <v>39290</v>
+      </c>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B167" s="25">
+        <v>39283</v>
+      </c>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B168" s="25">
+        <v>39276</v>
+      </c>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B169" s="25">
+        <v>39269</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B170" s="25">
+        <v>39262</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="15"/>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B171" s="25">
+        <v>39255</v>
+      </c>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B172" s="25">
+        <v>39248</v>
+      </c>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B173" s="25">
+        <v>39241</v>
+      </c>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B174" s="25">
+        <v>39234</v>
+      </c>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B175" s="25">
+        <v>39227</v>
+      </c>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B176" s="25">
+        <v>39220</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="12">
+        <v>1247116</v>
+      </c>
+      <c r="F176" s="12">
+        <v>378113</v>
+      </c>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="12">
+        <v>298905</v>
+      </c>
+      <c r="J176" s="12">
+        <v>101563</v>
+      </c>
+      <c r="K176" s="12">
+        <v>417761</v>
+      </c>
+      <c r="L176" s="12">
+        <v>136009</v>
+      </c>
+      <c r="M176" s="12">
+        <v>900625</v>
+      </c>
+      <c r="N176" s="12">
+        <v>309194</v>
+      </c>
+      <c r="O176" s="12">
+        <v>195188</v>
+      </c>
+      <c r="P176" s="12">
+        <v>63480</v>
+      </c>
+    </row>
+    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B177" s="25">
+        <v>39213</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="12">
+        <v>1284240</v>
+      </c>
+      <c r="F177" s="12">
+        <v>390754</v>
+      </c>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="12">
+        <v>304049</v>
+      </c>
+      <c r="J177" s="12">
+        <v>104454</v>
+      </c>
+      <c r="K177" s="12">
+        <v>425365</v>
+      </c>
+      <c r="L177" s="12">
+        <v>139098</v>
+      </c>
+      <c r="M177" s="12">
+        <v>917785</v>
+      </c>
+      <c r="N177" s="12">
+        <v>317755</v>
+      </c>
+      <c r="O177" s="12">
+        <v>199524</v>
+      </c>
+      <c r="P177" s="12">
+        <v>65198</v>
+      </c>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B178" s="25">
+        <v>39206</v>
+      </c>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B179" s="25">
+        <v>39199</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="12">
+        <v>1267538</v>
+      </c>
+      <c r="F179" s="12">
+        <v>388603</v>
+      </c>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="12">
+        <v>296076</v>
+      </c>
+      <c r="J179" s="12">
+        <v>102731</v>
+      </c>
+      <c r="K179" s="12">
+        <v>416712</v>
+      </c>
+      <c r="L179" s="12">
+        <v>138082</v>
+      </c>
+      <c r="M179" s="12">
+        <v>882758</v>
+      </c>
+      <c r="N179" s="12">
+        <v>309148</v>
+      </c>
+      <c r="O179" s="12">
+        <v>195033</v>
+      </c>
+      <c r="P179" s="12">
+        <v>63464</v>
+      </c>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B180" s="25">
+        <v>39192</v>
+      </c>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B181" s="25">
+        <v>39185</v>
+      </c>
+      <c r="C181" s="33">
+        <v>-0.11</v>
+      </c>
+      <c r="D181" s="33">
+        <v>-0.12</v>
+      </c>
+      <c r="E181" s="12">
+        <v>1280780</v>
+      </c>
+      <c r="F181" s="12">
+        <v>387310</v>
+      </c>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="12">
+        <v>296843</v>
+      </c>
+      <c r="J181" s="12">
+        <v>101859</v>
+      </c>
+      <c r="K181" s="12">
+        <v>414757</v>
+      </c>
+      <c r="L181" s="12">
+        <v>136497</v>
+      </c>
+      <c r="M181" s="12">
+        <v>872596</v>
+      </c>
+      <c r="N181" s="12">
+        <v>303569</v>
+      </c>
+      <c r="O181" s="12">
+        <v>193011</v>
+      </c>
+      <c r="P181" s="12">
+        <v>62235</v>
+      </c>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B182" s="25">
+        <v>39178</v>
+      </c>
+      <c r="C182" s="33">
+        <v>-0.1</v>
+      </c>
+      <c r="D182" s="33">
+        <v>-0.13</v>
+      </c>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+    </row>
+    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B183" s="25">
+        <v>39171</v>
+      </c>
+      <c r="C183" s="33">
+        <v>-0.1</v>
+      </c>
+      <c r="D183" s="33">
+        <v>-0.12</v>
+      </c>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B184" s="25">
+        <v>39164</v>
+      </c>
+      <c r="C184" s="33">
+        <v>-0.12</v>
+      </c>
+      <c r="D184" s="33">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B185" s="25">
+        <v>39157</v>
+      </c>
+      <c r="C185" s="33">
+        <v>-0.11</v>
+      </c>
+      <c r="D185" s="33">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+    </row>
+    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B186" s="25">
+        <v>39150</v>
+      </c>
+      <c r="C186" s="33">
+        <v>-0.11</v>
+      </c>
+      <c r="D186" s="33">
+        <v>-0.15</v>
+      </c>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+    </row>
+    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+    </row>
+    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B189" s="25">
+        <v>39108</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="12">
+        <v>1303591</v>
+      </c>
+      <c r="F189" s="12">
+        <v>414213</v>
+      </c>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="12">
+        <v>287525</v>
+      </c>
+      <c r="J189" s="12">
+        <v>102818</v>
+      </c>
+      <c r="K189" s="12">
+        <v>388789</v>
+      </c>
+      <c r="L189" s="12">
+        <v>134920</v>
+      </c>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B190" s="25">
+        <v>39101</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="12">
+        <f>E189-21585</f>
+        <v>1282006</v>
+      </c>
+      <c r="F190" s="12">
+        <f>F189-1388</f>
+        <v>412825</v>
+      </c>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="12">
+        <f>I189-5826</f>
+        <v>281699</v>
+      </c>
+      <c r="J190" s="12">
+        <f>J189-392</f>
+        <v>102426</v>
+      </c>
+      <c r="K190" s="12">
+        <f>K189-6347</f>
+        <v>382442</v>
+      </c>
+      <c r="L190" s="12">
+        <f>L189-572</f>
+        <v>134348</v>
+      </c>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B191" s="25">
+        <v>39094</v>
+      </c>
+      <c r="C191" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D191" s="33">
+        <v>-0.13</v>
+      </c>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+    </row>
+    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B192" s="25">
+        <v>39087</v>
+      </c>
+      <c r="C192" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D192" s="33">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B193" s="25">
+        <v>39080</v>
+      </c>
+      <c r="C193" s="33">
+        <v>-0.09</v>
+      </c>
+      <c r="D193" s="33">
+        <v>-0.13</v>
+      </c>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B194" s="25">
+        <v>39073</v>
+      </c>
+      <c r="C194" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D194" s="33">
+        <v>-0.1</v>
+      </c>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B195" s="25">
+        <v>39066</v>
+      </c>
+      <c r="C195" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D195" s="33">
+        <v>-0.1</v>
+      </c>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H195" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B196" s="25">
+        <v>39059</v>
+      </c>
+      <c r="C196" s="33">
+        <v>-0.04</v>
+      </c>
+      <c r="D196" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="H196" s="33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B197" s="25">
+        <v>39052</v>
+      </c>
+      <c r="C197" s="33">
+        <v>-0.08</v>
+      </c>
+      <c r="D197" s="33">
+        <v>-0.12</v>
+      </c>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H197" s="33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B198" s="25">
+        <v>39045</v>
+      </c>
+      <c r="C198" s="33">
+        <v>-0.09</v>
+      </c>
+      <c r="D198" s="33">
+        <v>-0.11</v>
+      </c>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="33">
+        <v>0.59</v>
+      </c>
+      <c r="H198" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B199" s="25">
+        <v>39038</v>
+      </c>
+      <c r="C199" s="33">
+        <v>-0.09</v>
+      </c>
+      <c r="D199" s="33">
+        <v>-0.13</v>
+      </c>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H199" s="33">
+        <v>0.54</v>
+      </c>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B200" s="25">
+        <v>39031</v>
+      </c>
+      <c r="C200" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D200" s="33">
+        <v>-0.11</v>
+      </c>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="33">
+        <v>0.6</v>
+      </c>
+      <c r="H200" s="33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B201" s="25">
+        <v>39024</v>
+      </c>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B202" s="25">
+        <v>39017</v>
+      </c>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B203" s="25">
+        <v>39010</v>
+      </c>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B204" s="25">
+        <v>39003</v>
+      </c>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B205" s="25">
+        <v>38996</v>
+      </c>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B206" s="25">
+        <v>38989</v>
+      </c>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B207" s="25">
+        <v>38982</v>
+      </c>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B208" s="25">
+        <v>38975</v>
+      </c>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="25">
+        <v>38968</v>
+      </c>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="25">
+        <v>38961</v>
+      </c>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B211" s="25">
+        <v>38954</v>
+      </c>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="25">
+        <v>38947</v>
+      </c>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="25">
+        <v>38940</v>
+      </c>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B214" s="25">
+        <v>38933</v>
+      </c>
+      <c r="C214" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="D214" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" s="25">
+        <v>38926</v>
+      </c>
+      <c r="C215" s="33">
+        <v>-0.04</v>
+      </c>
+      <c r="D215" s="33">
+        <v>-0.04</v>
+      </c>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="25">
+        <v>38919</v>
+      </c>
+      <c r="C216" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="D216" s="33">
+        <v>-0.06</v>
+      </c>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="25">
+        <v>38912</v>
+      </c>
+      <c r="C217" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="D217" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B218" s="25">
+        <v>38905</v>
+      </c>
+      <c r="C218" s="33">
+        <v>-0.04</v>
+      </c>
+      <c r="D218" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="25">
+        <v>38898</v>
+      </c>
+      <c r="C219" s="33">
+        <v>-0.06</v>
+      </c>
+      <c r="D219" s="33">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B220" s="25">
+        <v>38891</v>
+      </c>
+      <c r="C220" s="33">
+        <v>-0.04</v>
+      </c>
+      <c r="D220" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B221" s="25">
+        <v>38884</v>
+      </c>
+      <c r="C221" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="D221" s="33">
+        <v>-0.09</v>
+      </c>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" s="25">
+        <v>38877</v>
+      </c>
+      <c r="C222" s="33">
+        <v>-0.02</v>
+      </c>
+      <c r="D222" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B223" s="25">
+        <v>38870</v>
+      </c>
+      <c r="C223" s="33">
+        <v>-0.03</v>
+      </c>
+      <c r="D223" s="33">
+        <v>-0.06</v>
+      </c>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="25">
+        <v>38863</v>
+      </c>
+      <c r="C224" s="33">
+        <v>-0.01</v>
+      </c>
+      <c r="D224" s="33">
+        <v>-0.05</v>
+      </c>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" s="25">
+        <v>38856</v>
+      </c>
+      <c r="C225" s="33">
+        <v>-0.03</v>
+      </c>
+      <c r="D225" s="33">
+        <v>-0.06</v>
+      </c>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F1E822DE-C50A-47D5-B928-75E795E76207}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0896ECA-08C7-4C07-9DB3-0845355D4472}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="36">
+        <v>39234</v>
+      </c>
+      <c r="D5" s="12">
+        <v>54890</v>
+      </c>
+      <c r="E5" s="12">
+        <v>28992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="36">
+        <f>C5-7</f>
+        <v>39227</v>
+      </c>
+      <c r="D6" s="12">
+        <v>55676</v>
+      </c>
+      <c r="E6" s="12">
+        <v>30599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="36">
+        <f>C5-365</f>
+        <v>38869</v>
+      </c>
+      <c r="D7" s="12">
+        <v>49358</v>
+      </c>
+      <c r="E7" s="12">
+        <v>26331</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{3C4A705A-B11A-4E0B-82E3-10E4A41DF474}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35720BB-432E-4C99-8C06-8286563E3263}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:AV11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="5" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="47" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="C8" s="39">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="39">
+        <v>2003</v>
+      </c>
+      <c r="E8" s="39">
+        <v>2004</v>
+      </c>
+      <c r="F8" s="39">
+        <v>2005</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="39">
+        <v>2007</v>
+      </c>
+      <c r="I8" s="39">
+        <v>2008</v>
+      </c>
+      <c r="J8" s="41">
+        <v>2009</v>
+      </c>
+      <c r="K8" s="41">
+        <v>2010</v>
+      </c>
+      <c r="L8" s="41">
+        <v>2011</v>
+      </c>
+      <c r="M8" s="41">
+        <v>2012</v>
+      </c>
+      <c r="N8" s="41">
+        <v>2013</v>
+      </c>
+      <c r="O8" s="41">
+        <v>2014</v>
+      </c>
+      <c r="P8" s="41">
+        <v>2015</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>2016</v>
+      </c>
+      <c r="R8" s="41">
+        <v>2017</v>
+      </c>
+      <c r="S8" s="41">
+        <v>2018</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="X8" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA8" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC8" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD8" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF8" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG8" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH8" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ8" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK8" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL8" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO8" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP8" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR8" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS8" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT8" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV8" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="38">
+        <v>580</v>
+      </c>
+      <c r="D9" s="38">
+        <v>413</v>
+      </c>
+      <c r="E9" s="38">
+        <v>633</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="Y9" s="39">
+        <v>137</v>
+      </c>
+      <c r="Z9" s="39">
+        <v>149</v>
+      </c>
+      <c r="AA9" s="39">
+        <v>152</v>
+      </c>
+      <c r="AB9" s="39">
+        <v>142</v>
+      </c>
+      <c r="AC9" s="39">
+        <v>145</v>
+      </c>
+      <c r="AD9" s="39">
+        <v>77</v>
+      </c>
+      <c r="AE9" s="39">
+        <v>160</v>
+      </c>
+      <c r="AF9" s="39">
+        <v>176</v>
+      </c>
+      <c r="AG9" s="38">
+        <v>145</v>
+      </c>
+      <c r="AH9" s="38">
+        <v>115</v>
+      </c>
+      <c r="AI9" s="38">
+        <v>166</v>
+      </c>
+      <c r="AJ9" s="38">
+        <v>207</v>
+      </c>
+      <c r="AK9" s="38">
+        <v>180</v>
+      </c>
+      <c r="AL9" s="38">
+        <v>142</v>
+      </c>
+      <c r="AP9" s="39"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="38">
+        <v>177</v>
+      </c>
+      <c r="D10" s="38">
+        <v>130</v>
+      </c>
+      <c r="E10" s="38">
+        <v>271</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="Y10" s="39">
+        <v>37</v>
+      </c>
+      <c r="Z10" s="39">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="39">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="39">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="39">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="39">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="39">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="39">
+        <v>58</v>
+      </c>
+      <c r="AG10" s="38">
+        <v>61</v>
+      </c>
+      <c r="AH10" s="38">
+        <v>67</v>
+      </c>
+      <c r="AI10" s="38">
+        <v>65</v>
+      </c>
+      <c r="AJ10" s="38">
+        <v>78</v>
+      </c>
+      <c r="AK10" s="38">
+        <v>72</v>
+      </c>
+      <c r="AL10" s="38">
+        <v>80</v>
+      </c>
+      <c r="AP10" s="39"/>
+      <c r="AS10" s="38"/>
+      <c r="AT10" s="38"/>
+      <c r="AU10" s="38"/>
+      <c r="AV10" s="38"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B11" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="38">
+        <f>C10+C9</f>
+        <v>757</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D10+D9</f>
+        <v>543</v>
+      </c>
+      <c r="E11" s="38">
+        <f>E10+E9</f>
+        <v>904</v>
+      </c>
+      <c r="F11" s="38"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{265A368A-35E9-4AC8-8DA1-C48C915C67F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VTRS.xlsx
+++ b/VTRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599B04A8-4FEC-463D-9E37-B1270780F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5012C2-8C53-4EFE-BB47-34FB7F0CB17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73800" yWindow="405" windowWidth="29055" windowHeight="20460" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
+    <workbookView xWindow="-29610" yWindow="2115" windowWidth="24870" windowHeight="17595" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2395,7 +2395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="319">
   <si>
     <t>Price</t>
   </si>
@@ -3349,6 +3349,9 @@
   </si>
   <si>
     <t>Effexor XR</t>
+  </si>
+  <si>
+    <t>Influvac</t>
   </si>
 </sst>
 </file>
@@ -3564,6 +3567,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5955CAF-2D96-1A5D-AD91-EA07FDB6BB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7903029" y="54429"/>
+          <a:ext cx="0" cy="13024757"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4027,7 +4085,7 @@
   <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4040,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>8.69</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -4048,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1212.5809400000001</v>
+        <v>1212.6845980000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -4060,7 +4118,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>10537.3283686</v>
+        <v>13424.418499860001</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -4069,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>752.4</v>
+        <v>646.70000000000005</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -4080,11 +4138,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <f>18762.5+655.4</f>
-        <v>19417.900000000001</v>
+        <v>19989</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -4093,7 +4150,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>29202.8283686</v>
+        <v>32766.718499859999</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -4119,13 +4176,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2229FB-F424-40E9-A974-86FFAA24DCFE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4185,18 +4242,30 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="7">
+        <v>1859</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2724.6</v>
+      </c>
       <c r="H3" s="7">
         <v>2701.7</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="7">
+        <v>2803.1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2611.9</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2554.1</v>
+      </c>
       <c r="L3" s="7">
         <v>2483.1</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7">
+        <v>2540.3000000000002</v>
+      </c>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4206,18 +4275,30 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="7">
+        <v>338.8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>328.9</v>
+      </c>
       <c r="H4" s="7">
         <v>332.8</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="7">
+        <v>332</v>
+      </c>
+      <c r="J4" s="7">
+        <v>348.4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>390.8</v>
+      </c>
       <c r="L4" s="7">
         <v>354.8</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7">
+        <v>320.2</v>
+      </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4227,18 +4308,30 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="7">
+        <v>1389.9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1346.6</v>
+      </c>
       <c r="H5" s="7">
         <v>1527.2</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="7">
+        <v>1385.4</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1371</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1233.3</v>
+      </c>
       <c r="L5" s="7">
         <v>1267.5</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>1206.9000000000001</v>
+      </c>
       <c r="N5" s="7"/>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4248,18 +4341,30 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7">
+        <v>2378.6</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2571.6</v>
+      </c>
       <c r="H7" s="7">
         <v>2640.4</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="7">
+        <v>2655.9</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2560.8000000000002</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2476.1</v>
+      </c>
       <c r="L7" s="7">
         <v>2479.1</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7">
+        <v>2431.5</v>
+      </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4269,18 +4374,30 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7">
+        <v>190.6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>591.9</v>
+      </c>
       <c r="H8" s="7">
         <v>550.29999999999995</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="7">
+        <v>792.5</v>
+      </c>
+      <c r="J8" s="7">
+        <v>503.8</v>
+      </c>
+      <c r="K8" s="7">
+        <v>573.1</v>
+      </c>
       <c r="L8" s="7">
         <v>548.29999999999995</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7">
+        <v>678.9</v>
+      </c>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4290,18 +4407,30 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7">
+        <v>389.5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>481.9</v>
+      </c>
       <c r="H9" s="7">
         <v>501</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="7">
+        <v>505.3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>539.20000000000005</v>
+      </c>
+      <c r="K9" s="7">
+        <v>423.8</v>
+      </c>
       <c r="L9" s="7">
         <v>427.1</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="7">
+        <v>383</v>
+      </c>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4311,18 +4440,30 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="7">
+        <v>629</v>
+      </c>
+      <c r="G10" s="7">
+        <v>754.7</v>
+      </c>
       <c r="H10" s="7">
         <v>870</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="7">
+        <v>566.79999999999995</v>
+      </c>
+      <c r="J10" s="7">
+        <v>727.5</v>
+      </c>
+      <c r="K10" s="7">
+        <v>705.2</v>
+      </c>
       <c r="L10" s="7">
         <v>650.9</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <v>574</v>
+      </c>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4347,17 +4488,27 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>464.6</v>
+      </c>
       <c r="H12" s="7">
         <v>398.3</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="7">
+        <v>410</v>
+      </c>
+      <c r="J12" s="7">
+        <v>390.3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>440.1</v>
+      </c>
       <c r="L12" s="7">
         <v>405.6</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7">
+        <v>420.4</v>
+      </c>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4368,17 +4519,27 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>227.7</v>
+      </c>
       <c r="H13" s="7">
         <v>209.8</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="7">
+        <v>198.4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>188.8</v>
+      </c>
+      <c r="K13" s="7">
+        <v>207.8</v>
+      </c>
       <c r="L13" s="7">
         <v>203</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7">
+        <v>189.3</v>
+      </c>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4389,17 +4550,27 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>187.8</v>
+      </c>
       <c r="H14" s="7">
         <v>192.5</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="7">
+        <v>175.6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>172.6</v>
+      </c>
+      <c r="K14" s="7">
+        <v>171.7</v>
+      </c>
       <c r="L14" s="7">
         <v>155.80000000000001</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="7">
+        <v>156.5</v>
+      </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4410,17 +4581,27 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>139.6</v>
+      </c>
       <c r="H15" s="7">
         <v>134.80000000000001</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="7">
+        <v>138</v>
+      </c>
+      <c r="J15" s="7">
+        <v>121.4</v>
+      </c>
+      <c r="K15" s="7">
+        <v>129.80000000000001</v>
+      </c>
       <c r="L15" s="7">
         <v>115.1</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>117</v>
+      </c>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4431,17 +4612,27 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>103.7</v>
+      </c>
       <c r="H16" s="7">
         <v>104.1</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="7">
+        <v>129.5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>54.4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>88.8</v>
+      </c>
       <c r="L16" s="7">
         <v>106.5</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7">
+        <v>114.4</v>
+      </c>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4452,17 +4643,27 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>89</v>
+      </c>
       <c r="H17" s="7">
         <v>82.3</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="7">
+        <v>86</v>
+      </c>
+      <c r="J17" s="7">
+        <v>87.1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>85.2</v>
+      </c>
       <c r="L17" s="7">
         <v>85.9</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="7">
+        <v>82.2</v>
+      </c>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4473,17 +4674,27 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>69.900000000000006</v>
+      </c>
       <c r="H18" s="7">
         <v>80.7</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="7">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="J18" s="7">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="K18" s="7">
+        <v>74.7</v>
+      </c>
       <c r="L18" s="7">
         <v>75.400000000000006</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="7">
+        <v>76.400000000000006</v>
+      </c>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4494,17 +4705,27 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>76.599999999999994</v>
+      </c>
       <c r="H19" s="7">
         <v>83.5</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="7">
+        <v>79.5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>77.2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>77.5</v>
+      </c>
       <c r="L19" s="7">
         <v>73.7</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="7">
+        <v>64.2</v>
+      </c>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4515,17 +4736,27 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>76.599999999999994</v>
+      </c>
       <c r="H20" s="7">
         <v>70.900000000000006</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="7">
+        <v>61.3</v>
+      </c>
+      <c r="J20" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="K20" s="7">
+        <v>73.099999999999994</v>
+      </c>
       <c r="L20" s="7">
         <v>62.5</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7">
+        <v>53.1</v>
+      </c>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4536,564 +4767,797 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>57.9</v>
+      </c>
       <c r="H21" s="7">
         <v>58.3</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="J21" s="7">
+        <v>54</v>
+      </c>
+      <c r="K21" s="7">
+        <v>53</v>
+      </c>
       <c r="L21" s="7">
         <v>42.7</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="7">
+        <v>51</v>
+      </c>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7">
-        <v>54.6</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="J22" s="7">
+        <v>134</v>
+      </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="7">
-        <v>55.5</v>
-      </c>
-      <c r="M22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>159.30000000000001</v>
+      </c>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>40.299999999999997</v>
+      </c>
       <c r="H23" s="7">
-        <v>41.8</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+        <v>54.6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>35</v>
+      </c>
+      <c r="J23" s="7">
+        <v>38.1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>44</v>
+      </c>
       <c r="L23" s="7">
-        <v>49.1</v>
-      </c>
-      <c r="M23" s="7"/>
+        <v>55.5</v>
+      </c>
+      <c r="M23" s="7">
+        <v>38.6</v>
+      </c>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>36.9</v>
+      </c>
       <c r="H24" s="7">
-        <v>52.1</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+        <v>41.8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="K24" s="7">
+        <v>43.7</v>
+      </c>
       <c r="L24" s="7">
-        <v>44.1</v>
-      </c>
-      <c r="M24" s="7"/>
+        <v>49.1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>53.4</v>
+      </c>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>45.9</v>
+      </c>
       <c r="H25" s="7">
+        <v>52.1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="J25" s="7">
+        <v>54</v>
+      </c>
+      <c r="K25" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="L25" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
+        <v>45.1</v>
+      </c>
+      <c r="H26" s="7">
         <v>48.8</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7">
+      <c r="I26" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="J26" s="7">
+        <v>44.4</v>
+      </c>
+      <c r="K26" s="7">
+        <v>40</v>
+      </c>
+      <c r="L26" s="7">
         <v>37.200000000000003</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>4400.1000000000004</v>
-      </c>
-      <c r="H27" s="7">
-        <v>4561.7</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7">
-        <v>4178.2</v>
-      </c>
-      <c r="L27" s="7">
-        <v>4105.3999999999996</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M26" s="7">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="N26" s="7"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>3587.7</v>
+      </c>
       <c r="G28" s="7">
+        <v>4400.1000000000004</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4561.7</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4520.5</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4331.3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4178.2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>4105.3999999999996</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4067.4</v>
+      </c>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G29" s="7">
         <v>30.2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>16.100000000000001</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7">
+      <c r="I29" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J29" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="K29" s="7">
         <v>13.5</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L29" s="7">
         <v>11.4</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="M29" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9">
-        <f>+G27+G28</f>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
+        <f>+F28+F29</f>
+        <v>3623.5</v>
+      </c>
+      <c r="G30" s="9">
+        <f>+G28+G29</f>
         <v>4430.3</v>
       </c>
-      <c r="H29" s="9">
-        <f>+H27+H28</f>
+      <c r="H30" s="9">
+        <f>+H28+H29</f>
         <v>4577.8</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
-        <f>+K27+K28</f>
+      <c r="I30" s="9">
+        <f>+I28+I29</f>
+        <v>4536.6000000000004</v>
+      </c>
+      <c r="J30" s="9">
+        <f>+J28+J29</f>
+        <v>4341.6000000000004</v>
+      </c>
+      <c r="K30" s="9">
+        <f>+K28+K29</f>
         <v>4191.7</v>
       </c>
-      <c r="L29" s="9">
-        <f>+L27+L28</f>
+      <c r="L30" s="9">
+        <f>+L28+L29</f>
         <v>4116.7999999999993</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>3303</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3250.1</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7">
-        <v>2420.5</v>
-      </c>
-      <c r="L30" s="7">
-        <v>2413.5</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="M30" s="9">
+        <f>+M28+M29</f>
+        <v>4078.2000000000003</v>
+      </c>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7">
+        <v>2917.1</v>
+      </c>
       <c r="G31" s="7">
-        <f>+G29-G30</f>
-        <v>1127.3000000000002</v>
+        <v>3303</v>
       </c>
       <c r="H31" s="7">
-        <f>+H29-H30</f>
-        <v>1327.7000000000003</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+        <v>3250.1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2962.5</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2795.2</v>
+      </c>
       <c r="K31" s="7">
-        <f>+K29-K30</f>
-        <v>1771.1999999999998</v>
+        <v>2420.5</v>
       </c>
       <c r="L31" s="7">
-        <f>+L29-L30</f>
-        <v>1703.2999999999993</v>
-      </c>
-      <c r="M31" s="7"/>
+        <v>2413.5</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2329.8000000000002</v>
+      </c>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7">
+        <f>+F30-F31</f>
+        <v>706.40000000000009</v>
+      </c>
       <c r="G32" s="7">
-        <v>184.1</v>
+        <f>+G30-G31</f>
+        <v>1127.3000000000002</v>
       </c>
       <c r="H32" s="7">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+        <f>+H30-H31</f>
+        <v>1327.7000000000003</v>
+      </c>
+      <c r="I32" s="7">
+        <f>+I30-I31</f>
+        <v>1574.1000000000004</v>
+      </c>
+      <c r="J32" s="7">
+        <f>+J30-J31</f>
+        <v>1546.4000000000005</v>
+      </c>
       <c r="K32" s="7">
-        <v>142.30000000000001</v>
+        <f>+K30-K31</f>
+        <v>1771.1999999999998</v>
       </c>
       <c r="L32" s="7">
-        <v>162.6</v>
-      </c>
-      <c r="M32" s="7"/>
+        <f>+L30-L31</f>
+        <v>1703.2999999999993</v>
+      </c>
+      <c r="M32" s="7">
+        <f>+M30-M31</f>
+        <v>1748.4</v>
+      </c>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>154.80000000000001</v>
+      </c>
       <c r="G33" s="7">
-        <v>1186.5</v>
+        <v>184.1</v>
       </c>
       <c r="H33" s="7">
-        <v>1204.8</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+        <v>147.69999999999999</v>
+      </c>
+      <c r="I33" s="7">
+        <v>152.1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>267.2</v>
+      </c>
       <c r="K33" s="7">
-        <v>915.3</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="L33" s="7">
-        <v>981.1</v>
-      </c>
-      <c r="M33" s="7"/>
+        <v>162.6</v>
+      </c>
+      <c r="M33" s="7">
+        <v>174.9</v>
+      </c>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>1361.4</v>
+      </c>
       <c r="G34" s="7">
-        <f>+G32+G33</f>
-        <v>1370.6</v>
+        <v>1186.5</v>
       </c>
       <c r="H34" s="7">
-        <f>+H32+H33</f>
-        <v>1352.5</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+        <v>1204.8</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1055</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1082.9000000000001</v>
+      </c>
       <c r="K34" s="7">
-        <f>+K32+K33</f>
-        <v>1057.5999999999999</v>
+        <v>915.3</v>
       </c>
       <c r="L34" s="7">
-        <f>+L32+L33</f>
-        <v>1143.7</v>
-      </c>
-      <c r="M34" s="7"/>
+        <v>981.1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1017.3</v>
+      </c>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <f>+F33+F34</f>
+        <v>1516.2</v>
+      </c>
       <c r="G35" s="7">
-        <f>+G31-G34</f>
-        <v>-243.29999999999973</v>
+        <f>+G33+G34</f>
+        <v>1370.6</v>
       </c>
       <c r="H35" s="7">
-        <f>+H31-H34</f>
-        <v>-24.799999999999727</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+        <f>+H33+H34</f>
+        <v>1352.5</v>
+      </c>
+      <c r="I35" s="7">
+        <f>+I33+I34</f>
+        <v>1207.0999999999999</v>
+      </c>
+      <c r="J35" s="7">
+        <f>+J33+J34</f>
+        <v>1350.1000000000001</v>
+      </c>
       <c r="K35" s="7">
-        <f>+K31-K34</f>
-        <v>713.59999999999991</v>
+        <f>+K33+K34</f>
+        <v>1057.5999999999999</v>
       </c>
       <c r="L35" s="7">
-        <f>+L31-L34</f>
-        <v>559.59999999999923</v>
-      </c>
-      <c r="M35" s="7"/>
+        <f>+L33+L34</f>
+        <v>1143.7</v>
+      </c>
+      <c r="M35" s="7">
+        <f>+M33+M34</f>
+        <v>1192.2</v>
+      </c>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <f>+F32-F35</f>
+        <v>-809.8</v>
+      </c>
       <c r="G36" s="7">
-        <f>-169-6.1</f>
-        <v>-175.1</v>
+        <f>+G32-G35</f>
+        <v>-243.29999999999973</v>
       </c>
       <c r="H36" s="7">
-        <f>-167.1-4.2</f>
-        <v>-171.29999999999998</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+        <f>+H32-H35</f>
+        <v>-24.799999999999727</v>
+      </c>
+      <c r="I36" s="7">
+        <f>+I32-I35</f>
+        <v>367.00000000000045</v>
+      </c>
+      <c r="J36" s="7">
+        <f>+J32-J35</f>
+        <v>196.30000000000041</v>
+      </c>
       <c r="K36" s="7">
-        <f>-146.2-33.7</f>
-        <v>-179.89999999999998</v>
+        <f>+K32-K35</f>
+        <v>713.59999999999991</v>
       </c>
       <c r="L36" s="7">
-        <f>-145.9-13.5</f>
-        <v>-159.4</v>
-      </c>
-      <c r="M36" s="7"/>
+        <f>+L32-L35</f>
+        <v>559.59999999999923</v>
+      </c>
+      <c r="M36" s="7">
+        <f>+M32-M35</f>
+        <v>556.20000000000005</v>
+      </c>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7">
+        <f>-144.4+12</f>
+        <v>-132.4</v>
+      </c>
       <c r="G37" s="7">
-        <f>+G35+G36</f>
-        <v>-418.39999999999975</v>
+        <f>-169-6.1</f>
+        <v>-175.1</v>
       </c>
       <c r="H37" s="7">
-        <f>+H35+H36</f>
-        <v>-196.09999999999971</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+        <f>-167.1-4.2</f>
+        <v>-171.29999999999998</v>
+      </c>
+      <c r="I37" s="7">
+        <f>-151.9-5.8</f>
+        <v>-157.70000000000002</v>
+      </c>
+      <c r="J37" s="7">
+        <f>-148.2+21.9</f>
+        <v>-126.29999999999998</v>
+      </c>
       <c r="K37" s="7">
-        <f>+K35+K36</f>
-        <v>533.69999999999993</v>
+        <f>-146.2-33.7</f>
+        <v>-179.89999999999998</v>
       </c>
       <c r="L37" s="7">
-        <f>+L35+L36</f>
-        <v>400.19999999999925</v>
-      </c>
-      <c r="M37" s="7"/>
+        <f>-145.9-13.5</f>
+        <v>-159.4</v>
+      </c>
+      <c r="M37" s="7">
+        <f>-153.2+20.6</f>
+        <v>-132.6</v>
+      </c>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <f>+F36+F37</f>
+        <v>-942.19999999999993</v>
+      </c>
       <c r="G38" s="7">
-        <v>596.29999999999995</v>
+        <f>+G36+G37</f>
+        <v>-418.39999999999975</v>
       </c>
       <c r="H38" s="7">
-        <v>60.1</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+        <f>+H36+H37</f>
+        <v>-196.09999999999971</v>
+      </c>
+      <c r="I38" s="7">
+        <f>+I36+I37</f>
+        <v>209.30000000000044</v>
+      </c>
+      <c r="J38" s="7">
+        <f>+J36+J37</f>
+        <v>70.000000000000426</v>
+      </c>
       <c r="K38" s="7">
-        <v>128.30000000000001</v>
+        <f>+K36+K37</f>
+        <v>533.69999999999993</v>
       </c>
       <c r="L38" s="7">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="M38" s="7"/>
+        <f>+L36+L37</f>
+        <v>400.19999999999925</v>
+      </c>
+      <c r="M38" s="7">
+        <f>+M36+M37</f>
+        <v>423.6</v>
+      </c>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
       <c r="G39" s="7">
-        <f>+G37-G38</f>
+        <v>596.29999999999995</v>
+      </c>
+      <c r="H39" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>59.9</v>
+      </c>
+      <c r="K39" s="7">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L39" s="7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M39" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
+        <f>+F38-F39</f>
+        <v>-942.19999999999993</v>
+      </c>
+      <c r="G40" s="7">
+        <f>+G38-G39</f>
         <v>-1014.6999999999997</v>
       </c>
-      <c r="H39" s="7">
-        <f>+H37-H38</f>
+      <c r="H40" s="7">
+        <f>+H38-H39</f>
         <v>-256.1999999999997</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7">
-        <f>+K37-K38</f>
+      <c r="I40" s="7">
+        <f>+I38-I39</f>
+        <v>209.30000000000044</v>
+      </c>
+      <c r="J40" s="7">
+        <f>+J38-J39</f>
+        <v>10.100000000000428</v>
+      </c>
+      <c r="K40" s="7">
+        <f>+K38-K39</f>
         <v>405.39999999999992</v>
       </c>
-      <c r="L39" s="7">
-        <f>+L37-L38</f>
+      <c r="L40" s="7">
+        <f>+L38-L39</f>
         <v>324.79999999999927</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="M40" s="7">
+        <f>+M38-M39</f>
+        <v>350.40000000000003</v>
+      </c>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5">
-        <f>+G39/G41</f>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <f>+F40/F42</f>
+        <v>-1.1027621722846441</v>
+      </c>
+      <c r="G41" s="5">
+        <f>+G40/G42</f>
         <v>-0.8403312629399583</v>
       </c>
-      <c r="H40" s="5">
-        <f>+H39/H41</f>
+      <c r="H41" s="5">
+        <f>+H40/H42</f>
         <v>-0.21194573130377209</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5">
-        <f>+K39/K41</f>
+      <c r="I41" s="5">
+        <f>+I40/I42</f>
+        <v>0.17260432129308961</v>
+      </c>
+      <c r="J41" s="5">
+        <f>+J40/J42</f>
+        <v>8.3512485530018409E-3</v>
+      </c>
+      <c r="K41" s="5">
+        <f>+K40/K42</f>
         <v>0.33418514549501271</v>
       </c>
-      <c r="L40" s="5">
-        <f>+L39/L41</f>
+      <c r="L41" s="5">
+        <f>+L40/L42</f>
         <v>0.26686385670856899</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="M41" s="5">
+        <f>+M40/M42</f>
+        <v>0.28766111156719487</v>
+      </c>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7">
+        <v>854.4</v>
+      </c>
+      <c r="G42" s="7">
         <v>1207.5</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="7">
         <v>1208.8</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7">
+      <c r="I42" s="7">
+        <v>1212.5999999999999</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1209.4000000000001</v>
+      </c>
+      <c r="K42" s="7">
         <v>1213.0999999999999</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L42" s="7">
         <v>1217.0999999999999</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+      <c r="M42" s="7">
+        <v>1218.0999999999999</v>
+      </c>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="4">
-        <f>L29/H29-1</f>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
+        <f>J30/F30-1</f>
+        <v>0.19817855664412876</v>
+      </c>
+      <c r="K45" s="4">
+        <f>K30/G30-1</f>
+        <v>-5.3856397986592364E-2</v>
+      </c>
+      <c r="L45" s="4">
+        <f>L30/H30-1</f>
         <v>-0.10070339464371547</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+      <c r="M45" s="4">
+        <f>M30/I30-1</f>
+        <v>-0.1010448353392408</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="4">
-        <f>+G31/G29</f>
+      <c r="F46" s="4">
+        <f>+F32/F30</f>
+        <v>0.19494963433144752</v>
+      </c>
+      <c r="G46" s="4">
+        <f>+G32/G30</f>
         <v>0.254452294427014</v>
       </c>
-      <c r="H45" s="4">
-        <f>+H31/H29</f>
+      <c r="H46" s="4">
+        <f>+H32/H30</f>
         <v>0.29003014548473072</v>
       </c>
-      <c r="K45" s="4">
-        <f>+K31/K29</f>
+      <c r="I46" s="4">
+        <f>+I32/I30</f>
+        <v>0.34697791297447433</v>
+      </c>
+      <c r="J46" s="4">
+        <f>+J32/J30</f>
+        <v>0.35618205269946573</v>
+      </c>
+      <c r="K46" s="4">
+        <f>+K32/K30</f>
         <v>0.42254932366343007</v>
       </c>
-      <c r="L45" s="4">
-        <f>+L31/L29</f>
+      <c r="L46" s="4">
+        <f>+L32/L30</f>
         <v>0.41374368441507958</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7">
-        <v>752.4</v>
-      </c>
-      <c r="L47" s="7">
-        <v>664.7</v>
-      </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
+      <c r="M46" s="4">
+        <f>+M32/M30</f>
+        <v>0.4287185523024864</v>
+      </c>
     </row>
     <row r="48" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -5104,17 +5568,19 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7">
-        <v>4093.9</v>
+        <v>752.4</v>
       </c>
       <c r="L48" s="7">
-        <v>3736.2</v>
-      </c>
-      <c r="M48" s="7"/>
+        <v>664.7</v>
+      </c>
+      <c r="M48" s="7">
+        <v>646.70000000000005</v>
+      </c>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5125,17 +5591,19 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7">
-        <v>3797.3</v>
+        <v>4093.9</v>
       </c>
       <c r="L49" s="7">
-        <v>3612.5</v>
-      </c>
-      <c r="M49" s="7"/>
+        <v>3736.2</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3333.9</v>
+      </c>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -5146,17 +5614,19 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7">
-        <v>1763.6</v>
+        <v>3797.3</v>
       </c>
       <c r="L50" s="7">
-        <v>1697.7</v>
-      </c>
-      <c r="M50" s="7"/>
+        <v>3612.5</v>
+      </c>
+      <c r="M50" s="7">
+        <v>3380.4</v>
+      </c>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -5167,17 +5637,19 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7">
-        <v>1337.1</v>
+        <v>1763.6</v>
       </c>
       <c r="L51" s="7">
-        <v>1465.4</v>
-      </c>
-      <c r="M51" s="7"/>
+        <v>1697.7</v>
+      </c>
+      <c r="M51" s="7">
+        <v>1700.4</v>
+      </c>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -5188,17 +5660,19 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7">
-        <v>3150.2</v>
+        <v>1337.1</v>
       </c>
       <c r="L52" s="7">
-        <v>3083.9</v>
-      </c>
-      <c r="M52" s="7"/>
+        <v>1465.4</v>
+      </c>
+      <c r="M52" s="7">
+        <v>1426.4</v>
+      </c>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -5209,19 +5683,19 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7">
-        <f>25251.8+10978.8</f>
-        <v>36230.6</v>
+        <v>3150.2</v>
       </c>
       <c r="L53" s="7">
-        <f>24101.1+10523</f>
-        <v>34624.1</v>
-      </c>
-      <c r="M53" s="7"/>
+        <v>3083.9</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3039</v>
+      </c>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -5232,17 +5706,22 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <v>1285.8</v>
+        <f>25251.8+10978.8</f>
+        <v>36230.6</v>
       </c>
       <c r="L54" s="7">
-        <v>1243.2</v>
-      </c>
-      <c r="M54" s="7"/>
+        <f>24101.1+10523</f>
+        <v>34624.1</v>
+      </c>
+      <c r="M54" s="7">
+        <f>23013.3+10054.6</f>
+        <v>33067.9</v>
+      </c>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -5253,17 +5732,19 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7">
-        <v>1056</v>
+        <v>1285.8</v>
       </c>
       <c r="L55" s="7">
-        <v>997.4</v>
-      </c>
-      <c r="M55" s="7"/>
+        <v>1243.2</v>
+      </c>
+      <c r="M55" s="7">
+        <v>1104</v>
+      </c>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -5274,40 +5755,45 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7">
-        <f>SUM(K47:K55)</f>
+        <v>1056</v>
+      </c>
+      <c r="L56" s="7">
+        <v>997.4</v>
+      </c>
+      <c r="M56" s="7">
+        <v>963.9</v>
+      </c>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7">
+        <f>SUM(K48:K56)</f>
         <v>53466.9</v>
       </c>
-      <c r="L56" s="7">
-        <f>SUM(L47:L55)</f>
+      <c r="L57" s="7">
+        <f>SUM(L48:L56)</f>
         <v>51125.1</v>
       </c>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="58" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7">
-        <v>1499.6</v>
-      </c>
-      <c r="L58" s="7">
-        <v>1670.1</v>
-      </c>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
+      <c r="M57" s="7">
+        <f>SUM(M48:M56)</f>
+        <v>48662.6</v>
+      </c>
+      <c r="N57" s="7"/>
     </row>
     <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -5318,19 +5804,19 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7">
-        <f>655.4+18762.5+2606.1</f>
-        <v>22024</v>
+        <v>1499.6</v>
       </c>
       <c r="L59" s="7">
-        <f>1019.7+19206.4+768.2</f>
-        <v>20994.300000000003</v>
-      </c>
-      <c r="M59" s="7"/>
+        <v>1670.1</v>
+      </c>
+      <c r="M59" s="7">
+        <v>1310.5</v>
+      </c>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -5341,19 +5827,22 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7">
-        <f>177.8+2729.5</f>
-        <v>2907.3</v>
+        <f>655.4+18762.5+2606.1</f>
+        <v>22024</v>
       </c>
       <c r="L60" s="7">
-        <f>125.7+2617.9</f>
-        <v>2743.6</v>
-      </c>
-      <c r="M60" s="7"/>
+        <f>1019.7+19206.4+768.2</f>
+        <v>20994.300000000003</v>
+      </c>
+      <c r="M60" s="7">
+        <f>500.4+18724.5+763.8</f>
+        <v>19988.7</v>
+      </c>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -5364,17 +5853,22 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7">
-        <v>277.7</v>
+        <f>177.8+2729.5</f>
+        <v>2907.3</v>
       </c>
       <c r="L61" s="7">
-        <v>285.10000000000002</v>
-      </c>
-      <c r="M61" s="7"/>
+        <f>125.7+2617.9</f>
+        <v>2743.6</v>
+      </c>
+      <c r="M61" s="7">
+        <f>106.7+2489.3</f>
+        <v>2596</v>
+      </c>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -5385,17 +5879,19 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7">
-        <v>4426.3</v>
+        <v>277.7</v>
       </c>
       <c r="L62" s="7">
-        <v>3812.4</v>
-      </c>
-      <c r="M62" s="7"/>
+        <v>285.10000000000002</v>
+      </c>
+      <c r="M62" s="7">
+        <v>335.3</v>
+      </c>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -5406,17 +5902,19 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7">
-        <v>1884.3</v>
+        <v>4426.3</v>
       </c>
       <c r="L63" s="7">
-        <v>1814.2</v>
-      </c>
-      <c r="M63" s="7"/>
+        <v>3812.4</v>
+      </c>
+      <c r="M63" s="7">
+        <v>3504.7</v>
+      </c>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -5427,17 +5925,19 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7">
-        <v>20447.7</v>
+        <v>1884.3</v>
       </c>
       <c r="L64" s="7">
-        <v>19805.400000000001</v>
-      </c>
-      <c r="M64" s="7"/>
+        <v>1814.2</v>
+      </c>
+      <c r="M64" s="7">
+        <v>1745.1</v>
+      </c>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -5448,42 +5948,45 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7">
-        <f>SUM(K58:K64)</f>
+        <v>20447.7</v>
+      </c>
+      <c r="L65" s="7">
+        <v>19805.400000000001</v>
+      </c>
+      <c r="M65" s="7">
+        <v>19182.3</v>
+      </c>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7">
+        <f>SUM(K59:K65)</f>
         <v>53466.899999999994</v>
       </c>
-      <c r="L65" s="7">
-        <f>SUM(L58:L64)</f>
+      <c r="L66" s="7">
+        <f>SUM(L59:L65)</f>
         <v>51125.100000000006</v>
       </c>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-    </row>
-    <row r="67" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7">
-        <f>+K39</f>
-        <v>405.39999999999992</v>
-      </c>
-      <c r="L67" s="7">
-        <f>+L39</f>
-        <v>324.79999999999927</v>
-      </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
+      <c r="M66" s="7">
+        <f>SUM(M59:M65)</f>
+        <v>48662.6</v>
+      </c>
+      <c r="N66" s="7"/>
     </row>
     <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -5494,18 +5997,19 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7">
-        <v>399.2</v>
+        <f>+K40</f>
+        <v>405.39999999999992</v>
       </c>
       <c r="L68" s="7">
-        <f>713.1-K68</f>
-        <v>313.90000000000003</v>
+        <f>+L40</f>
+        <v>324.79999999999927</v>
       </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -5516,18 +6020,18 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7">
-        <v>736</v>
+        <v>399.2</v>
       </c>
       <c r="L69" s="7">
-        <f>1458.3-K69</f>
-        <v>722.3</v>
+        <f>713.1-K69</f>
+        <v>313.90000000000003</v>
       </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -5538,18 +6042,18 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7">
-        <v>28.3</v>
+        <v>736</v>
       </c>
       <c r="L70" s="7">
-        <f>57.7-K70</f>
-        <v>29.400000000000002</v>
+        <f>1458.3-K70</f>
+        <v>722.3</v>
       </c>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5560,18 +6064,18 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7">
-        <v>-52.8</v>
+        <v>28.3</v>
       </c>
       <c r="L71" s="7">
-        <f>-157.6-K71</f>
-        <v>-104.8</v>
+        <f>57.7-K71</f>
+        <v>29.400000000000002</v>
       </c>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5582,18 +6086,18 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7">
-        <v>-0.1</v>
+        <v>-52.8</v>
       </c>
       <c r="L72" s="7">
-        <f>0-K72</f>
-        <v>0.1</v>
+        <f>-157.6-K72</f>
+        <v>-104.8</v>
       </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5604,18 +6108,18 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7">
-        <v>37.799999999999997</v>
+        <v>-0.1</v>
       </c>
       <c r="L73" s="7">
-        <f>3.8-K73</f>
-        <v>-34</v>
+        <f>0-K73</f>
+        <v>0.1</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5626,18 +6130,18 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7">
-        <v>5.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L74" s="7">
-        <f>10-K74</f>
-        <v>4.8</v>
+        <f>3.8-K74</f>
+        <v>-34</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5648,19 +6152,18 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7">
-        <f>-115.5-69.1-30.2+67+132.7</f>
-        <v>-15.099999999999994</v>
+        <v>5.2</v>
       </c>
       <c r="L75" s="7">
-        <f>-142.3-270.1+254.5+17.8-4.2-K75</f>
-        <v>-129.20000000000002</v>
+        <f>10-K75</f>
+        <v>4.8</v>
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5671,17 +6174,20 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7">
-        <f>SUM(K68:K75)</f>
-        <v>1138.5000000000002</v>
+        <f>-115.5-69.1-30.2+67+132.7</f>
+        <v>-15.099999999999994</v>
       </c>
       <c r="L76" s="7">
-        <f>SUM(L68:L75)</f>
-        <v>802.50000000000011</v>
+        <f>-142.3-270.1+254.5+17.8-4.2-K76</f>
+        <v>-129.20000000000002</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -5690,15 +6196,18 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="K77" s="7">
+        <f>SUM(K69:K76)</f>
+        <v>1138.5000000000002</v>
+      </c>
+      <c r="L77" s="7">
+        <f>SUM(L69:L76)</f>
+        <v>802.50000000000011</v>
+      </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -5707,19 +6216,14 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="7">
-        <v>-64.5</v>
-      </c>
-      <c r="L78" s="7">
-        <f>-148.4-K78</f>
-        <v>-83.9</v>
-      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5730,19 +6234,18 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7">
-        <f>-8.6+8.5</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>-64.5</v>
       </c>
       <c r="L79" s="7">
-        <f>-13.2+12.8-K79</f>
-        <v>-0.29999999999999893</v>
+        <f>-148.4-K79</f>
+        <v>-83.9</v>
       </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -5753,18 +6256,19 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7">
-        <v>-7.4</v>
+        <f>-8.6+8.5</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="L80" s="7">
-        <f>-13-K80</f>
-        <v>-5.6</v>
+        <f>-13.2+12.8-K80</f>
+        <v>-0.29999999999999893</v>
       </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -5775,18 +6279,18 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7">
-        <v>5.0999999999999996</v>
+        <v>-7.4</v>
       </c>
       <c r="L81" s="7">
-        <f>12.8-K81</f>
-        <v>7.7000000000000011</v>
+        <f>-13-K81</f>
+        <v>-5.6</v>
       </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -5797,17 +6301,19 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7">
-        <f>SUM(K78:K81)</f>
-        <v>-66.900000000000006</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L82" s="7">
-        <f>SUM(L78:L81)</f>
-        <v>-82.1</v>
+        <f>12.8-K82</f>
+        <v>7.7000000000000011</v>
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -5816,15 +6322,18 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="K83" s="7">
+        <f>SUM(K79:K82)</f>
+        <v>-66.900000000000006</v>
+      </c>
+      <c r="L83" s="7">
+        <f>SUM(L79:L82)</f>
+        <v>-82.1</v>
+      </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -5833,20 +6342,14 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7">
-        <f>0.1-0.1-837.9-0.4-0.2</f>
-        <v>-838.5</v>
-      </c>
-      <c r="L84" s="7">
-        <f>795.4-1787-473.5-1.3+0.7-0.2-K84</f>
-        <v>-627.39999999999986</v>
-      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -5857,18 +6360,19 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7">
-        <v>-9.9</v>
+        <f>0.1-0.1-837.9-0.4-0.2</f>
+        <v>-838.5</v>
       </c>
       <c r="L85" s="7">
-        <f>-13.2-K85</f>
-        <v>-3.2999999999999989</v>
+        <f>795.4-1787-473.5-1.3+0.7-0.2-K85</f>
+        <v>-627.39999999999986</v>
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -5879,18 +6383,18 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7">
-        <v>-15.5</v>
+        <v>-9.9</v>
       </c>
       <c r="L86" s="7">
-        <f>-18.9-K86</f>
-        <v>-3.3999999999999986</v>
+        <f>-13.2-K86</f>
+        <v>-3.2999999999999989</v>
       </c>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -5901,18 +6405,18 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7">
-        <v>-145.1</v>
+        <v>-15.5</v>
       </c>
       <c r="L87" s="7">
-        <f>-290.6-K87</f>
-        <v>-145.50000000000003</v>
+        <f>-18.9-K87</f>
+        <v>-3.3999999999999986</v>
       </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -5923,19 +6427,18 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7">
-        <f>SUM(K84:K87)</f>
-        <v>-1009</v>
+        <v>-145.1</v>
       </c>
       <c r="L88" s="7">
-        <f>SUM(L84:L87)</f>
-        <v>-779.5999999999998</v>
+        <f>-290.6-K88</f>
+        <v>-145.50000000000003</v>
       </c>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -5946,18 +6449,19 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7">
-        <v>-11.4</v>
+        <f>SUM(K85:K88)</f>
+        <v>-1009</v>
       </c>
       <c r="L89" s="7">
-        <f>-40.2-K89</f>
-        <v>-28.800000000000004</v>
+        <f>SUM(L85:L88)</f>
+        <v>-779.5999999999998</v>
       </c>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -5968,21 +6472,44 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7">
-        <f>+K88+K89+K82+K76</f>
-        <v>51.200000000000273</v>
+        <v>-11.4</v>
       </c>
       <c r="L90" s="7">
-        <f>+L88+L89+L82+L76</f>
-        <v>-87.999999999999659</v>
+        <f>-40.2-K90</f>
+        <v>-28.800000000000004</v>
       </c>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
+    </row>
+    <row r="91" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7">
+        <f>+K89+K90+K83+K77</f>
+        <v>51.200000000000273</v>
+      </c>
+      <c r="L91" s="7">
+        <f>+L89+L90+L83+L77</f>
+        <v>-87.999999999999659</v>
+      </c>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{93B33797-E4EA-4FDB-827A-0D8F4F37A4F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VTRS.xlsx
+++ b/VTRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5012C2-8C53-4EFE-BB47-34FB7F0CB17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30C2EC-87DA-4FC6-86BB-474ACD1E88BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29610" yWindow="2115" windowWidth="24870" windowHeight="17595" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
+    <workbookView xWindow="22245" yWindow="15" windowWidth="28920" windowHeight="20850" activeTab="1" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2395,7 +2395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="325">
   <si>
     <t>Price</t>
   </si>
@@ -2526,9 +2526,6 @@
     <t>OA</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>L+SE</t>
   </si>
   <si>
@@ -3352,6 +3349,27 @@
   </si>
   <si>
     <t>Influvac</t>
+  </si>
+  <si>
+    <t>11/16/2020: Upjohn (Pfizer)/Mylan merger</t>
+  </si>
+  <si>
+    <t>1961: Mylan founded.</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Tangible Book Value</t>
+  </si>
+  <si>
+    <t>SE (Book Value)</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3480,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3548,6 +3566,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3581,7 +3605,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3621,11 +3645,61 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13939</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13939</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>37170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B0279C-0707-B9DC-6DEC-78CCC33214BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18209012" y="55756"/>
+          <a:ext cx="0" cy="10877085"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Valuation"/>
@@ -3728,7 +3802,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Q"/>
@@ -4082,23 +4156,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E017A8A-799D-4C3F-B6D7-D970F67C6431}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:N11"/>
+  <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>11.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -4106,10 +4178,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1212.6845980000001</v>
+        <v>1196.8139590000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -4118,7 +4190,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>13424.418499860001</v>
+        <v>11968.139590000001</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -4150,22 +4222,32 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>32766.718499859999</v>
+        <v>31310.439590000002</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4176,28 +4258,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2229FB-F424-40E9-A974-86FFAA24DCFE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:AL96"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M60" sqref="M60"/>
+      <selection pane="bottomRight" activeCell="AD70" sqref="AD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4234,10 +4316,73 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <v>2015</v>
+      </c>
+      <c r="X2">
+        <f>W2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AL2" si="0">X2+1</f>
+        <v>2017</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4268,9 +4413,9 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4301,9 +4446,9 @@
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4334,9 +4479,9 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4366,10 +4511,16 @@
         <v>2431.5</v>
       </c>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2">
+        <v>10428.700000000001</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>9768.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4399,10 +4550,16 @@
         <v>678.9</v>
       </c>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="2">
+        <v>2212.8000000000002</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>2201.1999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4432,10 +4589,16 @@
         <v>383</v>
       </c>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="2">
+        <v>2027.4</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1632.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -4465,8 +4628,14 @@
         <v>574</v>
       </c>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="2">
+        <v>3144.7</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>2615.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4480,9 +4649,9 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4511,9 +4680,9 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4542,9 +4711,9 @@
       </c>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4573,9 +4742,9 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4604,9 +4773,9 @@
       </c>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4635,9 +4804,9 @@
       </c>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4666,9 +4835,9 @@
       </c>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4697,9 +4866,9 @@
       </c>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4728,9 +4897,9 @@
       </c>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4759,9 +4928,9 @@
       </c>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4790,9 +4959,9 @@
       </c>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4813,9 +4982,9 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4844,9 +5013,9 @@
       </c>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4875,9 +5044,9 @@
       </c>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4906,9 +5075,9 @@
       </c>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4937,7 +5106,7 @@
       </c>
       <c r="N26" s="7"/>
     </row>
-    <row r="28" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
@@ -4969,8 +5138,19 @@
         <v>4067.4</v>
       </c>
       <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB28" s="2">
+        <v>11819.9</v>
+      </c>
+      <c r="AC28" s="2">
+        <f>SUM(AC7:AC10)</f>
+        <v>17813.599999999999</v>
+      </c>
+      <c r="AD28" s="2">
+        <f>SUM(AD7:AD10)</f>
+        <v>16218.099999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
@@ -5002,8 +5182,17 @@
         <v>10.8</v>
       </c>
       <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB29" s="2">
+        <v>126.1</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>72.7</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -5011,40 +5200,52 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9">
-        <f>+F28+F29</f>
+        <f t="shared" ref="F30:M30" si="1">+F28+F29</f>
         <v>3623.5</v>
       </c>
       <c r="G30" s="9">
-        <f>+G28+G29</f>
+        <f t="shared" si="1"/>
         <v>4430.3</v>
       </c>
       <c r="H30" s="9">
-        <f>+H28+H29</f>
+        <f t="shared" si="1"/>
         <v>4577.8</v>
       </c>
       <c r="I30" s="9">
-        <f>+I28+I29</f>
+        <f t="shared" si="1"/>
         <v>4536.6000000000004</v>
       </c>
       <c r="J30" s="9">
-        <f>+J28+J29</f>
+        <f t="shared" si="1"/>
         <v>4341.6000000000004</v>
       </c>
       <c r="K30" s="9">
-        <f>+K28+K29</f>
+        <f t="shared" si="1"/>
         <v>4191.7</v>
       </c>
       <c r="L30" s="9">
-        <f>+L28+L29</f>
+        <f t="shared" si="1"/>
         <v>4116.7999999999993</v>
       </c>
       <c r="M30" s="9">
-        <f>+M28+M29</f>
+        <f t="shared" si="1"/>
         <v>4078.2000000000003</v>
       </c>
       <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB30" s="8">
+        <f>AB28+AB29</f>
+        <v>11946</v>
+      </c>
+      <c r="AC30" s="8">
+        <f>AC28+AC29</f>
+        <v>17886.3</v>
+      </c>
+      <c r="AD30" s="8">
+        <f>AD28+AD29</f>
+        <v>16262.699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -5076,8 +5277,17 @@
         <v>2329.8000000000002</v>
       </c>
       <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB31" s="2">
+        <v>8149.3</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>12310.8</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>9765.7000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -5085,40 +5295,52 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
-        <f>+F30-F31</f>
+        <f t="shared" ref="F32:M32" si="2">+F30-F31</f>
         <v>706.40000000000009</v>
       </c>
       <c r="G32" s="7">
-        <f>+G30-G31</f>
+        <f t="shared" si="2"/>
         <v>1127.3000000000002</v>
       </c>
       <c r="H32" s="7">
-        <f>+H30-H31</f>
+        <f t="shared" si="2"/>
         <v>1327.7000000000003</v>
       </c>
       <c r="I32" s="7">
-        <f>+I30-I31</f>
+        <f t="shared" si="2"/>
         <v>1574.1000000000004</v>
       </c>
       <c r="J32" s="7">
-        <f>+J30-J31</f>
+        <f t="shared" si="2"/>
         <v>1546.4000000000005</v>
       </c>
       <c r="K32" s="7">
-        <f>+K30-K31</f>
+        <f t="shared" si="2"/>
         <v>1771.1999999999998</v>
       </c>
       <c r="L32" s="7">
-        <f>+L30-L31</f>
+        <f t="shared" si="2"/>
         <v>1703.2999999999993</v>
       </c>
       <c r="M32" s="7">
-        <f>+M30-M31</f>
+        <f t="shared" si="2"/>
         <v>1748.4</v>
       </c>
       <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB32" s="2">
+        <f>AB30-AB31</f>
+        <v>3796.7</v>
+      </c>
+      <c r="AC32" s="2">
+        <f>AC30-AC31</f>
+        <v>5575.5</v>
+      </c>
+      <c r="AD32" s="2">
+        <f>AD30-AD31</f>
+        <v>6496.9999999999982</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -5150,8 +5372,17 @@
         <v>174.9</v>
       </c>
       <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB33" s="2">
+        <v>512.6</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>681</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>662.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5183,8 +5414,17 @@
         <v>1017.3</v>
       </c>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB34" s="2">
+        <v>3344.6</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>4529.2</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>4179.1000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -5192,40 +5432,52 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
-        <f>+F33+F34</f>
+        <f t="shared" ref="F35:M35" si="3">+F33+F34</f>
         <v>1516.2</v>
       </c>
       <c r="G35" s="7">
-        <f>+G33+G34</f>
+        <f t="shared" si="3"/>
         <v>1370.6</v>
       </c>
       <c r="H35" s="7">
-        <f>+H33+H34</f>
+        <f t="shared" si="3"/>
         <v>1352.5</v>
       </c>
       <c r="I35" s="7">
-        <f>+I33+I34</f>
+        <f t="shared" si="3"/>
         <v>1207.0999999999999</v>
       </c>
       <c r="J35" s="7">
-        <f>+J33+J34</f>
+        <f t="shared" si="3"/>
         <v>1350.1000000000001</v>
       </c>
       <c r="K35" s="7">
-        <f>+K33+K34</f>
+        <f t="shared" si="3"/>
         <v>1057.5999999999999</v>
       </c>
       <c r="L35" s="7">
-        <f>+L33+L34</f>
+        <f t="shared" si="3"/>
         <v>1143.7</v>
       </c>
       <c r="M35" s="7">
-        <f>+M33+M34</f>
+        <f t="shared" si="3"/>
         <v>1192.2</v>
       </c>
       <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB35" s="2">
+        <f>AB33+AB34</f>
+        <v>3857.2</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" ref="AC35:AD35" si="4">AC33+AC34</f>
+        <v>5210.2</v>
+      </c>
+      <c r="AD35" s="2">
+        <f t="shared" si="4"/>
+        <v>4841.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -5233,40 +5485,52 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7">
-        <f>+F32-F35</f>
+        <f t="shared" ref="F36:M36" si="5">+F32-F35</f>
         <v>-809.8</v>
       </c>
       <c r="G36" s="7">
-        <f>+G32-G35</f>
+        <f t="shared" si="5"/>
         <v>-243.29999999999973</v>
       </c>
       <c r="H36" s="7">
-        <f>+H32-H35</f>
+        <f t="shared" si="5"/>
         <v>-24.799999999999727</v>
       </c>
       <c r="I36" s="7">
-        <f>+I32-I35</f>
+        <f t="shared" si="5"/>
         <v>367.00000000000045</v>
       </c>
       <c r="J36" s="7">
-        <f>+J32-J35</f>
+        <f t="shared" si="5"/>
         <v>196.30000000000041</v>
       </c>
       <c r="K36" s="7">
-        <f>+K32-K35</f>
+        <f t="shared" si="5"/>
         <v>713.59999999999991</v>
       </c>
       <c r="L36" s="7">
-        <f>+L32-L35</f>
+        <f t="shared" si="5"/>
         <v>559.59999999999923</v>
       </c>
       <c r="M36" s="7">
-        <f>+M32-M35</f>
+        <f t="shared" si="5"/>
         <v>556.20000000000005</v>
       </c>
       <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB36" s="2">
+        <f>AB32-AB35</f>
+        <v>-60.5</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" ref="AC36:AD36" si="6">AC32-AC35</f>
+        <v>365.30000000000018</v>
+      </c>
+      <c r="AD36" s="2">
+        <f t="shared" si="6"/>
+        <v>1655.699999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
@@ -5306,8 +5570,17 @@
         <v>-132.6</v>
       </c>
       <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB37" s="2">
+        <v>-497.8</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>-636.20000000000005</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>-592.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
@@ -5315,40 +5588,52 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
-        <f>+F36+F37</f>
+        <f t="shared" ref="F38:M38" si="7">+F36+F37</f>
         <v>-942.19999999999993</v>
       </c>
       <c r="G38" s="7">
-        <f>+G36+G37</f>
+        <f t="shared" si="7"/>
         <v>-418.39999999999975</v>
       </c>
       <c r="H38" s="7">
-        <f>+H36+H37</f>
+        <f t="shared" si="7"/>
         <v>-196.09999999999971</v>
       </c>
       <c r="I38" s="7">
-        <f>+I36+I37</f>
+        <f t="shared" si="7"/>
         <v>209.30000000000044</v>
       </c>
       <c r="J38" s="7">
-        <f>+J36+J37</f>
+        <f t="shared" si="7"/>
         <v>70.000000000000426</v>
       </c>
       <c r="K38" s="7">
-        <f>+K36+K37</f>
+        <f t="shared" si="7"/>
         <v>533.69999999999993</v>
       </c>
       <c r="L38" s="7">
-        <f>+L36+L37</f>
+        <f t="shared" si="7"/>
         <v>400.19999999999925</v>
       </c>
       <c r="M38" s="7">
-        <f>+M36+M37</f>
+        <f t="shared" si="7"/>
         <v>423.6</v>
       </c>
       <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2">
+        <f>AB36+AB37</f>
+        <v>-558.29999999999995</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" ref="AC38:AD38" si="8">AC36+AC37</f>
+        <v>-270.89999999999986</v>
+      </c>
+      <c r="AD38" s="2">
+        <f t="shared" si="8"/>
+        <v>1063.2999999999979</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
@@ -5380,49 +5665,70 @@
         <v>73.2</v>
       </c>
       <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>734.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7">
-        <f>+F38-F39</f>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46">
+        <f t="shared" ref="F40:M40" si="9">+F38-F39</f>
         <v>-942.19999999999993</v>
       </c>
-      <c r="G40" s="7">
-        <f>+G38-G39</f>
+      <c r="G40" s="46">
+        <f t="shared" si="9"/>
         <v>-1014.6999999999997</v>
       </c>
-      <c r="H40" s="7">
-        <f>+H38-H39</f>
+      <c r="H40" s="46">
+        <f t="shared" si="9"/>
         <v>-256.1999999999997</v>
       </c>
-      <c r="I40" s="7">
-        <f>+I38-I39</f>
+      <c r="I40" s="46">
+        <f t="shared" si="9"/>
         <v>209.30000000000044</v>
       </c>
-      <c r="J40" s="7">
-        <f>+J38-J39</f>
+      <c r="J40" s="46">
+        <f t="shared" si="9"/>
         <v>10.100000000000428</v>
       </c>
-      <c r="K40" s="7">
-        <f>+K38-K39</f>
+      <c r="K40" s="46">
+        <f t="shared" si="9"/>
         <v>405.39999999999992</v>
       </c>
-      <c r="L40" s="7">
-        <f>+L38-L39</f>
+      <c r="L40" s="46">
+        <f t="shared" si="9"/>
         <v>324.79999999999927</v>
       </c>
-      <c r="M40" s="7">
-        <f>+M38-M39</f>
+      <c r="M40" s="46">
+        <f t="shared" si="9"/>
         <v>350.40000000000003</v>
       </c>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="46"/>
+      <c r="AB40" s="45">
+        <f>AB38-AB39</f>
+        <v>-558.29999999999995</v>
+      </c>
+      <c r="AC40" s="45">
+        <f>AC38-AC39</f>
+        <v>-270.89999999999986</v>
+      </c>
+      <c r="AD40" s="45">
+        <f>AD38-AD39</f>
+        <v>328.69999999999789</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
@@ -5430,40 +5736,52 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
-        <f>+F40/F42</f>
+        <f t="shared" ref="F41:M41" si="10">+F40/F42</f>
         <v>-1.1027621722846441</v>
       </c>
       <c r="G41" s="5">
-        <f>+G40/G42</f>
+        <f t="shared" si="10"/>
         <v>-0.8403312629399583</v>
       </c>
       <c r="H41" s="5">
-        <f>+H40/H42</f>
+        <f t="shared" si="10"/>
         <v>-0.21194573130377209</v>
       </c>
       <c r="I41" s="5">
-        <f>+I40/I42</f>
+        <f t="shared" si="10"/>
         <v>0.17260432129308961</v>
       </c>
       <c r="J41" s="5">
-        <f>+J40/J42</f>
+        <f t="shared" si="10"/>
         <v>8.3512485530018409E-3</v>
       </c>
       <c r="K41" s="5">
-        <f>+K40/K42</f>
+        <f t="shared" si="10"/>
         <v>0.33418514549501271</v>
       </c>
       <c r="L41" s="5">
-        <f>+L40/L42</f>
+        <f t="shared" si="10"/>
         <v>0.26686385670856899</v>
       </c>
       <c r="M41" s="5">
-        <f>+M40/M42</f>
+        <f t="shared" si="10"/>
         <v>0.28766111156719487</v>
       </c>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB41" s="1">
+        <f>AB40/AB42</f>
+        <v>-0.92864271457085812</v>
+      </c>
+      <c r="AC41" s="1">
+        <f t="shared" ref="AC41:AD41" si="11">AC40/AC42</f>
+        <v>-0.22410655195234933</v>
+      </c>
+      <c r="AD41" s="1">
+        <f t="shared" si="11"/>
+        <v>0.27000164284540651</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
@@ -5495,8 +5813,17 @@
         <v>1218.0999999999999</v>
       </c>
       <c r="N42" s="7"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="AB42" s="2">
+        <v>601.20000000000005</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>1208.8</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>1217.4000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
@@ -5517,70 +5844,76 @@
         <f>M30/I30-1</f>
         <v>-0.1010448353392408</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="AC45" s="43">
+        <f>AC30/AB30-1</f>
+        <v>0.49726268206931179</v>
+      </c>
+      <c r="AD45" s="43">
+        <f t="shared" ref="AD45" si="12">AD30/AC30-1</f>
+        <v>-9.0773385216618374E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="4">
-        <f>+F32/F30</f>
+        <f t="shared" ref="F46:M46" si="13">+F32/F30</f>
         <v>0.19494963433144752</v>
       </c>
       <c r="G46" s="4">
-        <f>+G32/G30</f>
+        <f t="shared" si="13"/>
         <v>0.254452294427014</v>
       </c>
       <c r="H46" s="4">
-        <f>+H32/H30</f>
+        <f t="shared" si="13"/>
         <v>0.29003014548473072</v>
       </c>
       <c r="I46" s="4">
-        <f>+I32/I30</f>
+        <f t="shared" si="13"/>
         <v>0.34697791297447433</v>
       </c>
       <c r="J46" s="4">
-        <f>+J32/J30</f>
+        <f t="shared" si="13"/>
         <v>0.35618205269946573</v>
       </c>
       <c r="K46" s="4">
-        <f>+K32/K30</f>
+        <f t="shared" si="13"/>
         <v>0.42254932366343007</v>
       </c>
       <c r="L46" s="4">
-        <f>+L32/L30</f>
+        <f t="shared" si="13"/>
         <v>0.41374368441507958</v>
       </c>
       <c r="M46" s="4">
-        <f>+M32/M30</f>
+        <f t="shared" si="13"/>
         <v>0.4287185523024864</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+      <c r="AB46" s="44">
+        <f>AB32/AB30</f>
+        <v>0.31782186505943411</v>
+      </c>
+      <c r="AC46" s="44">
+        <f>AC32/AC30</f>
+        <v>0.31171902517569317</v>
+      </c>
+      <c r="AD46" s="44">
+        <f>AD32/AD30</f>
+        <v>0.39950315753226701</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD48" s="45">
+        <f>AD49-AD61</f>
+        <v>-18014.399999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7">
-        <v>752.4</v>
-      </c>
-      <c r="L48" s="7">
-        <v>664.7</v>
-      </c>
-      <c r="M48" s="7">
-        <v>646.70000000000005</v>
-      </c>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -5591,19 +5924,22 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7">
-        <v>4093.9</v>
+        <v>752.4</v>
       </c>
       <c r="L49" s="7">
-        <v>3736.2</v>
+        <v>664.7</v>
       </c>
       <c r="M49" s="7">
-        <v>3333.9</v>
+        <v>646.70000000000005</v>
       </c>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>37</v>
+      <c r="AD49" s="45">
+        <v>1259.9000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -5614,19 +5950,22 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7">
-        <v>3797.3</v>
+        <v>4093.9</v>
       </c>
       <c r="L50" s="7">
-        <v>3612.5</v>
+        <v>3736.2</v>
       </c>
       <c r="M50" s="7">
-        <v>3380.4</v>
+        <v>3333.9</v>
       </c>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>38</v>
+      <c r="AD50" s="45">
+        <v>3814.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -5637,19 +5976,23 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7">
-        <v>1763.6</v>
+        <v>3797.3</v>
       </c>
       <c r="L51" s="7">
-        <v>1697.7</v>
+        <v>3612.5</v>
       </c>
       <c r="M51" s="7">
-        <v>1700.4</v>
+        <v>3380.4</v>
       </c>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>39</v>
+      <c r="AD51" s="45">
+        <v>3519.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -5660,19 +6003,22 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7">
-        <v>1337.1</v>
+        <v>1763.6</v>
       </c>
       <c r="L52" s="7">
-        <v>1465.4</v>
+        <v>1697.7</v>
       </c>
       <c r="M52" s="7">
-        <v>1426.4</v>
+        <v>1700.4</v>
       </c>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD52" s="45">
+        <v>1811.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -5683,19 +6029,22 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7">
-        <v>3150.2</v>
+        <v>1337.1</v>
       </c>
       <c r="L53" s="7">
-        <v>3083.9</v>
+        <v>1465.4</v>
       </c>
       <c r="M53" s="7">
-        <v>3039</v>
+        <v>1426.4</v>
       </c>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD53" s="2">
+        <v>230.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -5706,22 +6055,22 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7">
-        <f>25251.8+10978.8</f>
-        <v>36230.6</v>
+        <v>3150.2</v>
       </c>
       <c r="L54" s="7">
-        <f>24101.1+10523</f>
-        <v>34624.1</v>
+        <v>3083.9</v>
       </c>
       <c r="M54" s="7">
-        <f>23013.3+10054.6</f>
-        <v>33067.9</v>
+        <v>3039</v>
       </c>
       <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD54" s="45">
+        <v>3024.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -5732,19 +6081,27 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7">
-        <v>1285.8</v>
+        <f>25251.8+10978.8</f>
+        <v>36230.6</v>
       </c>
       <c r="L55" s="7">
-        <v>1243.2</v>
+        <f>24101.1+10523</f>
+        <v>34624.1</v>
       </c>
       <c r="M55" s="7">
-        <v>1104</v>
+        <f>23013.3+10054.6</f>
+        <v>33067.9</v>
       </c>
       <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC55" s="45"/>
+      <c r="AD55" s="8">
+        <f>10425.8+22607.1</f>
+        <v>33032.899999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -5755,19 +6112,22 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7">
-        <v>1056</v>
+        <v>1285.8</v>
       </c>
       <c r="L56" s="7">
-        <v>997.4</v>
+        <v>1243.2</v>
       </c>
       <c r="M56" s="7">
-        <v>963.9</v>
+        <v>1104</v>
       </c>
       <c r="N56" s="7"/>
-    </row>
-    <row r="57" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD56" s="2">
+        <v>925.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -5778,45 +6138,52 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7">
-        <f>SUM(K48:K56)</f>
+        <v>1056</v>
+      </c>
+      <c r="L57" s="7">
+        <v>997.4</v>
+      </c>
+      <c r="M57" s="7">
+        <v>963.9</v>
+      </c>
+      <c r="N57" s="7"/>
+      <c r="AD57" s="2">
+        <v>2403.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7">
+        <f>SUM(K49:K57)</f>
         <v>53466.9</v>
       </c>
-      <c r="L57" s="7">
-        <f>SUM(L48:L56)</f>
+      <c r="L58" s="7">
+        <f>SUM(L49:L57)</f>
         <v>51125.1</v>
       </c>
-      <c r="M57" s="7">
-        <f>SUM(M48:M56)</f>
+      <c r="M58" s="7">
+        <f>SUM(M49:M57)</f>
         <v>48662.6</v>
       </c>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7">
-        <v>1499.6</v>
-      </c>
-      <c r="L59" s="7">
-        <v>1670.1</v>
-      </c>
-      <c r="M59" s="7">
-        <v>1310.5</v>
-      </c>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N58" s="7"/>
+      <c r="AD58" s="8">
+        <f>SUM(AD49:AD57)</f>
+        <v>50022.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -5827,22 +6194,22 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7">
-        <f>655.4+18762.5+2606.1</f>
-        <v>22024</v>
+        <v>1499.6</v>
       </c>
       <c r="L60" s="7">
-        <f>1019.7+19206.4+768.2</f>
-        <v>20994.300000000003</v>
+        <v>1670.1</v>
       </c>
       <c r="M60" s="7">
-        <f>500.4+18724.5+763.8</f>
-        <v>19988.7</v>
+        <v>1310.5</v>
       </c>
       <c r="N60" s="7"/>
-    </row>
-    <row r="61" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD60" s="45">
+        <v>1766.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -5853,22 +6220,26 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7">
-        <f>177.8+2729.5</f>
-        <v>2907.3</v>
+        <f>655.4+18762.5+2606.1</f>
+        <v>22024</v>
       </c>
       <c r="L61" s="7">
-        <f>125.7+2617.9</f>
-        <v>2743.6</v>
+        <f>1019.7+19206.4+768.2</f>
+        <v>20994.300000000003</v>
       </c>
       <c r="M61" s="7">
-        <f>106.7+2489.3</f>
-        <v>2596</v>
+        <f>500.4+18724.5+763.8</f>
+        <v>19988.7</v>
       </c>
       <c r="N61" s="7"/>
-    </row>
-    <row r="62" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD61" s="45">
+        <f>18015.2+1259.1</f>
+        <v>19274.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -5879,19 +6250,26 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7">
-        <v>277.7</v>
+        <f>177.8+2729.5</f>
+        <v>2907.3</v>
       </c>
       <c r="L62" s="7">
-        <v>285.10000000000002</v>
+        <f>125.7+2617.9</f>
+        <v>2743.6</v>
       </c>
       <c r="M62" s="7">
-        <v>335.3</v>
+        <f>106.7+2489.3</f>
+        <v>2596</v>
       </c>
       <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD62" s="45">
+        <f>279.6+2432</f>
+        <v>2711.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -5902,19 +6280,22 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7">
-        <v>4426.3</v>
+        <v>277.7</v>
       </c>
       <c r="L63" s="7">
-        <v>3812.4</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="M63" s="7">
-        <v>3504.7</v>
+        <v>335.3</v>
       </c>
       <c r="N63" s="7"/>
-    </row>
-    <row r="64" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -5925,19 +6306,22 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7">
-        <v>1884.3</v>
+        <v>4426.3</v>
       </c>
       <c r="L64" s="7">
-        <v>1814.2</v>
+        <v>3812.4</v>
       </c>
       <c r="M64" s="7">
-        <v>1745.1</v>
+        <v>3504.7</v>
       </c>
       <c r="N64" s="7"/>
-    </row>
-    <row r="65" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD64" s="2">
+        <v>3440.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -5948,19 +6332,22 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7">
-        <v>20447.7</v>
+        <v>1884.3</v>
       </c>
       <c r="L65" s="7">
-        <v>19805.400000000001</v>
+        <v>1814.2</v>
       </c>
       <c r="M65" s="7">
-        <v>19182.3</v>
+        <v>1745.1</v>
       </c>
       <c r="N65" s="7"/>
-    </row>
-    <row r="66" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD65" s="2">
+        <v>1756.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -5970,23 +6357,45 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="7">
-        <f>SUM(K59:K65)</f>
-        <v>53466.899999999994</v>
-      </c>
-      <c r="L66" s="7">
-        <f>SUM(L59:L65)</f>
-        <v>51125.100000000006</v>
-      </c>
-      <c r="M66" s="7">
-        <f>SUM(M59:M65)</f>
-        <v>48662.6</v>
-      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-    </row>
-    <row r="68" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD66" s="8">
+        <f>SUM(AD60:AD65)</f>
+        <v>28949.899999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7">
+        <v>20447.7</v>
+      </c>
+      <c r="L67" s="7">
+        <v>19805.400000000001</v>
+      </c>
+      <c r="M67" s="7">
+        <v>19182.3</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="AD67" s="8">
+        <f>AD58-AD66</f>
+        <v>21072.3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -5997,20 +6406,24 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7">
-        <f>+K40</f>
-        <v>405.39999999999992</v>
+        <f>SUM(K60:K67)</f>
+        <v>53466.899999999994</v>
       </c>
       <c r="L68" s="7">
-        <f>+L40</f>
-        <v>324.79999999999927</v>
-      </c>
-      <c r="M68" s="7"/>
+        <f>SUM(L60:L67)</f>
+        <v>51125.100000000006</v>
+      </c>
+      <c r="M68" s="7">
+        <f>SUM(M60:M67)</f>
+        <v>48662.6</v>
+      </c>
       <c r="N68" s="7"/>
-    </row>
-    <row r="69" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD68" s="8">
+        <f>AD66+AD67</f>
+        <v>50022.2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6019,19 +6432,14 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="7">
-        <v>399.2</v>
-      </c>
-      <c r="L69" s="7">
-        <f>713.1-K69</f>
-        <v>313.90000000000003</v>
-      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="2" t="s">
-        <v>50</v>
+    <row r="70" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="45" t="s">
+        <v>322</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -6041,19 +6449,18 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="7">
-        <v>736</v>
-      </c>
-      <c r="L70" s="7">
-        <f>1458.3-K70</f>
-        <v>722.3</v>
-      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-    </row>
-    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD70" s="45">
+        <f>AD58-AD66</f>
+        <v>21072.3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -6063,41 +6470,18 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="7">
-        <v>28.3</v>
-      </c>
-      <c r="L71" s="7">
-        <f>57.7-K71</f>
-        <v>29.400000000000002</v>
-      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-    </row>
-    <row r="72" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7">
-        <v>-52.8</v>
-      </c>
-      <c r="L72" s="7">
-        <f>-157.6-K72</f>
-        <v>-104.8</v>
-      </c>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-    </row>
-    <row r="73" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD71" s="8">
+        <f>AD70-AD55</f>
+        <v>-11960.599999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -6108,18 +6492,19 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7">
-        <v>-0.1</v>
+        <f>+K40</f>
+        <v>405.39999999999992</v>
       </c>
       <c r="L73" s="7">
-        <f>0-K73</f>
-        <v>0.1</v>
+        <f>+L40</f>
+        <v>324.79999999999927</v>
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -6130,18 +6515,18 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7">
-        <v>37.799999999999997</v>
+        <v>399.2</v>
       </c>
       <c r="L74" s="7">
-        <f>3.8-K74</f>
-        <v>-34</v>
+        <f>713.1-K74</f>
+        <v>313.90000000000003</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -6152,18 +6537,18 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7">
-        <v>5.2</v>
+        <v>736</v>
       </c>
       <c r="L75" s="7">
-        <f>10-K75</f>
-        <v>4.8</v>
+        <f>1458.3-K75</f>
+        <v>722.3</v>
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -6174,19 +6559,18 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7">
-        <f>-115.5-69.1-30.2+67+132.7</f>
-        <v>-15.099999999999994</v>
+        <v>28.3</v>
       </c>
       <c r="L76" s="7">
-        <f>-142.3-270.1+254.5+17.8-4.2-K76</f>
-        <v>-129.20000000000002</v>
+        <f>57.7-K76</f>
+        <v>29.400000000000002</v>
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -6197,17 +6581,19 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7">
-        <f>SUM(K69:K76)</f>
-        <v>1138.5000000000002</v>
+        <v>-52.8</v>
       </c>
       <c r="L77" s="7">
-        <f>SUM(L69:L76)</f>
-        <v>802.50000000000011</v>
+        <f>-157.6-K77</f>
+        <v>-104.8</v>
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -6216,14 +6602,19 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="K78" s="7">
+        <v>-0.1</v>
+      </c>
+      <c r="L78" s="7">
+        <f>0-K78</f>
+        <v>0.1</v>
+      </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -6234,18 +6625,18 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7">
-        <v>-64.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="L79" s="7">
-        <f>-148.4-K79</f>
-        <v>-83.9</v>
+        <f>3.8-K79</f>
+        <v>-34</v>
       </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -6256,19 +6647,18 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7">
-        <f>-8.6+8.5</f>
-        <v>-9.9999999999999645E-2</v>
+        <v>5.2</v>
       </c>
       <c r="L80" s="7">
-        <f>-13.2+12.8-K80</f>
-        <v>-0.29999999999999893</v>
+        <f>10-K80</f>
+        <v>4.8</v>
       </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -6279,18 +6669,19 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7">
-        <v>-7.4</v>
+        <f>-115.5-69.1-30.2+67+132.7</f>
+        <v>-15.099999999999994</v>
       </c>
       <c r="L81" s="7">
-        <f>-13-K81</f>
-        <v>-5.6</v>
+        <f>-142.3-270.1+254.5+17.8-4.2-K81</f>
+        <v>-129.20000000000002</v>
       </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -6301,19 +6692,17 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7">
-        <v>5.0999999999999996</v>
+        <f>SUM(K74:K81)</f>
+        <v>1138.5000000000002</v>
       </c>
       <c r="L82" s="7">
-        <f>12.8-K82</f>
-        <v>7.7000000000000011</v>
+        <f>SUM(L74:L81)</f>
+        <v>802.50000000000011</v>
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6322,18 +6711,15 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7">
-        <f>SUM(K79:K82)</f>
-        <v>-66.900000000000006</v>
-      </c>
-      <c r="L83" s="7">
-        <f>SUM(L79:L82)</f>
-        <v>-82.1</v>
-      </c>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6342,14 +6728,19 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="K84" s="7">
+        <v>-64.5</v>
+      </c>
+      <c r="L84" s="7">
+        <f>-148.4-K84</f>
+        <v>-83.9</v>
+      </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -6360,19 +6751,19 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7">
-        <f>0.1-0.1-837.9-0.4-0.2</f>
-        <v>-838.5</v>
+        <f>-8.6+8.5</f>
+        <v>-9.9999999999999645E-2</v>
       </c>
       <c r="L85" s="7">
-        <f>795.4-1787-473.5-1.3+0.7-0.2-K85</f>
-        <v>-627.39999999999986</v>
+        <f>-13.2+12.8-K85</f>
+        <v>-0.29999999999999893</v>
       </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -6383,18 +6774,18 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7">
-        <v>-9.9</v>
+        <v>-7.4</v>
       </c>
       <c r="L86" s="7">
-        <f>-13.2-K86</f>
-        <v>-3.2999999999999989</v>
+        <f>-13-K86</f>
+        <v>-5.6</v>
       </c>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -6405,18 +6796,18 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7">
-        <v>-15.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L87" s="7">
-        <f>-18.9-K87</f>
-        <v>-3.3999999999999986</v>
+        <f>12.8-K87</f>
+        <v>7.7000000000000011</v>
       </c>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -6427,19 +6818,17 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7">
-        <v>-145.1</v>
+        <f>SUM(K84:K87)</f>
+        <v>-66.900000000000006</v>
       </c>
       <c r="L88" s="7">
-        <f>-290.6-K88</f>
-        <v>-145.50000000000003</v>
+        <f>SUM(L84:L87)</f>
+        <v>-82.1</v>
       </c>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -6448,20 +6837,14 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7">
-        <f>SUM(K85:K88)</f>
-        <v>-1009</v>
-      </c>
-      <c r="L89" s="7">
-        <f>SUM(L85:L88)</f>
-        <v>-779.5999999999998</v>
-      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -6472,18 +6855,19 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7">
-        <v>-11.4</v>
+        <f>0.1-0.1-837.9-0.4-0.2</f>
+        <v>-838.5</v>
       </c>
       <c r="L90" s="7">
-        <f>-40.2-K90</f>
-        <v>-28.800000000000004</v>
+        <f>795.4-1787-473.5-1.3+0.7-0.2-K90</f>
+        <v>-627.39999999999986</v>
       </c>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
     <row r="91" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -6494,15 +6878,126 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7">
-        <f>+K89+K90+K83+K77</f>
-        <v>51.200000000000273</v>
+        <v>-9.9</v>
       </c>
       <c r="L91" s="7">
-        <f>+L89+L90+L83+L77</f>
-        <v>-87.999999999999659</v>
+        <f>-13.2-K91</f>
+        <v>-3.2999999999999989</v>
       </c>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
+    </row>
+    <row r="92" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7">
+        <v>-15.5</v>
+      </c>
+      <c r="L92" s="7">
+        <f>-18.9-K92</f>
+        <v>-3.3999999999999986</v>
+      </c>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+    </row>
+    <row r="93" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7">
+        <v>-145.1</v>
+      </c>
+      <c r="L93" s="7">
+        <f>-290.6-K93</f>
+        <v>-145.50000000000003</v>
+      </c>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+    </row>
+    <row r="94" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7">
+        <f>SUM(K90:K93)</f>
+        <v>-1009</v>
+      </c>
+      <c r="L94" s="7">
+        <f>SUM(L90:L93)</f>
+        <v>-779.5999999999998</v>
+      </c>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+    </row>
+    <row r="95" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7">
+        <v>-11.4</v>
+      </c>
+      <c r="L95" s="7">
+        <f>-40.2-K95</f>
+        <v>-28.800000000000004</v>
+      </c>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+    </row>
+    <row r="96" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7">
+        <f>+K94+K95+K88+K82</f>
+        <v>51.200000000000273</v>
+      </c>
+      <c r="L96" s="7">
+        <f>+L94+L95+L88+L82</f>
+        <v>-87.999999999999659</v>
+      </c>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6539,41 +7034,41 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C4" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C5" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C7" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
@@ -6593,7 +7088,7 @@
         <v>2005</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="28">
         <v>2007</v>
@@ -6632,96 +7127,96 @@
         <v>2018</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U9" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V9" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X9" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y9" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z9" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB9" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC9" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD9" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE9" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF9" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG9" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH9" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI9" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ9" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK9" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL9" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO9" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR9" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS9" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AM9" s="28" t="s">
+      <c r="AT9" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AN9" s="28" t="s">
+      <c r="AU9" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="AO9" s="28" t="s">
+      <c r="AV9" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="AP9" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ9" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR9" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS9" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU9" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV9" s="28" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="27">
         <v>1000</v>
@@ -6801,7 +7296,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="27">
         <v>735</v>
@@ -6881,7 +7376,7 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="27">
         <f>C11+C10</f>
@@ -6947,83 +7442,83 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="23">
         <v>33816</v>
@@ -7031,30 +7526,30 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:72" x14ac:dyDescent="0.2">
@@ -7062,47 +7557,47 @@
     </row>
     <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:72" x14ac:dyDescent="0.2">
@@ -7143,7 +7638,7 @@
         <v>2005</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P32" s="15">
         <v>2007</v>
@@ -7182,144 +7677,144 @@
         <v>2018</v>
       </c>
       <c r="AB32" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC32" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD32" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE32" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG32" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH32" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI32" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ32" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK32" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL32" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AN32" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO32" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP32" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ32" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR32" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS32" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AT32" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU32" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AV32" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AW32" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AX32" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AY32" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ32" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BA32" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BB32" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BC32" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BD32" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE32" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BF32" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG32" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BH32" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BI32" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BJ32" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BK32" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BL32" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BM32" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BN32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BO32" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BP32" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BQ32" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BR32" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BS32" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT32" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:72" s="11" customFormat="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -7534,7 +8029,7 @@
     </row>
     <row r="34" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -7688,7 +8183,7 @@
     </row>
     <row r="35" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -7876,76 +8371,76 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8275,242 +8770,242 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="24"/>
       <c r="C4" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="C5" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="C6" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="C7" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="C8" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C33" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C34" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C35" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C36" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C37" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C38" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C39" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C40" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C41" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C42" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -8518,286 +9013,286 @@
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C47" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C48" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C49" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C50" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C51" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C52" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C53" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C54" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C55" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C59" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K59" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C60" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D60" s="10">
         <v>2.4700000000000002</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F60" s="10">
         <v>2.2799999999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H60" s="10">
         <v>2.75</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J60" s="10">
         <v>2.27</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L60" s="10">
         <v>2.27</v>
@@ -8805,25 +9300,25 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C61" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D61" s="10">
         <v>2.4700000000000002</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F61" s="10">
         <v>3.31</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H61" s="10">
         <v>2.79</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L61" s="10">
         <v>3.97</v>
@@ -8831,25 +9326,25 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D62" s="10">
         <v>2.4700000000000002</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F62" s="10">
         <v>3.15</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H62" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L62" s="10">
         <v>3.97</v>
@@ -8857,25 +9352,25 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C63" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D63" s="10">
         <v>2.4700000000000002</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F63" s="10">
         <v>3.15</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H63" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L63" s="10">
         <v>3.97</v>
@@ -8883,85 +9378,85 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D66" s="15"/>
       <c r="G66" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J66" s="42"/>
       <c r="K66" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L66" s="42"/>
       <c r="M66" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N66" s="42"/>
       <c r="O66" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P66" s="42"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="H67" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="I67" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="J67" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K67" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="K67" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="L67" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="M67" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="M67" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="N67" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="O67" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="O67" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="P67" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
@@ -12516,30 +13011,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -12614,18 +13109,18 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.2">
@@ -12642,7 +13137,7 @@
         <v>2005</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="39">
         <v>2007</v>
@@ -12681,96 +13176,96 @@
         <v>2018</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U8" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V8" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W8" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB8" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC8" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD8" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE8" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF8" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG8" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH8" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI8" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ8" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK8" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL8" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO8" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP8" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR8" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS8" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="AM8" s="39" t="s">
+      <c r="AT8" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="AN8" s="39" t="s">
+      <c r="AU8" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AO8" s="39" t="s">
+      <c r="AV8" s="39" t="s">
         <v>107</v>
-      </c>
-      <c r="AP8" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR8" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS8" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT8" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV8" s="39" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="38">
         <v>580</v>
@@ -12848,7 +13343,7 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="38">
         <v>177</v>
@@ -12926,7 +13421,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="38">
         <f>C10+C9</f>

--- a/VTRS.xlsx
+++ b/VTRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30C2EC-87DA-4FC6-86BB-474ACD1E88BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A32CC9-AF45-4BD6-873D-E0AEDFFB3B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22245" yWindow="15" windowWidth="28920" windowHeight="20850" activeTab="1" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
+    <workbookView xWindow="-22185" yWindow="495" windowWidth="21645" windowHeight="19650" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2395,7 +2395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="333">
   <si>
     <t>Price</t>
   </si>
@@ -3370,12 +3370,36 @@
   </si>
   <si>
     <t>SE (Book Value)</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3480,7 +3504,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3563,14 +3587,9 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3581,7 +3600,9 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{430EDDB5-2D5A-4E43-BFE8-008BF837DB00}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7E152EB0-63A4-4DDF-A48A-D6473F2ECE32}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3597,16 +3618,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25684</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25684</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3621,8 +3642,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7903029" y="54429"/>
-          <a:ext cx="0" cy="13024757"/>
+          <a:off x="12515340" y="0"/>
+          <a:ext cx="0" cy="13624322"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3647,16 +3668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13939</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>30268</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>55756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13939</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>37170</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>30268</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3671,8 +3692,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18209012" y="55756"/>
-          <a:ext cx="0" cy="10877085"/>
+          <a:off x="18661168" y="55756"/>
+          <a:ext cx="0" cy="13736444"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3859,9 +3880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3899,7 +3920,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4005,7 +4026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4147,7 +4168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4158,9 +4179,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -4170,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -4178,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1196.8139590000001</v>
+        <v>1193.5204630000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -4190,7 +4216,7 @@
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>11968.139590000001</v>
+        <v>14322.245556000002</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -4199,10 +4225,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>646.70000000000005</v>
+        <v>917</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -4210,10 +4236,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>19989</v>
+        <v>17099</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -4222,7 +4248,7 @@
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>31310.439590000002</v>
+        <v>30504.245556000002</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -4258,13 +4284,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2229FB-F424-40E9-A974-86FFAA24DCFE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AL96"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA52" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD70" sqref="AD70"/>
+      <selection pane="bottomRight" activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4274,12 +4300,12 @@
     <col min="3" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4316,71 +4342,95 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W2">
+      <c r="O2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y2">
         <v>2015</v>
       </c>
-      <c r="X2">
-        <f>W2+1</f>
+      <c r="Z2">
+        <f>Y2+1</f>
         <v>2016</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AL2" si="0">X2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AN2" si="0">Z2+1</f>
         <v>2017</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
@@ -4413,7 +4463,7 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
@@ -4446,7 +4496,7 @@
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +4529,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
@@ -4511,14 +4561,14 @@
         <v>2431.5</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>10428.700000000001</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>9768.9</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
@@ -4550,14 +4600,14 @@
         <v>678.9</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="AC8" s="2">
+      <c r="AE8" s="2">
         <v>2212.8000000000002</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AF8" s="2">
         <v>2201.1999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
@@ -4589,14 +4639,14 @@
         <v>383</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="AC9" s="2">
+      <c r="AE9" s="2">
         <v>2027.4</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AF9" s="2">
         <v>1632.4</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
@@ -4628,14 +4678,14 @@
         <v>574</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="AC10" s="2">
+      <c r="AE10" s="2">
         <v>3144.7</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AF10" s="2">
         <v>2615.6</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4649,7 +4699,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
@@ -4679,8 +4729,14 @@
         <v>420.4</v>
       </c>
       <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="2">
+        <v>380</v>
+      </c>
+      <c r="T12" s="2">
+        <v>348.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
@@ -4710,8 +4766,14 @@
         <v>189.3</v>
       </c>
       <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="2">
+        <v>182.4</v>
+      </c>
+      <c r="T13" s="2">
+        <v>161.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
@@ -4741,8 +4803,14 @@
         <v>156.5</v>
       </c>
       <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="2">
+        <v>137.1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>124.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>78</v>
       </c>
@@ -4772,8 +4840,14 @@
         <v>117</v>
       </c>
       <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <v>111</v>
+      </c>
+      <c r="T15" s="2">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
@@ -4803,8 +4877,14 @@
         <v>114.4</v>
       </c>
       <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="2">
+        <v>127.5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
@@ -4834,8 +4914,14 @@
         <v>82.2</v>
       </c>
       <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="2">
+        <v>82</v>
+      </c>
+      <c r="T17" s="2">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
@@ -4865,8 +4951,14 @@
         <v>76.400000000000006</v>
       </c>
       <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="T18" s="2">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
@@ -4896,8 +4988,14 @@
         <v>64.2</v>
       </c>
       <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="T19" s="2">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
@@ -4927,8 +5025,14 @@
         <v>53.1</v>
       </c>
       <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="T20" s="2">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -4958,8 +5062,14 @@
         <v>51</v>
       </c>
       <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T21" s="2">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>317</v>
       </c>
@@ -4982,7 +5092,7 @@
       </c>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
@@ -5012,8 +5122,14 @@
         <v>38.6</v>
       </c>
       <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="2">
+        <v>57.7</v>
+      </c>
+      <c r="T23" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
@@ -5043,8 +5159,14 @@
         <v>53.4</v>
       </c>
       <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="2">
+        <v>55</v>
+      </c>
+      <c r="T24" s="2">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
@@ -5074,8 +5196,14 @@
         <v>39.4</v>
       </c>
       <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="T25" s="2">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
@@ -5105,8 +5233,14 @@
         <v>38.299999999999997</v>
       </c>
       <c r="N26" s="7"/>
-    </row>
-    <row r="28" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="2">
+        <v>51.8</v>
+      </c>
+      <c r="T26" s="2">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
@@ -5138,19 +5272,25 @@
         <v>4067.4</v>
       </c>
       <c r="N28" s="7"/>
-      <c r="AB28" s="2">
+      <c r="P28" s="2">
+        <v>3909.5</v>
+      </c>
+      <c r="T28" s="2">
+        <v>3785.9</v>
+      </c>
+      <c r="AD28" s="2">
         <v>11819.9</v>
       </c>
-      <c r="AC28" s="2">
-        <f>SUM(AC7:AC10)</f>
+      <c r="AE28" s="2">
+        <f>SUM(AE7:AE10)</f>
         <v>17813.599999999999</v>
       </c>
-      <c r="AD28" s="2">
-        <f>SUM(AD7:AD10)</f>
+      <c r="AF28" s="2">
+        <f>SUM(AF7:AF10)</f>
         <v>16218.099999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
@@ -5182,17 +5322,23 @@
         <v>10.8</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="AB29" s="2">
+      <c r="P29" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="T29" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="AD29" s="2">
         <v>126.1</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AE29" s="2">
         <v>72.7</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AF29" s="2">
         <v>44.6</v>
       </c>
     </row>
-    <row r="30" spans="2:30" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -5200,7 +5346,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9">
-        <f t="shared" ref="F30:M30" si="1">+F28+F29</f>
+        <f t="shared" ref="F30:V30" si="1">+F28+F29</f>
         <v>3623.5</v>
       </c>
       <c r="G30" s="9">
@@ -5231,21 +5377,56 @@
         <f t="shared" si="1"/>
         <v>4078.2000000000003</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="AB30" s="8">
-        <f>AB28+AB29</f>
-        <v>11946</v>
-      </c>
-      <c r="AC30" s="8">
-        <f>AC28+AC29</f>
-        <v>17886.3</v>
+      <c r="N30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="1"/>
+        <v>3918.6</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="1"/>
+        <v>3796.6</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD30" s="8">
         <f>AD28+AD29</f>
+        <v>11946</v>
+      </c>
+      <c r="AE30" s="8">
+        <f>AE28+AE29</f>
+        <v>17886.3</v>
+      </c>
+      <c r="AF30" s="8">
+        <f>AF28+AF29</f>
         <v>16262.699999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -5277,17 +5458,23 @@
         <v>2329.8000000000002</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="AB31" s="2">
+      <c r="P31" s="2">
+        <v>2310</v>
+      </c>
+      <c r="T31" s="2">
+        <v>2351.1999999999998</v>
+      </c>
+      <c r="AD31" s="2">
         <v>8149.3</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AE31" s="2">
         <v>12310.8</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AF31" s="2">
         <v>9765.7000000000007</v>
       </c>
     </row>
-    <row r="32" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -5327,20 +5514,28 @@
         <v>1748.4</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="AB32" s="2">
-        <f>AB30-AB31</f>
-        <v>3796.7</v>
-      </c>
-      <c r="AC32" s="2">
-        <f>AC30-AC31</f>
-        <v>5575.5</v>
+      <c r="P32" s="2">
+        <f>+P30-P31</f>
+        <v>1608.6</v>
+      </c>
+      <c r="T32" s="2">
+        <f>+T30-T31</f>
+        <v>1445.4</v>
       </c>
       <c r="AD32" s="2">
         <f>AD30-AD31</f>
+        <v>3796.7</v>
+      </c>
+      <c r="AE32" s="2">
+        <f>AE30-AE31</f>
+        <v>5575.5</v>
+      </c>
+      <c r="AF32" s="2">
+        <f>AF30-AF31</f>
         <v>6496.9999999999982</v>
       </c>
     </row>
-    <row r="33" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -5372,17 +5567,23 @@
         <v>174.9</v>
       </c>
       <c r="N33" s="7"/>
-      <c r="AB33" s="2">
+      <c r="P33" s="2">
+        <v>208.3</v>
+      </c>
+      <c r="T33" s="2">
+        <v>204.1</v>
+      </c>
+      <c r="AD33" s="2">
         <v>512.6</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AE33" s="2">
         <v>681</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AF33" s="2">
         <v>662.2</v>
       </c>
     </row>
-    <row r="34" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5414,17 +5615,23 @@
         <v>1017.3</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="AB34" s="2">
+      <c r="P34" s="2">
+        <v>1031.9000000000001</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1358</v>
+      </c>
+      <c r="AD34" s="2">
         <v>3344.6</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AE34" s="2">
         <v>4529.2</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AF34" s="2">
         <v>4179.1000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -5464,20 +5671,28 @@
         <v>1192.2</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="AB35" s="2">
-        <f>AB33+AB34</f>
+      <c r="P35" s="2">
+        <f>+P33+P34</f>
+        <v>1240.2</v>
+      </c>
+      <c r="T35" s="2">
+        <f>+T33+T34</f>
+        <v>1562.1</v>
+      </c>
+      <c r="AD35" s="2">
+        <f>AD33+AD34</f>
         <v>3857.2</v>
       </c>
-      <c r="AC35" s="2">
-        <f t="shared" ref="AC35:AD35" si="4">AC33+AC34</f>
+      <c r="AE35" s="2">
+        <f t="shared" ref="AE35:AF35" si="4">AE33+AE34</f>
         <v>5210.2</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AF35" s="2">
         <f t="shared" si="4"/>
         <v>4841.3</v>
       </c>
     </row>
-    <row r="36" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -5517,20 +5732,28 @@
         <v>556.20000000000005</v>
       </c>
       <c r="N36" s="7"/>
-      <c r="AB36" s="2">
-        <f>AB32-AB35</f>
+      <c r="P36" s="2">
+        <f>+P32-P35</f>
+        <v>368.39999999999986</v>
+      </c>
+      <c r="T36" s="2">
+        <f>+T32-T35</f>
+        <v>-116.69999999999982</v>
+      </c>
+      <c r="AD36" s="2">
+        <f>AD32-AD35</f>
         <v>-60.5</v>
       </c>
-      <c r="AC36" s="2">
-        <f t="shared" ref="AC36:AD36" si="6">AC32-AC35</f>
+      <c r="AE36" s="2">
+        <f t="shared" ref="AE36:AF36" si="6">AE32-AE35</f>
         <v>365.30000000000018</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AF36" s="2">
         <f t="shared" si="6"/>
         <v>1655.699999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
@@ -5570,17 +5793,23 @@
         <v>-132.6</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="AB37" s="2">
+      <c r="P37" s="2">
+        <v>-143.69999999999999</v>
+      </c>
+      <c r="T37" s="2">
+        <v>-145.80000000000001</v>
+      </c>
+      <c r="AD37" s="2">
         <v>-497.8</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AE37" s="2">
         <v>-636.20000000000005</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AF37" s="2">
         <v>-592.4</v>
       </c>
     </row>
-    <row r="38" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
@@ -5588,7 +5817,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:M38" si="7">+F36+F37</f>
+        <f t="shared" ref="F38:P38" si="7">+F36+F37</f>
         <v>-942.19999999999993</v>
       </c>
       <c r="G38" s="7">
@@ -5620,20 +5849,29 @@
         <v>423.6</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="AB38" s="2">
-        <f>AB36+AB37</f>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7">
+        <f t="shared" si="7"/>
+        <v>224.69999999999987</v>
+      </c>
+      <c r="T38" s="2">
+        <f>+T36+T37</f>
+        <v>-262.49999999999983</v>
+      </c>
+      <c r="AD38" s="2">
+        <f>AD36+AD37</f>
         <v>-558.29999999999995</v>
       </c>
-      <c r="AC38" s="2">
-        <f t="shared" ref="AC38:AD38" si="8">AC36+AC37</f>
+      <c r="AE38" s="2">
+        <f t="shared" ref="AE38:AF38" si="8">AE36+AE37</f>
         <v>-270.89999999999986</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <f t="shared" si="8"/>
         <v>1063.2999999999979</v>
       </c>
     </row>
-    <row r="39" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
@@ -5665,70 +5903,85 @@
         <v>73.2</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="AB39" s="2">
+      <c r="P39" s="2">
+        <v>69</v>
+      </c>
+      <c r="T39" s="2">
+        <v>-65.400000000000006</v>
+      </c>
+      <c r="AD39" s="2">
         <v>0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AE39" s="2">
         <v>0</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AF39" s="2">
         <v>734.6</v>
       </c>
     </row>
-    <row r="40" spans="2:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
+    <row r="40" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46">
-        <f t="shared" ref="F40:M40" si="9">+F38-F39</f>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
+        <f t="shared" ref="F40:P40" si="9">+F38-F39</f>
         <v>-942.19999999999993</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="7">
         <f t="shared" si="9"/>
         <v>-1014.6999999999997</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="7">
         <f t="shared" si="9"/>
         <v>-256.1999999999997</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="7">
         <f t="shared" si="9"/>
         <v>209.30000000000044</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="7">
         <f t="shared" si="9"/>
         <v>10.100000000000428</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="7">
         <f t="shared" si="9"/>
         <v>405.39999999999992</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="7">
         <f t="shared" si="9"/>
         <v>324.79999999999927</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="7">
         <f t="shared" si="9"/>
         <v>350.40000000000003</v>
       </c>
-      <c r="N40" s="46"/>
-      <c r="AB40" s="45">
-        <f>AB38-AB39</f>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7">
+        <f t="shared" si="9"/>
+        <v>155.69999999999987</v>
+      </c>
+      <c r="T40" s="2">
+        <f>+T38+T39</f>
+        <v>-327.89999999999986</v>
+      </c>
+      <c r="AD40" s="2">
+        <f>AD38-AD39</f>
         <v>-558.29999999999995</v>
       </c>
-      <c r="AC40" s="45">
-        <f>AC38-AC39</f>
+      <c r="AE40" s="2">
+        <f>AE38-AE39</f>
         <v>-270.89999999999986</v>
       </c>
-      <c r="AD40" s="45">
-        <f>AD38-AD39</f>
+      <c r="AF40" s="2">
+        <f>AF38-AF39</f>
         <v>328.69999999999789</v>
       </c>
     </row>
-    <row r="41" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
@@ -5768,20 +6021,28 @@
         <v>0.28766111156719487</v>
       </c>
       <c r="N41" s="5"/>
-      <c r="AB41" s="1">
-        <f>AB40/AB42</f>
+      <c r="P41" s="1">
+        <f>+P40/P42</f>
+        <v>0.12937266306605724</v>
+      </c>
+      <c r="T41" s="1">
+        <f>+T40/T42</f>
+        <v>-0.27529174712450666</v>
+      </c>
+      <c r="AD41" s="1">
+        <f>AD40/AD42</f>
         <v>-0.92864271457085812</v>
       </c>
-      <c r="AC41" s="1">
-        <f t="shared" ref="AC41:AD41" si="11">AC40/AC42</f>
+      <c r="AE41" s="1">
+        <f t="shared" ref="AE41:AF41" si="11">AE40/AE42</f>
         <v>-0.22410655195234933</v>
       </c>
-      <c r="AD41" s="1">
+      <c r="AF41" s="1">
         <f t="shared" si="11"/>
         <v>0.27000164284540651</v>
       </c>
     </row>
-    <row r="42" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
@@ -5813,17 +6074,23 @@
         <v>1218.0999999999999</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="AB42" s="2">
+      <c r="P42" s="2">
+        <v>1203.5</v>
+      </c>
+      <c r="T42" s="2">
+        <v>1191.0999999999999</v>
+      </c>
+      <c r="AD42" s="2">
         <v>601.20000000000005</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AE42" s="2">
         <v>1208.8</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AF42" s="2">
         <v>1217.4000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
@@ -5844,16 +6111,16 @@
         <f>M30/I30-1</f>
         <v>-0.1010448353392408</v>
       </c>
-      <c r="AC45" s="43">
-        <f>AC30/AB30-1</f>
+      <c r="AE45" s="42">
+        <f>AE30/AD30-1</f>
         <v>0.49726268206931179</v>
       </c>
-      <c r="AD45" s="43">
-        <f t="shared" ref="AD45" si="12">AD30/AC30-1</f>
+      <c r="AF45" s="42">
+        <f t="shared" ref="AF45" si="12">AF30/AE30-1</f>
         <v>-9.0773385216618374E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -5889,29 +6156,33 @@
         <f t="shared" si="13"/>
         <v>0.4287185523024864</v>
       </c>
-      <c r="AB46" s="44">
-        <f>AB32/AB30</f>
+      <c r="AD46" s="42">
+        <f>AD32/AD30</f>
         <v>0.31782186505943411</v>
       </c>
-      <c r="AC46" s="44">
-        <f>AC32/AC30</f>
+      <c r="AE46" s="42">
+        <f>AE32/AE30</f>
         <v>0.31171902517569317</v>
       </c>
-      <c r="AD46" s="44">
-        <f>AD32/AD30</f>
+      <c r="AF46" s="42">
+        <f>AF32/AF30</f>
         <v>0.39950315753226701</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>320</v>
       </c>
-      <c r="AD48" s="45">
-        <f>AD49-AD61</f>
+      <c r="T48" s="2">
+        <f>+T49-T61</f>
+        <v>-16181.400000000001</v>
+      </c>
+      <c r="AF48" s="2">
+        <f>AF49-AF61</f>
         <v>-18014.399999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -5933,12 +6204,15 @@
         <v>646.70000000000005</v>
       </c>
       <c r="N49" s="7"/>
-      <c r="AD49" s="45">
+      <c r="T49" s="2">
+        <v>917.2</v>
+      </c>
+      <c r="AF49" s="2">
         <v>1259.9000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="45" t="s">
+    <row r="50" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="7"/>
@@ -5959,12 +6233,15 @@
         <v>3333.9</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="AD50" s="45">
+      <c r="T50" s="2">
+        <v>3566.9</v>
+      </c>
+      <c r="AF50" s="2">
         <v>3814.5</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="45" t="s">
+    <row r="51" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="7"/>
@@ -5985,13 +6262,15 @@
         <v>3380.4</v>
       </c>
       <c r="N51" s="7"/>
-      <c r="AD51" s="45">
+      <c r="T51" s="2">
+        <v>3942.1</v>
+      </c>
+      <c r="AF51" s="2">
         <v>3519.5</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45" t="s">
+    <row r="52" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C52" s="7"/>
@@ -6012,11 +6291,14 @@
         <v>1700.4</v>
       </c>
       <c r="N52" s="7"/>
-      <c r="AD52" s="45">
+      <c r="T52" s="2">
+        <v>1757</v>
+      </c>
+      <c r="AF52" s="2">
         <v>1811.2</v>
       </c>
     </row>
-    <row r="53" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
@@ -6038,11 +6320,14 @@
         <v>1426.4</v>
       </c>
       <c r="N53" s="7"/>
-      <c r="AD53" s="2">
+      <c r="T53" s="2">
+        <v>1608.9</v>
+      </c>
+      <c r="AF53" s="2">
         <v>230.3</v>
       </c>
     </row>
-    <row r="54" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
@@ -6064,11 +6349,14 @@
         <v>3039</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="AD54" s="45">
+      <c r="T54" s="2">
+        <v>2662.6</v>
+      </c>
+      <c r="AF54" s="2">
         <v>3024.5</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>41</v>
       </c>
@@ -6093,13 +6381,16 @@
         <v>33067.9</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="8">
+      <c r="T55" s="2">
+        <f>18419+9325.9</f>
+        <v>27744.9</v>
+      </c>
+      <c r="AF55" s="8">
         <f>10425.8+22607.1</f>
         <v>33032.899999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
@@ -6121,11 +6412,14 @@
         <v>1104</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="AD56" s="2">
+      <c r="T56" s="2">
+        <v>685.3</v>
+      </c>
+      <c r="AF56" s="2">
         <v>925.9</v>
       </c>
     </row>
-    <row r="57" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>42</v>
       </c>
@@ -6147,11 +6441,14 @@
         <v>963.9</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="AD57" s="2">
+      <c r="T57" s="2">
+        <v>2445.1</v>
+      </c>
+      <c r="AF57" s="2">
         <v>2403.5</v>
       </c>
     </row>
-    <row r="58" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>35</v>
       </c>
@@ -6176,12 +6473,16 @@
         <v>48662.6</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="AD58" s="8">
-        <f>SUM(AD49:AD57)</f>
+      <c r="T58" s="2">
+        <f>SUM(T49:T57)</f>
+        <v>45330.000000000007</v>
+      </c>
+      <c r="AF58" s="8">
+        <f>SUM(AF49:AF57)</f>
         <v>50022.2</v>
       </c>
     </row>
-    <row r="60" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>44</v>
       </c>
@@ -6203,11 +6504,14 @@
         <v>1310.5</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="AD60" s="45">
+      <c r="T60" s="2">
+        <v>1957.5</v>
+      </c>
+      <c r="AF60" s="2">
         <v>1766.6</v>
       </c>
     </row>
-    <row r="61" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -6232,12 +6536,16 @@
         <v>19988.7</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="AD61" s="45">
+      <c r="T61" s="2">
+        <f>2367.4+14731.2</f>
+        <v>17098.600000000002</v>
+      </c>
+      <c r="AF61" s="2">
         <f>18015.2+1259.1</f>
         <v>19274.3</v>
       </c>
     </row>
-    <row r="62" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
@@ -6262,12 +6570,16 @@
         <v>2596</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="AD62" s="45">
+      <c r="T62" s="2">
+        <f>117.7+1573.8</f>
+        <v>1691.5</v>
+      </c>
+      <c r="AF62" s="2">
         <f>279.6+2432</f>
         <v>2711.6</v>
       </c>
     </row>
-    <row r="63" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>39</v>
       </c>
@@ -6289,11 +6601,14 @@
         <v>335.3</v>
       </c>
       <c r="N63" s="7"/>
-      <c r="AD63" s="2">
+      <c r="T63" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AF63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
@@ -6315,11 +6630,14 @@
         <v>3504.7</v>
       </c>
       <c r="N64" s="7"/>
-      <c r="AD64" s="2">
+      <c r="T64" s="2">
+        <v>3233.8</v>
+      </c>
+      <c r="AF64" s="2">
         <v>3440.9</v>
       </c>
     </row>
-    <row r="65" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>46</v>
       </c>
@@ -6341,11 +6659,14 @@
         <v>1745.1</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="AD65" s="2">
+      <c r="T65" s="2">
+        <v>1795.8</v>
+      </c>
+      <c r="AF65" s="2">
         <v>1756.5</v>
       </c>
     </row>
-    <row r="66" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>321</v>
       </c>
@@ -6361,12 +6682,12 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="AD66" s="8">
-        <f>SUM(AD60:AD65)</f>
+      <c r="AF66" s="8">
+        <f>SUM(AF60:AF65)</f>
         <v>28949.899999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>324</v>
       </c>
@@ -6388,12 +6709,15 @@
         <v>19182.3</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="AD67" s="8">
-        <f>AD58-AD66</f>
+      <c r="T67" s="2">
+        <v>19520</v>
+      </c>
+      <c r="AF67" s="8">
+        <f>AF58-AF66</f>
         <v>21072.3</v>
       </c>
     </row>
-    <row r="68" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>43</v>
       </c>
@@ -6418,12 +6742,16 @@
         <v>48662.6</v>
       </c>
       <c r="N68" s="7"/>
-      <c r="AD68" s="8">
-        <f>AD66+AD67</f>
+      <c r="T68" s="2">
+        <f>SUM(T60:T67)</f>
+        <v>45330</v>
+      </c>
+      <c r="AF68" s="8">
+        <f>AF66+AF67</f>
         <v>50022.2</v>
       </c>
     </row>
-    <row r="69" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6437,8 +6765,8 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="45" t="s">
+    <row r="70" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C70" s="7"/>
@@ -6453,12 +6781,12 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="AD70" s="45">
-        <f>AD58-AD66</f>
+      <c r="AF70" s="2">
+        <f>AF58-AF66</f>
         <v>21072.3</v>
       </c>
     </row>
-    <row r="71" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>323</v>
       </c>
@@ -6474,12 +6802,12 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="AD71" s="8">
-        <f>AD70-AD55</f>
+      <c r="AF71" s="8">
+        <f>AF70-AF55</f>
         <v>-11960.599999999995</v>
       </c>
     </row>
-    <row r="73" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>47</v>
       </c>
@@ -6502,7 +6830,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>48</v>
       </c>
@@ -6524,7 +6852,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>49</v>
       </c>
@@ -6546,7 +6874,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>50</v>
       </c>
@@ -6568,7 +6896,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>51</v>
       </c>
@@ -6590,7 +6918,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>52</v>
       </c>
@@ -6612,7 +6940,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
@@ -6634,7 +6962,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
@@ -9398,22 +9726,22 @@
         <v>200</v>
       </c>
       <c r="H66" s="15"/>
-      <c r="I66" s="42" t="s">
+      <c r="I66" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42" t="s">
+      <c r="J66" s="43"/>
+      <c r="K66" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42" t="s">
+      <c r="L66" s="43"/>
+      <c r="M66" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42" t="s">
+      <c r="N66" s="43"/>
+      <c r="O66" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="P66" s="42"/>
+      <c r="P66" s="43"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="15" t="s">

--- a/VTRS.xlsx
+++ b/VTRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A32CC9-AF45-4BD6-873D-E0AEDFFB3B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE4CEC-2C67-4AFE-9C72-5171EDBE4039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22185" yWindow="495" windowWidth="21645" windowHeight="19650" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
+    <workbookView xWindow="58740" yWindow="2640" windowWidth="19870" windowHeight="18080" xr2:uid="{813BBC27-F478-46C7-9133-423B20FE42FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2395,7 +2395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="337">
   <si>
     <t>Price</t>
   </si>
@@ -3394,6 +3394,18 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -3618,14 +3630,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>25684</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22055</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>25684</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22055</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>122634</xdr:rowOff>
     </xdr:to>
@@ -3642,8 +3654,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12515340" y="0"/>
-          <a:ext cx="0" cy="13624322"/>
+          <a:off x="14852026" y="0"/>
+          <a:ext cx="0" cy="13584634"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3668,16 +3680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>30268</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>35789</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>55756</xdr:rowOff>
+      <xdr:rowOff>94408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>30268</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>35789</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>114852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3692,8 +3704,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18661168" y="55756"/>
-          <a:ext cx="0" cy="13736444"/>
+          <a:off x="23933876" y="94408"/>
+          <a:ext cx="0" cy="13510053"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4179,16 +4191,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>316</v>
       </c>
@@ -4196,82 +4208,82 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1193.5204630000001</v>
+        <v>1173.6819640000001</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="2">
         <f>M2*M3</f>
-        <v>14322.245556000002</v>
+        <v>9765.0339404800015</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="2">
-        <v>917</v>
+        <v>755</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>17099</v>
+        <v>14186</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2">
         <f>M4-M5+M6</f>
-        <v>30504.245556000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+        <v>23196.033940480003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>319</v>
       </c>
@@ -4284,28 +4296,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2229FB-F424-40E9-A974-86FFAA24DCFE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AR96"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T48" sqref="T48"/>
+      <selection pane="bottomRight" activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4366,71 +4378,83 @@
       <c r="V2" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="Y2">
+      <c r="W2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC2">
         <v>2015</v>
       </c>
-      <c r="Z2">
-        <f>Y2+1</f>
+      <c r="AD2">
+        <f>AC2+1</f>
         <v>2016</v>
       </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2:AN2" si="0">Z2+1</f>
+      <c r="AE2">
+        <f t="shared" ref="AE2:AR2" si="0">AD2+1</f>
         <v>2017</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
@@ -4462,8 +4486,14 @@
         <v>2540.3000000000002</v>
       </c>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="2">
+        <v>2309.1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>2116.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
@@ -4495,8 +4525,14 @@
         <v>320.2</v>
       </c>
       <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="2">
+        <v>1344.4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1126.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
@@ -4529,7 +4565,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="7" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
@@ -4561,14 +4597,24 @@
         <v>2431.5</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="AE7" s="2">
+      <c r="S7" s="2">
+        <v>2165.4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1891.7</v>
+      </c>
+      <c r="AI7" s="2">
         <v>10428.700000000001</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AJ7" s="2">
         <v>9768.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL7" s="2">
+        <f>SUM(S7:V7)</f>
+        <v>2165.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
@@ -4600,14 +4646,24 @@
         <v>678.9</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="AE8" s="2">
+      <c r="S8" s="2">
+        <v>543.9</v>
+      </c>
+      <c r="W8" s="2">
+        <v>555.5</v>
+      </c>
+      <c r="AI8" s="2">
         <v>2212.8000000000002</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AJ8" s="2">
         <v>2201.1999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL8" s="2">
+        <f>SUM(S8:V8)</f>
+        <v>543.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
@@ -4639,14 +4695,24 @@
         <v>383</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="AE9" s="2">
+      <c r="S9" s="2">
+        <v>317.8</v>
+      </c>
+      <c r="W9" s="2">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="AI9" s="2">
         <v>2027.4</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AJ9" s="2">
         <v>1632.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL9" s="2">
+        <f>SUM(S9:V9)</f>
+        <v>317.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
@@ -4678,14 +4744,24 @@
         <v>574</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="AE10" s="2">
+      <c r="S10" s="2">
+        <v>626.4</v>
+      </c>
+      <c r="W10" s="2">
+        <v>519.9</v>
+      </c>
+      <c r="AI10" s="2">
         <v>3144.7</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AJ10" s="2">
         <v>2615.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL10" s="2">
+        <f>SUM(S10:V10)</f>
+        <v>626.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -4699,7 +4775,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
@@ -4732,11 +4808,45 @@
       <c r="P12" s="2">
         <v>380</v>
       </c>
+      <c r="Q12" s="2">
+        <v>381.6</v>
+      </c>
+      <c r="R12" s="2">
+        <v>379.8</v>
+      </c>
+      <c r="S12" s="2">
+        <v>388.9</v>
+      </c>
       <c r="T12" s="2">
         <v>348.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="2">
+        <v>375.6</v>
+      </c>
+      <c r="V12" s="2">
+        <v>355.9</v>
+      </c>
+      <c r="W12" s="2">
+        <v>388</v>
+      </c>
+      <c r="X12" s="2">
+        <f>+T12</f>
+        <v>348.4</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>+U12</f>
+        <v>375.6</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>+V12</f>
+        <v>355.9</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" ref="AL12:AL29" si="1">SUM(S12:V12)</f>
+        <v>1468.8000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
@@ -4769,11 +4879,45 @@
       <c r="P13" s="2">
         <v>182.4</v>
       </c>
+      <c r="Q13" s="2">
+        <v>175.5</v>
+      </c>
+      <c r="R13" s="2">
+        <v>171.8</v>
+      </c>
+      <c r="S13" s="2">
+        <v>176.3</v>
+      </c>
       <c r="T13" s="2">
         <v>161.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="2">
+        <v>168.9</v>
+      </c>
+      <c r="V13" s="2">
+        <v>166.2</v>
+      </c>
+      <c r="W13" s="2">
+        <v>172.3</v>
+      </c>
+      <c r="X13" s="2">
+        <f>+T13</f>
+        <v>161.9</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>+U13</f>
+        <v>168.9</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>+V13</f>
+        <v>166.2</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="1"/>
+        <v>673.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
@@ -4806,11 +4950,45 @@
       <c r="P14" s="2">
         <v>137.1</v>
       </c>
+      <c r="Q14" s="2">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="R14" s="2">
+        <v>133.4</v>
+      </c>
+      <c r="S14" s="2">
+        <v>114.2</v>
+      </c>
       <c r="T14" s="2">
         <v>124.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="V14" s="2">
+        <v>127</v>
+      </c>
+      <c r="W14" s="2">
+        <v>112.6</v>
+      </c>
+      <c r="X14" s="2">
+        <f>+T14*0.9</f>
+        <v>111.87</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>+U14*0.9</f>
+        <v>116.91000000000001</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>+V14*0.9</f>
+        <v>114.3</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="1"/>
+        <v>495.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>78</v>
       </c>
@@ -4843,11 +5021,45 @@
       <c r="P15" s="2">
         <v>111</v>
       </c>
+      <c r="Q15" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="R15" s="2">
+        <v>92.3</v>
+      </c>
+      <c r="S15" s="2">
+        <v>100.7</v>
+      </c>
       <c r="T15" s="2">
         <v>106.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="2">
+        <v>100.2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>88.6</v>
+      </c>
+      <c r="W15" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="X15" s="2">
+        <f>+T15*0.9</f>
+        <v>95.49</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>+U15*0.9</f>
+        <v>90.18</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>+V15*0.9</f>
+        <v>79.739999999999995</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="1"/>
+        <v>395.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
@@ -4880,11 +5092,45 @@
       <c r="P16" s="2">
         <v>127.5</v>
       </c>
+      <c r="Q16" s="2">
+        <v>131.9</v>
+      </c>
+      <c r="R16" s="2">
+        <v>87</v>
+      </c>
+      <c r="S16" s="2">
+        <v>80.2</v>
+      </c>
       <c r="T16" s="2">
         <v>115.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="2">
+        <v>123.2</v>
+      </c>
+      <c r="V16" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="W16" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="X16" s="2">
+        <f>+T16</f>
+        <v>115.5</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>+U16</f>
+        <v>123.2</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>+V16</f>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
@@ -4917,11 +5163,45 @@
       <c r="P17" s="2">
         <v>82</v>
       </c>
+      <c r="Q17" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="R17" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="S17" s="2">
+        <v>72.2</v>
+      </c>
       <c r="T17" s="2">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="18" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="V17" s="2">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="W17" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="X17" s="2">
+        <f>+T17*0.9</f>
+        <v>64.98</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>+U17*0.9</f>
+        <v>66.69</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>+V17*0.9</f>
+        <v>60.389999999999993</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="1"/>
+        <v>285.60000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
@@ -4954,11 +5234,45 @@
       <c r="P18" s="2">
         <v>74.099999999999994</v>
       </c>
+      <c r="Q18" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="R18" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="S18" s="2">
+        <v>75</v>
+      </c>
       <c r="T18" s="2">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="19" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="V18" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="W18" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="X18" s="2">
+        <f>+T18*1.05</f>
+        <v>82.11</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>+U18*1.05</f>
+        <v>88.83</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>+V18*1.05</f>
+        <v>94.920000000000016</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="1"/>
+        <v>328.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
@@ -4991,11 +5305,45 @@
       <c r="P19" s="2">
         <v>64.8</v>
       </c>
+      <c r="Q19" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="R19" s="2">
+        <v>68</v>
+      </c>
+      <c r="S19" s="2">
+        <v>59.4</v>
+      </c>
       <c r="T19" s="2">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="20" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U19" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="V19" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="W19" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="X19" s="2">
+        <f>+T19</f>
+        <v>62.7</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>+U19</f>
+        <v>66.3</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>+V19</f>
+        <v>64.5</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="1"/>
+        <v>252.89999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
@@ -5028,11 +5376,45 @@
       <c r="P20" s="2">
         <v>54.5</v>
       </c>
+      <c r="Q20" s="2">
+        <v>62.7</v>
+      </c>
+      <c r="R20" s="2">
+        <v>62</v>
+      </c>
+      <c r="S20" s="2">
+        <v>58</v>
+      </c>
       <c r="T20" s="2">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="21" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="V20" s="2">
+        <v>58.2</v>
+      </c>
+      <c r="W20" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="X20" s="2">
+        <f>+T20</f>
+        <v>58.9</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>+U20</f>
+        <v>60.6</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>+V20</f>
+        <v>58.2</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="1"/>
+        <v>235.7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -5065,11 +5447,45 @@
       <c r="P21" s="2">
         <v>50.4</v>
       </c>
+      <c r="Q21" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="R21" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="S21" s="2">
+        <v>42.5</v>
+      </c>
       <c r="T21" s="2">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="22" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="W21" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="X21" s="2">
+        <f>+T21</f>
+        <v>45.6</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>+U21</f>
+        <v>41.2</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>+V21</f>
+        <v>37.1</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="1"/>
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>317</v>
       </c>
@@ -5091,8 +5507,12 @@
         <v>159.30000000000001</v>
       </c>
       <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
@@ -5125,11 +5545,45 @@
       <c r="P23" s="2">
         <v>57.7</v>
       </c>
+      <c r="Q23" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>45</v>
+      </c>
+      <c r="S23" s="2">
+        <v>48.2</v>
+      </c>
       <c r="T23" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U23" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="V23" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="W23" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="X23" s="2">
+        <f>+T23*1.01</f>
+        <v>55.55</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>+U23*1.01</f>
+        <v>43.935000000000002</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>+V23*1.01</f>
+        <v>41.713000000000001</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
@@ -5162,11 +5616,45 @@
       <c r="P24" s="2">
         <v>55</v>
       </c>
+      <c r="Q24" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="R24" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="S24" s="2">
+        <v>55.2</v>
+      </c>
       <c r="T24" s="2">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U24" s="2">
+        <v>62.2</v>
+      </c>
+      <c r="V24" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="W24" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" ref="X24:X26" si="2">+T24*1.01</f>
+        <v>55.045000000000002</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" ref="Y24:Y26" si="3">+U24*1.01</f>
+        <v>62.822000000000003</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" ref="Z24:Z26" si="4">+V24*1.01</f>
+        <v>67.265999999999991</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="1"/>
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
@@ -5199,11 +5687,45 @@
       <c r="P25" s="2">
         <v>41.5</v>
       </c>
+      <c r="Q25" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="R25" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>30</v>
+      </c>
       <c r="T25" s="2">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="26" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U25" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="V25" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="W25" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="2"/>
+        <v>37.268999999999998</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="3"/>
+        <v>38.582000000000001</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="4"/>
+        <v>41.511000000000003</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="1"/>
+        <v>146.20000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
@@ -5236,11 +5758,45 @@
       <c r="P26" s="2">
         <v>51.8</v>
       </c>
+      <c r="Q26" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="R26" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>34.5</v>
+      </c>
       <c r="T26" s="2">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="28" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="V26" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="W26" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="2"/>
+        <v>35.753999999999998</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="3"/>
+        <v>38.986000000000004</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="4"/>
+        <v>36.865000000000002</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
@@ -5275,22 +5831,59 @@
       <c r="P28" s="2">
         <v>3909.5</v>
       </c>
+      <c r="Q28" s="2">
+        <v>3933.9</v>
+      </c>
+      <c r="R28" s="2">
+        <v>3825.9</v>
+      </c>
+      <c r="S28" s="2">
+        <v>3653.5</v>
+      </c>
       <c r="T28" s="2">
         <v>3785.9</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="U28" s="2">
+        <v>3738</v>
+      </c>
+      <c r="V28" s="2">
+        <v>3515.4</v>
+      </c>
+      <c r="W28" s="2">
+        <v>3243.2</v>
+      </c>
+      <c r="X28" s="2">
+        <f>+T28*0.9</f>
+        <v>3407.31</v>
+      </c>
+      <c r="Y28" s="2">
+        <f>+U28*0.9</f>
+        <v>3364.2000000000003</v>
+      </c>
+      <c r="Z28" s="2">
+        <f>+V28*0.9</f>
+        <v>3163.86</v>
+      </c>
+      <c r="AH28" s="2">
         <v>11819.9</v>
       </c>
-      <c r="AE28" s="2">
-        <f>SUM(AE7:AE10)</f>
+      <c r="AI28" s="2">
+        <f>SUM(AI7:AI10)</f>
         <v>17813.599999999999</v>
       </c>
-      <c r="AF28" s="2">
-        <f>SUM(AF7:AF10)</f>
+      <c r="AJ28" s="2">
+        <f>SUM(AJ7:AJ10)</f>
         <v>16218.099999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK28" s="2">
+        <v>15388.4</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="1"/>
+        <v>14692.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
@@ -5325,20 +5918,57 @@
       <c r="P29" s="2">
         <v>9.1</v>
       </c>
+      <c r="Q29" s="2">
+        <v>8</v>
+      </c>
+      <c r="R29" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="S29" s="2">
+        <v>9.9</v>
+      </c>
       <c r="T29" s="2">
         <v>10.7</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="U29" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="V29" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="W29" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="X29" s="2">
+        <f>+T29*0.9</f>
+        <v>9.629999999999999</v>
+      </c>
+      <c r="Y29" s="2">
+        <f>+U29*0.9</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="Z29" s="2">
+        <f>+V29*0.9</f>
+        <v>11.43</v>
+      </c>
+      <c r="AH29" s="2">
         <v>126.1</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AI29" s="2">
         <v>72.7</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AJ29" s="2">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="30" spans="2:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK29" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="AL29" s="2">
+        <f t="shared" si="1"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -5346,87 +5976,111 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9">
-        <f t="shared" ref="F30:V30" si="1">+F28+F29</f>
+        <f t="shared" ref="F30:Z30" si="5">+F28+F29</f>
         <v>3623.5</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4430.3</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4577.8</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4536.6000000000004</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4341.6000000000004</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4191.7</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4116.7999999999993</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4078.2000000000003</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3918.6</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3941.9</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3837.3</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3663.4</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3796.6</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3751.2</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="8">
-        <f>AD28+AD29</f>
+        <f t="shared" si="5"/>
+        <v>3528.1</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="5"/>
+        <v>3254.2999999999997</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" si="5"/>
+        <v>3416.94</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="5"/>
+        <v>3376.0800000000004</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" si="5"/>
+        <v>3175.29</v>
+      </c>
+      <c r="AH30" s="8">
+        <f>AH28+AH29</f>
         <v>11946</v>
       </c>
-      <c r="AE30" s="8">
-        <f>AE28+AE29</f>
+      <c r="AI30" s="8">
+        <f>AI28+AI29</f>
         <v>17886.3</v>
       </c>
-      <c r="AF30" s="8">
-        <f>AF28+AF29</f>
+      <c r="AJ30" s="8">
+        <f>AJ28+AJ29</f>
         <v>16262.699999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK30" s="8">
+        <f>AK28+AK29</f>
+        <v>15426.9</v>
+      </c>
+      <c r="AL30" s="8">
+        <f>AL28+AL29</f>
+        <v>14739.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
@@ -5461,20 +6115,56 @@
       <c r="P31" s="2">
         <v>2310</v>
       </c>
+      <c r="Q31" s="2">
+        <v>2250.6</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2240.8000000000002</v>
+      </c>
+      <c r="S31" s="2">
+        <v>2159.4</v>
+      </c>
       <c r="T31" s="2">
         <v>2351.1999999999998</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="U31" s="2">
+        <v>2292</v>
+      </c>
+      <c r="V31" s="2">
+        <v>2313.1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>2093.1</v>
+      </c>
+      <c r="X31" s="2">
+        <f>+X30-X32</f>
+        <v>2186.8415999999997</v>
+      </c>
+      <c r="Y31" s="2">
+        <f>+Y30-Y32</f>
+        <v>2160.6912000000002</v>
+      </c>
+      <c r="Z31" s="2">
+        <f>+Z30-Z32</f>
+        <v>2032.1856</v>
+      </c>
+      <c r="AH31" s="2">
         <v>8149.3</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AI31" s="2">
         <v>12310.8</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AJ31" s="2">
         <v>9765.7000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK31" s="2">
+        <v>8988.2999999999993</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>9115.7000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
@@ -5482,35 +6172,35 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7">
-        <f t="shared" ref="F32:M32" si="2">+F30-F31</f>
+        <f t="shared" ref="F32:M32" si="6">+F30-F31</f>
         <v>706.40000000000009</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1127.3000000000002</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1327.7000000000003</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1574.1000000000004</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1546.4000000000005</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1771.1999999999998</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1703.2999999999993</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1748.4</v>
       </c>
       <c r="N32" s="7"/>
@@ -5518,24 +6208,68 @@
         <f>+P30-P31</f>
         <v>1608.6</v>
       </c>
+      <c r="Q32" s="2">
+        <f>+Q30-Q31</f>
+        <v>1691.3000000000002</v>
+      </c>
+      <c r="R32" s="2">
+        <f>+R30-R31</f>
+        <v>1596.5</v>
+      </c>
+      <c r="S32" s="2">
+        <f>+S30-S31</f>
+        <v>1504</v>
+      </c>
       <c r="T32" s="2">
         <f>+T30-T31</f>
         <v>1445.4</v>
       </c>
-      <c r="AD32" s="2">
-        <f>AD30-AD31</f>
+      <c r="U32" s="2">
+        <f>+U30-U31</f>
+        <v>1459.1999999999998</v>
+      </c>
+      <c r="V32" s="2">
+        <f>+V30-V31</f>
+        <v>1215</v>
+      </c>
+      <c r="W32" s="2">
+        <f>+W30-W31</f>
+        <v>1161.1999999999998</v>
+      </c>
+      <c r="X32" s="2">
+        <f>+X30*0.36</f>
+        <v>1230.0984000000001</v>
+      </c>
+      <c r="Y32" s="2">
+        <f>+Y30*0.36</f>
+        <v>1215.3888000000002</v>
+      </c>
+      <c r="Z32" s="2">
+        <f>+Z30*0.36</f>
+        <v>1143.1043999999999</v>
+      </c>
+      <c r="AH32" s="2">
+        <f>AH30-AH31</f>
         <v>3796.7</v>
       </c>
-      <c r="AE32" s="2">
-        <f>AE30-AE31</f>
+      <c r="AI32" s="2">
+        <f>AI30-AI31</f>
         <v>5575.5</v>
       </c>
-      <c r="AF32" s="2">
-        <f>AF30-AF31</f>
+      <c r="AJ32" s="2">
+        <f>AJ30-AJ31</f>
         <v>6496.9999999999982</v>
       </c>
-    </row>
-    <row r="33" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK32" s="2">
+        <f>AK30-AK31</f>
+        <v>6438.6</v>
+      </c>
+      <c r="AL32" s="2">
+        <f>AL30-AL31</f>
+        <v>5623.5999999999985</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
@@ -5570,20 +6304,56 @@
       <c r="P33" s="2">
         <v>208.3</v>
       </c>
+      <c r="Q33" s="2">
+        <v>211.2</v>
+      </c>
+      <c r="R33" s="2">
+        <v>202.8</v>
+      </c>
+      <c r="S33" s="2">
+        <v>199.7</v>
+      </c>
       <c r="T33" s="2">
         <v>204.1</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="U33" s="2">
+        <v>198.4</v>
+      </c>
+      <c r="V33" s="2">
+        <v>206.5</v>
+      </c>
+      <c r="W33" s="2">
+        <v>222</v>
+      </c>
+      <c r="X33" s="2">
+        <f>+T33</f>
+        <v>204.1</v>
+      </c>
+      <c r="Y33" s="2">
+        <f>+U33</f>
+        <v>198.4</v>
+      </c>
+      <c r="Z33" s="2">
+        <f>+V33</f>
+        <v>206.5</v>
+      </c>
+      <c r="AH33" s="2">
         <v>512.6</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AI33" s="2">
         <v>681</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AJ33" s="2">
         <v>662.2</v>
       </c>
-    </row>
-    <row r="34" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK33" s="2">
+        <v>805.2</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>808.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5618,20 +6388,56 @@
       <c r="P34" s="2">
         <v>1031.9000000000001</v>
       </c>
+      <c r="Q34" s="2">
+        <v>1053.5</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1605.8</v>
+      </c>
+      <c r="S34" s="2">
+        <v>1017.5</v>
+      </c>
       <c r="T34" s="2">
         <v>1358</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="U34" s="2">
+        <v>1003.4</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1046.7</v>
+      </c>
+      <c r="W34" s="2">
+        <v>948.1</v>
+      </c>
+      <c r="X34" s="2">
+        <f>+T34</f>
+        <v>1358</v>
+      </c>
+      <c r="Y34" s="2">
+        <f>+U34</f>
+        <v>1003.4</v>
+      </c>
+      <c r="Z34" s="2">
+        <f>+V34</f>
+        <v>1046.7</v>
+      </c>
+      <c r="AH34" s="2">
         <v>3344.6</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AI34" s="2">
         <v>4529.2</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AJ34" s="2">
         <v>4179.1000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK34" s="2">
+        <v>4650.1000000000004</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>4425.6000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -5639,35 +6445,35 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
-        <f t="shared" ref="F35:M35" si="3">+F33+F34</f>
+        <f t="shared" ref="F35:M35" si="7">+F33+F34</f>
         <v>1516.2</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1370.6</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1352.5</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1207.0999999999999</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1350.1000000000001</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1057.5999999999999</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1143.7</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1192.2</v>
       </c>
       <c r="N35" s="7"/>
@@ -5675,24 +6481,68 @@
         <f>+P33+P34</f>
         <v>1240.2</v>
       </c>
+      <c r="Q35" s="2">
+        <f t="shared" ref="Q35" si="8">+Q33+Q34</f>
+        <v>1264.7</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" ref="R35:V35" si="9">+R33+R34</f>
+        <v>1808.6</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="9"/>
+        <v>1217.2</v>
+      </c>
       <c r="T35" s="2">
-        <f>+T33+T34</f>
+        <f t="shared" si="9"/>
         <v>1562.1</v>
       </c>
-      <c r="AD35" s="2">
-        <f>AD33+AD34</f>
+      <c r="U35" s="2">
+        <f t="shared" si="9"/>
+        <v>1201.8</v>
+      </c>
+      <c r="V35" s="2">
+        <f t="shared" si="9"/>
+        <v>1253.2</v>
+      </c>
+      <c r="W35" s="2">
+        <f>+W33+W34</f>
+        <v>1170.0999999999999</v>
+      </c>
+      <c r="X35" s="2">
+        <f>+X33+X34</f>
+        <v>1562.1</v>
+      </c>
+      <c r="Y35" s="2">
+        <f>+Y33+Y34</f>
+        <v>1201.8</v>
+      </c>
+      <c r="Z35" s="2">
+        <f>+Z33+Z34</f>
+        <v>1253.2</v>
+      </c>
+      <c r="AH35" s="2">
+        <f>AH33+AH34</f>
         <v>3857.2</v>
       </c>
-      <c r="AE35" s="2">
-        <f t="shared" ref="AE35:AF35" si="4">AE33+AE34</f>
+      <c r="AI35" s="2">
+        <f t="shared" ref="AI35:AL35" si="10">AI33+AI34</f>
         <v>5210.2</v>
       </c>
-      <c r="AF35" s="2">
-        <f t="shared" si="4"/>
+      <c r="AJ35" s="2">
+        <f t="shared" si="10"/>
         <v>4841.3</v>
       </c>
-    </row>
-    <row r="36" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK35" s="2">
+        <f t="shared" si="10"/>
+        <v>5455.3</v>
+      </c>
+      <c r="AL35" s="2">
+        <f t="shared" si="10"/>
+        <v>5234.3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
@@ -5700,35 +6550,35 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7">
-        <f t="shared" ref="F36:M36" si="5">+F32-F35</f>
+        <f t="shared" ref="F36:M36" si="11">+F32-F35</f>
         <v>-809.8</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-243.29999999999973</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-24.799999999999727</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>367.00000000000045</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>196.30000000000041</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>713.59999999999991</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>559.59999999999923</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>556.20000000000005</v>
       </c>
       <c r="N36" s="7"/>
@@ -5736,24 +6586,68 @@
         <f>+P32-P35</f>
         <v>368.39999999999986</v>
       </c>
+      <c r="Q36" s="2">
+        <f t="shared" ref="Q36" si="12">+Q32-Q35</f>
+        <v>426.60000000000014</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" ref="R36:Z36" si="13">+R32-R35</f>
+        <v>-212.09999999999991</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="13"/>
+        <v>286.79999999999995</v>
+      </c>
       <c r="T36" s="2">
-        <f>+T32-T35</f>
+        <f t="shared" si="13"/>
         <v>-116.69999999999982</v>
       </c>
-      <c r="AD36" s="2">
-        <f>AD32-AD35</f>
+      <c r="U36" s="2">
+        <f t="shared" si="13"/>
+        <v>257.39999999999986</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" si="13"/>
+        <v>-38.200000000000045</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="13"/>
+        <v>-8.9000000000000909</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" si="13"/>
+        <v>-332.00159999999983</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" si="13"/>
+        <v>13.588800000000219</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="13"/>
+        <v>-110.0956000000001</v>
+      </c>
+      <c r="AH36" s="2">
+        <f>AH32-AH35</f>
         <v>-60.5</v>
       </c>
-      <c r="AE36" s="2">
-        <f t="shared" ref="AE36:AF36" si="6">AE32-AE35</f>
+      <c r="AI36" s="2">
+        <f t="shared" ref="AI36:AL36" si="14">AI32-AI35</f>
         <v>365.30000000000018</v>
       </c>
-      <c r="AF36" s="2">
-        <f t="shared" si="6"/>
+      <c r="AJ36" s="2">
+        <f t="shared" si="14"/>
         <v>1655.699999999998</v>
       </c>
-    </row>
-    <row r="37" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK36" s="2">
+        <f t="shared" si="14"/>
+        <v>983.30000000000018</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="14"/>
+        <v>389.29999999999836</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
@@ -5796,20 +6690,56 @@
       <c r="P37" s="2">
         <v>-143.69999999999999</v>
       </c>
+      <c r="Q37" s="2">
+        <v>-141.5</v>
+      </c>
+      <c r="R37" s="2">
+        <v>-140.9</v>
+      </c>
+      <c r="S37" s="2">
+        <v>-138.4</v>
+      </c>
       <c r="T37" s="2">
         <v>-145.80000000000001</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="U37" s="2">
+        <v>-145.6</v>
+      </c>
+      <c r="V37" s="2">
+        <v>-120.2</v>
+      </c>
+      <c r="W37" s="2">
+        <v>-111.5</v>
+      </c>
+      <c r="X37" s="2">
+        <f>+W37</f>
+        <v>-111.5</v>
+      </c>
+      <c r="Y37" s="2">
+        <f>+X37</f>
+        <v>-111.5</v>
+      </c>
+      <c r="Z37" s="2">
+        <f>+Y37</f>
+        <v>-111.5</v>
+      </c>
+      <c r="AH37" s="2">
         <v>-497.8</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AI37" s="2">
         <v>-636.20000000000005</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AJ37" s="2">
         <v>-592.4</v>
       </c>
-    </row>
-    <row r="38" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK37" s="2">
+        <v>-573.1</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
@@ -5817,61 +6747,105 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7">
-        <f t="shared" ref="F38:P38" si="7">+F36+F37</f>
+        <f t="shared" ref="F38:P38" si="15">+F36+F37</f>
         <v>-942.19999999999993</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-418.39999999999975</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-196.09999999999971</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>209.30000000000044</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>70.000000000000426</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>533.69999999999993</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>400.19999999999925</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>423.6</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>224.69999999999987</v>
       </c>
+      <c r="Q38" s="2">
+        <f t="shared" ref="Q38:V38" si="16">+Q36+Q37</f>
+        <v>285.10000000000014</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="16"/>
+        <v>-352.99999999999989</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="16"/>
+        <v>148.39999999999995</v>
+      </c>
       <c r="T38" s="2">
-        <f>+T36+T37</f>
+        <f t="shared" si="16"/>
         <v>-262.49999999999983</v>
       </c>
-      <c r="AD38" s="2">
-        <f>AD36+AD37</f>
+      <c r="U38" s="2">
+        <f t="shared" si="16"/>
+        <v>111.79999999999987</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="16"/>
+        <v>-158.40000000000003</v>
+      </c>
+      <c r="W38" s="2">
+        <f>+W36+W37</f>
+        <v>-120.40000000000009</v>
+      </c>
+      <c r="X38" s="2">
+        <f>+X36+X37</f>
+        <v>-443.50159999999983</v>
+      </c>
+      <c r="Y38" s="2">
+        <f>+Y36+Y37</f>
+        <v>-97.911199999999781</v>
+      </c>
+      <c r="Z38" s="2">
+        <f>+Z36+Z37</f>
+        <v>-221.5956000000001</v>
+      </c>
+      <c r="AH38" s="2">
+        <f>AH36+AH37</f>
         <v>-558.29999999999995</v>
       </c>
-      <c r="AE38" s="2">
-        <f t="shared" ref="AE38:AF38" si="8">AE36+AE37</f>
+      <c r="AI38" s="2">
+        <f t="shared" ref="AI38:AL38" si="17">AI36+AI37</f>
         <v>-270.89999999999986</v>
       </c>
-      <c r="AF38" s="2">
-        <f t="shared" si="8"/>
+      <c r="AJ38" s="2">
+        <f t="shared" si="17"/>
         <v>1063.2999999999979</v>
       </c>
-    </row>
-    <row r="39" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK38" s="2">
+        <f t="shared" si="17"/>
+        <v>410.20000000000016</v>
+      </c>
+      <c r="AL38" s="2">
+        <f t="shared" si="17"/>
+        <v>-160.70000000000164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
@@ -5906,20 +6880,53 @@
       <c r="P39" s="2">
         <v>69</v>
       </c>
+      <c r="Q39" s="2">
+        <v>-141.5</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
       <c r="T39" s="2">
         <v>-65.400000000000006</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="U39" s="2">
+        <v>-145.6</v>
+      </c>
+      <c r="V39" s="2">
         <v>0</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="W39" s="2">
         <v>0</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
         <v>734.6</v>
       </c>
-    </row>
-    <row r="40" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
@@ -5927,61 +6934,105 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7">
-        <f t="shared" ref="F40:P40" si="9">+F38-F39</f>
+        <f t="shared" ref="F40:P40" si="18">+F38-F39</f>
         <v>-942.19999999999993</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-1014.6999999999997</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-256.1999999999997</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>209.30000000000044</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>10.100000000000428</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>405.39999999999992</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>324.79999999999927</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>350.40000000000003</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>155.69999999999987</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" ref="Q40:R40" si="19">+Q38+Q39</f>
+        <v>143.60000000000014</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="19"/>
+        <v>-352.99999999999989</v>
+      </c>
+      <c r="S40" s="2">
+        <f>+S38+S39</f>
+        <v>148.39999999999995</v>
       </c>
       <c r="T40" s="2">
         <f>+T38+T39</f>
         <v>-327.89999999999986</v>
       </c>
-      <c r="AD40" s="2">
-        <f>AD38-AD39</f>
+      <c r="U40" s="2">
+        <f>+U38+U39</f>
+        <v>-33.800000000000125</v>
+      </c>
+      <c r="V40" s="2">
+        <f>+V38+V39</f>
+        <v>-158.40000000000003</v>
+      </c>
+      <c r="W40" s="2">
+        <f>+W38+W39</f>
+        <v>-120.40000000000009</v>
+      </c>
+      <c r="X40" s="2">
+        <f>+X38+X39</f>
+        <v>-443.50159999999983</v>
+      </c>
+      <c r="Y40" s="2">
+        <f>+Y38+Y39</f>
+        <v>-97.911199999999781</v>
+      </c>
+      <c r="Z40" s="2">
+        <f>+Z38+Z39</f>
+        <v>-221.5956000000001</v>
+      </c>
+      <c r="AH40" s="2">
+        <f>AH38-AH39</f>
         <v>-558.29999999999995</v>
       </c>
-      <c r="AE40" s="2">
-        <f>AE38-AE39</f>
+      <c r="AI40" s="2">
+        <f>AI38-AI39</f>
         <v>-270.89999999999986</v>
       </c>
-      <c r="AF40" s="2">
-        <f>AF38-AF39</f>
+      <c r="AJ40" s="2">
+        <f>AJ38-AJ39</f>
         <v>328.69999999999789</v>
       </c>
-    </row>
-    <row r="41" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK40" s="2">
+        <f>AK38-AK39</f>
+        <v>410.20000000000016</v>
+      </c>
+      <c r="AL40" s="2">
+        <f>AL38-AL39</f>
+        <v>-160.70000000000164</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
@@ -5989,35 +7040,35 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
-        <f t="shared" ref="F41:M41" si="10">+F40/F42</f>
+        <f t="shared" ref="F41:M41" si="20">+F40/F42</f>
         <v>-1.1027621722846441</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-0.8403312629399583</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-0.21194573130377209</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.17260432129308961</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>8.3512485530018409E-3</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.33418514549501271</v>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.26686385670856899</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.28766111156719487</v>
       </c>
       <c r="N41" s="5"/>
@@ -6025,24 +7076,68 @@
         <f>+P40/P42</f>
         <v>0.12937266306605724</v>
       </c>
+      <c r="Q41" s="1">
+        <f>+Q40/Q42</f>
+        <v>0.11891354753229559</v>
+      </c>
+      <c r="R41" s="1">
+        <f>+R40/R42</f>
+        <v>-0.29414215482043155</v>
+      </c>
+      <c r="S41" s="1">
+        <f>+S40/S42</f>
+        <v>0.12269532864820169</v>
+      </c>
       <c r="T41" s="1">
         <f>+T40/T42</f>
         <v>-0.27529174712450666</v>
       </c>
-      <c r="AD41" s="1">
-        <f>AD40/AD42</f>
+      <c r="U41" s="1">
+        <f>+U40/U42</f>
+        <v>-2.8157280906364646E-2</v>
+      </c>
+      <c r="V41" s="1">
+        <f>+V40/V42</f>
+        <v>-0.13270777479892765</v>
+      </c>
+      <c r="W41" s="1">
+        <f>+W40/W42</f>
+        <v>-0.10097282791009735</v>
+      </c>
+      <c r="X41" s="1">
+        <f>+X40/X42</f>
+        <v>-0.37194028849379385</v>
+      </c>
+      <c r="Y41" s="1">
+        <f>+Y40/Y42</f>
+        <v>-8.2112713854411087E-2</v>
+      </c>
+      <c r="Z41" s="1">
+        <f>+Z40/Z42</f>
+        <v>-0.18583998658168407</v>
+      </c>
+      <c r="AH41" s="1">
+        <f>AH40/AH42</f>
         <v>-0.92864271457085812</v>
       </c>
-      <c r="AE41" s="1">
-        <f t="shared" ref="AE41:AF41" si="11">AE40/AE42</f>
+      <c r="AI41" s="1">
+        <f t="shared" ref="AI41:AL41" si="21">AI40/AI42</f>
         <v>-0.22410655195234933</v>
       </c>
-      <c r="AF41" s="1">
-        <f t="shared" si="11"/>
+      <c r="AJ41" s="1">
+        <f t="shared" si="21"/>
         <v>0.27000164284540651</v>
       </c>
-    </row>
-    <row r="42" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AK41" s="1">
+        <f t="shared" si="21"/>
+        <v>0.33987902891706034</v>
+      </c>
+      <c r="AL41" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.13466856616106732</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
@@ -6077,20 +7172,56 @@
       <c r="P42" s="2">
         <v>1203.5</v>
       </c>
+      <c r="Q42" s="2">
+        <v>1207.5999999999999</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1209.5</v>
+      </c>
       <c r="T42" s="2">
         <v>1191.0999999999999</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="U42" s="2">
+        <v>1200.4000000000001</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1193.5999999999999</v>
+      </c>
+      <c r="W42" s="2">
+        <v>1192.4000000000001</v>
+      </c>
+      <c r="X42" s="2">
+        <f>+W42</f>
+        <v>1192.4000000000001</v>
+      </c>
+      <c r="Y42" s="2">
+        <f>+X42</f>
+        <v>1192.4000000000001</v>
+      </c>
+      <c r="Z42" s="2">
+        <f>+Y42</f>
+        <v>1192.4000000000001</v>
+      </c>
+      <c r="AH42" s="2">
         <v>601.20000000000005</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AI42" s="2">
         <v>1208.8</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AJ42" s="2">
         <v>1217.4000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AK42" s="2">
+        <v>1206.9000000000001</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>1193.3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
@@ -6111,65 +7242,145 @@
         <f>M30/I30-1</f>
         <v>-0.1010448353392408</v>
       </c>
-      <c r="AE45" s="42">
-        <f>AE30/AD30-1</f>
+      <c r="T45" s="42">
+        <f t="shared" ref="T45" si="22">+T30/P30-1</f>
+        <v>-3.113356811106005E-2</v>
+      </c>
+      <c r="U45" s="42">
+        <f t="shared" ref="U45" si="23">+U30/Q30-1</f>
+        <v>-4.8377685887516231E-2</v>
+      </c>
+      <c r="V45" s="42">
+        <f>+V30/R30-1</f>
+        <v>-8.057748938055409E-2</v>
+      </c>
+      <c r="W45" s="42">
+        <f>+W30/S30-1</f>
+        <v>-0.11167221706611352</v>
+      </c>
+      <c r="X45" s="42">
+        <f t="shared" ref="X45:Z45" si="24">+X30/T30-1</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="Y45" s="42">
+        <f t="shared" si="24"/>
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="Z45" s="42">
+        <f t="shared" si="24"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="AI45" s="42">
+        <f>AI30/AH30-1</f>
         <v>0.49726268206931179</v>
       </c>
-      <c r="AF45" s="42">
-        <f t="shared" ref="AF45" si="12">AF30/AE30-1</f>
+      <c r="AJ45" s="42">
+        <f t="shared" ref="AJ45:AL45" si="25">AJ30/AI30-1</f>
         <v>-9.0773385216618374E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AK45" s="42">
+        <f t="shared" si="25"/>
+        <v>-5.1393680016233456E-2</v>
+      </c>
+      <c r="AL45" s="42">
+        <f t="shared" si="25"/>
+        <v>-4.4571495245318227E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" ref="F46:M46" si="13">+F32/F30</f>
+        <f t="shared" ref="F46:M46" si="26">+F32/F30</f>
         <v>0.19494963433144752</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.254452294427014</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.29003014548473072</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.34697791297447433</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.35618205269946573</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.42254932366343007</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.41374368441507958</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.4287185523024864</v>
       </c>
-      <c r="AD46" s="42">
-        <f>AD32/AD30</f>
+      <c r="R46" s="42">
+        <f t="shared" ref="R46:U46" si="27">+R32/R30</f>
+        <v>0.41604774190185806</v>
+      </c>
+      <c r="S46" s="42">
+        <f t="shared" si="27"/>
+        <v>0.410547578751979</v>
+      </c>
+      <c r="T46" s="42">
+        <f t="shared" si="27"/>
+        <v>0.38070905547068434</v>
+      </c>
+      <c r="U46" s="42">
+        <f t="shared" si="27"/>
+        <v>0.38899552143314137</v>
+      </c>
+      <c r="V46" s="42">
+        <f>+V32/V30</f>
+        <v>0.34437799382103684</v>
+      </c>
+      <c r="W46" s="42">
+        <f>+W32/W30</f>
+        <v>0.35682020711059209</v>
+      </c>
+      <c r="X46" s="42">
+        <f t="shared" ref="X46:Z46" si="28">+X32/X30</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="Y46" s="42">
+        <f t="shared" si="28"/>
+        <v>0.36</v>
+      </c>
+      <c r="Z46" s="42">
+        <f t="shared" si="28"/>
+        <v>0.36</v>
+      </c>
+      <c r="AH46" s="42">
+        <f>AH32/AH30</f>
         <v>0.31782186505943411</v>
       </c>
-      <c r="AE46" s="42">
-        <f>AE32/AE30</f>
+      <c r="AI46" s="42">
+        <f>AI32/AI30</f>
         <v>0.31171902517569317</v>
       </c>
-      <c r="AF46" s="42">
-        <f>AF32/AF30</f>
+      <c r="AJ46" s="42">
+        <f>AJ32/AJ30</f>
         <v>0.39950315753226701</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AK46" s="42">
+        <f>AK32/AK30</f>
+        <v>0.41736188087042764</v>
+      </c>
+      <c r="AL46" s="42">
+        <f>AL32/AL30</f>
+        <v>0.38153779351800959</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>320</v>
       </c>
@@ -6177,12 +7388,24 @@
         <f>+T49-T61</f>
         <v>-16181.400000000001</v>
       </c>
-      <c r="AF48" s="2">
-        <f>AF49-AF61</f>
+      <c r="U48" s="2">
+        <f>+U49-U61</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <f>+V49-V61</f>
+        <v>-13312.4</v>
+      </c>
+      <c r="W48" s="2">
+        <f>+W49-W61</f>
+        <v>-13431</v>
+      </c>
+      <c r="AJ48" s="2">
+        <f>AJ49-AJ61</f>
         <v>-18014.399999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -6207,11 +7430,17 @@
       <c r="T49" s="2">
         <v>917.2</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="V49" s="2">
+        <v>734.8</v>
+      </c>
+      <c r="W49" s="2">
+        <v>755</v>
+      </c>
+      <c r="AJ49" s="2">
         <v>1259.9000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
@@ -6236,11 +7465,17 @@
       <c r="T50" s="2">
         <v>3566.9</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="V50" s="2">
+        <v>3221.3</v>
+      </c>
+      <c r="W50" s="2">
+        <v>3125.7</v>
+      </c>
+      <c r="AJ50" s="2">
         <v>3814.5</v>
       </c>
     </row>
-    <row r="51" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>37</v>
       </c>
@@ -6265,11 +7500,17 @@
       <c r="T51" s="2">
         <v>3942.1</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="V51" s="2">
+        <v>3854.1</v>
+      </c>
+      <c r="W51" s="2">
+        <v>4096.3999999999996</v>
+      </c>
+      <c r="AJ51" s="2">
         <v>3519.5</v>
       </c>
     </row>
-    <row r="52" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>38</v>
       </c>
@@ -6294,11 +7535,17 @@
       <c r="T52" s="2">
         <v>1757</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="V52" s="2">
+        <v>1710.5</v>
+      </c>
+      <c r="W52" s="2">
+        <v>1645.3</v>
+      </c>
+      <c r="AJ52" s="2">
         <v>1811.2</v>
       </c>
     </row>
-    <row r="53" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
@@ -6323,11 +7570,17 @@
       <c r="T53" s="2">
         <v>1608.9</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="2">
         <v>230.3</v>
       </c>
     </row>
-    <row r="54" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
@@ -6352,11 +7605,17 @@
       <c r="T54" s="2">
         <v>2662.6</v>
       </c>
-      <c r="AF54" s="2">
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>2635.6</v>
+      </c>
+      <c r="AJ54" s="2">
         <v>3024.5</v>
       </c>
     </row>
-    <row r="55" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>41</v>
       </c>
@@ -6385,12 +7644,20 @@
         <f>18419+9325.9</f>
         <v>27744.9</v>
       </c>
-      <c r="AF55" s="8">
+      <c r="V55" s="2">
+        <f>17070.9+9133.3</f>
+        <v>26204.2</v>
+      </c>
+      <c r="W55" s="2">
+        <f>16662.3+6462.1</f>
+        <v>23124.400000000001</v>
+      </c>
+      <c r="AJ55" s="8">
         <f>10425.8+22607.1</f>
         <v>33032.899999999994</v>
       </c>
     </row>
-    <row r="56" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
@@ -6415,11 +7682,17 @@
       <c r="T56" s="2">
         <v>685.3</v>
       </c>
-      <c r="AF56" s="2">
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>817.6</v>
+      </c>
+      <c r="AJ56" s="2">
         <v>925.9</v>
       </c>
     </row>
-    <row r="57" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>42</v>
       </c>
@@ -6444,11 +7717,17 @@
       <c r="T57" s="2">
         <v>2445.1</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="V57" s="2">
+        <v>5776</v>
+      </c>
+      <c r="W57" s="2">
+        <v>2274.9</v>
+      </c>
+      <c r="AJ57" s="2">
         <v>2403.5</v>
       </c>
     </row>
-    <row r="58" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>35</v>
       </c>
@@ -6477,12 +7756,24 @@
         <f>SUM(T49:T57)</f>
         <v>45330.000000000007</v>
       </c>
-      <c r="AF58" s="8">
-        <f>SUM(AF49:AF57)</f>
+      <c r="U58" s="2">
+        <f t="shared" ref="U58:W58" si="29">SUM(U49:U57)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="29"/>
+        <v>41500.9</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="29"/>
+        <v>38474.9</v>
+      </c>
+      <c r="AJ58" s="8">
+        <f>SUM(AJ49:AJ57)</f>
         <v>50022.2</v>
       </c>
     </row>
-    <row r="60" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>44</v>
       </c>
@@ -6507,11 +7798,14 @@
       <c r="T60" s="2">
         <v>1957.5</v>
       </c>
-      <c r="AF60" s="2">
+      <c r="W60" s="2">
+        <v>1988.4</v>
+      </c>
+      <c r="AJ60" s="2">
         <v>1766.6</v>
       </c>
     </row>
-    <row r="61" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
@@ -6540,12 +7834,20 @@
         <f>2367.4+14731.2</f>
         <v>17098.600000000002</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="V61" s="2">
+        <f>14038.9+8.3</f>
+        <v>14047.199999999999</v>
+      </c>
+      <c r="W61" s="2">
+        <f>8.5+14177.5</f>
+        <v>14186</v>
+      </c>
+      <c r="AJ61" s="2">
         <f>18015.2+1259.1</f>
         <v>19274.3</v>
       </c>
     </row>
-    <row r="62" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
@@ -6574,12 +7876,16 @@
         <f>117.7+1573.8</f>
         <v>1691.5</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="W62" s="2">
+        <f>93.4+1082.5</f>
+        <v>1175.9000000000001</v>
+      </c>
+      <c r="AJ62" s="2">
         <f>279.6+2432</f>
         <v>2711.6</v>
       </c>
     </row>
-    <row r="63" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>39</v>
       </c>
@@ -6604,11 +7910,11 @@
       <c r="T63" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AJ63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>45</v>
       </c>
@@ -6633,11 +7939,17 @@
       <c r="T64" s="2">
         <v>3233.8</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="V64" s="2">
+        <v>5771.1</v>
+      </c>
+      <c r="W64" s="2">
+        <v>3629.8</v>
+      </c>
+      <c r="AJ64" s="2">
         <v>3440.9</v>
       </c>
     </row>
-    <row r="65" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>46</v>
       </c>
@@ -6662,11 +7974,17 @@
       <c r="T65" s="2">
         <v>1795.8</v>
       </c>
-      <c r="AF65" s="2">
+      <c r="V65" s="2">
+        <v>3047.1</v>
+      </c>
+      <c r="W65" s="2">
+        <v>1844.4</v>
+      </c>
+      <c r="AJ65" s="2">
         <v>1756.5</v>
       </c>
     </row>
-    <row r="66" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>321</v>
       </c>
@@ -6682,12 +8000,12 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="AF66" s="8">
-        <f>SUM(AF60:AF65)</f>
+      <c r="AJ66" s="8">
+        <f>SUM(AJ60:AJ65)</f>
         <v>28949.899999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>324</v>
       </c>
@@ -6712,12 +8030,18 @@
       <c r="T67" s="2">
         <v>19520</v>
       </c>
-      <c r="AF67" s="8">
-        <f>AF58-AF66</f>
+      <c r="V67" s="2">
+        <v>18635.5</v>
+      </c>
+      <c r="W67" s="2">
+        <v>15650.4</v>
+      </c>
+      <c r="AJ67" s="8">
+        <f>AJ58-AJ66</f>
         <v>21072.3</v>
       </c>
     </row>
-    <row r="68" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>43</v>
       </c>
@@ -6746,12 +8070,24 @@
         <f>SUM(T60:T67)</f>
         <v>45330</v>
       </c>
-      <c r="AF68" s="8">
-        <f>AF66+AF67</f>
+      <c r="U68" s="2">
+        <f t="shared" ref="U68:W68" si="30">SUM(U60:U67)</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <f t="shared" si="30"/>
+        <v>41500.899999999994</v>
+      </c>
+      <c r="W68" s="2">
+        <f t="shared" si="30"/>
+        <v>38474.9</v>
+      </c>
+      <c r="AJ68" s="8">
+        <f>AJ66+AJ67</f>
         <v>50022.2</v>
       </c>
     </row>
-    <row r="69" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6765,7 +8101,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>322</v>
       </c>
@@ -6781,12 +8117,12 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="AF70" s="2">
-        <f>AF58-AF66</f>
+      <c r="AJ70" s="2">
+        <f>AJ58-AJ66</f>
         <v>21072.3</v>
       </c>
     </row>
-    <row r="71" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:36" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>323</v>
       </c>
@@ -6802,12 +8138,12 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="AF71" s="8">
-        <f>AF70-AF55</f>
+      <c r="AJ71" s="8">
+        <f>AJ70-AJ55</f>
         <v>-11960.599999999995</v>
       </c>
     </row>
-    <row r="73" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>47</v>
       </c>
@@ -6829,8 +8165,40 @@
       </c>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-    </row>
-    <row r="74" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="2">
+        <f t="shared" ref="P73:W73" si="31">+P40</f>
+        <v>155.69999999999987</v>
+      </c>
+      <c r="Q73" s="2">
+        <f t="shared" si="31"/>
+        <v>143.60000000000014</v>
+      </c>
+      <c r="R73" s="2">
+        <f t="shared" si="31"/>
+        <v>-352.99999999999989</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="31"/>
+        <v>148.39999999999995</v>
+      </c>
+      <c r="T73" s="2">
+        <f t="shared" si="31"/>
+        <v>-327.89999999999986</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" si="31"/>
+        <v>-33.800000000000125</v>
+      </c>
+      <c r="V73" s="2">
+        <f t="shared" si="31"/>
+        <v>-158.40000000000003</v>
+      </c>
+      <c r="W73" s="2">
+        <f>+W40</f>
+        <v>-120.40000000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>48</v>
       </c>
@@ -6851,8 +8219,11 @@
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-    </row>
-    <row r="75" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W74" s="2">
+        <v>-3042</v>
+      </c>
+    </row>
+    <row r="75" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>49</v>
       </c>
@@ -6873,8 +8244,11 @@
       </c>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
-    </row>
-    <row r="76" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W75" s="2">
+        <v>664.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>50</v>
       </c>
@@ -6895,8 +8269,11 @@
       </c>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-    </row>
-    <row r="77" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="2">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>51</v>
       </c>
@@ -6917,8 +8294,11 @@
       </c>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
-    </row>
-    <row r="78" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W77" s="2">
+        <v>-43.6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>52</v>
       </c>
@@ -6939,8 +8319,11 @@
       </c>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
-    </row>
-    <row r="79" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W78" s="2">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
@@ -6961,8 +8344,12 @@
       </c>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
-    </row>
-    <row r="80" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W79" s="2">
+        <f>15+2936.8+203.8</f>
+        <v>3155.6000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
@@ -6983,8 +8370,11 @@
       </c>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
-    </row>
-    <row r="81" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W80" s="2">
+        <v>-69.400000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>54</v>
       </c>
@@ -7006,8 +8396,12 @@
       </c>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-    </row>
-    <row r="82" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W81" s="2">
+        <f>168-193.7+101.6-120.6-177.2</f>
+        <v>-221.89999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>65</v>
       </c>
@@ -7029,8 +8423,49 @@
       </c>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
-    </row>
-    <row r="83" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P82" s="2">
+        <f t="shared" ref="P82:V82" si="32">SUM(P74:P81)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <f>SUM(W74:W81)</f>
+        <v>535.50000000000023</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>2999</v>
+      </c>
+      <c r="AK82" s="2">
+        <v>2900</v>
+      </c>
+      <c r="AL82" s="2">
+        <v>2302.9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -7044,7 +8479,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>60</v>
       </c>
@@ -7066,7 +8501,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>61</v>
       </c>
@@ -7089,7 +8524,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>62</v>
       </c>
@@ -7111,7 +8546,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>63</v>
       </c>
@@ -7133,7 +8568,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>64</v>
       </c>
@@ -7156,7 +8591,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -7170,7 +8605,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>55</v>
       </c>
@@ -7193,7 +8628,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>56</v>
       </c>
@@ -7215,7 +8650,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>57</v>
       </c>
@@ -7237,7 +8672,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>58</v>
       </c>
@@ -7259,7 +8694,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>59</v>
       </c>
@@ -7282,7 +8717,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>66</v>
       </c>
@@ -7304,7 +8739,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>67</v>
       </c>
@@ -7343,24 +8778,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.54296875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="19" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="48" width="5.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="26"/>
+    <col min="20" max="20" width="5.81640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="48" width="5.453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.1796875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>185</v>
       </c>
@@ -7368,7 +8803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>172</v>
       </c>
@@ -7376,17 +8811,17 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>155</v>
       </c>
@@ -7394,15 +8829,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C9" s="28">
         <v>2002</v>
       </c>
@@ -7542,7 +8977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>93</v>
       </c>
@@ -7622,7 +9057,7 @@
       <c r="AU10" s="27"/>
       <c r="AV10" s="27"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>92</v>
       </c>
@@ -7702,7 +9137,7 @@
       <c r="AU11" s="27"/>
       <c r="AV11" s="27"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>186</v>
       </c>
@@ -7744,31 +9179,31 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="10" customWidth="1"/>
     <col min="4" max="6" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="5.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="36" width="5.85546875" style="10" customWidth="1"/>
-    <col min="37" max="49" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="50" max="63" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="65" max="72" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="10"/>
+    <col min="28" max="28" width="5.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="36" width="5.81640625" style="10" customWidth="1"/>
+    <col min="37" max="49" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="63" width="5.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="65" max="72" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>173</v>
       </c>
@@ -7776,7 +9211,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>172</v>
       </c>
@@ -7784,7 +9219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>170</v>
       </c>
@@ -7792,7 +9227,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>168</v>
       </c>
@@ -7800,22 +9235,22 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>163</v>
       </c>
@@ -7823,7 +9258,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>161</v>
       </c>
@@ -7831,7 +9266,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>159</v>
       </c>
@@ -7839,12 +9274,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>156</v>
       </c>
@@ -7852,7 +9287,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>155</v>
       </c>
@@ -7860,75 +9295,75 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:72" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
     </row>
-    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:72" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:72" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:72" x14ac:dyDescent="0.25">
       <c r="C32" s="15">
         <v>1994</v>
       </c>
@@ -8140,7 +9575,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:72" s="11" customFormat="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:72" s="11" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>94</v>
       </c>
@@ -8355,7 +9790,7 @@
       <c r="BL33" s="14"/>
       <c r="BM33" s="12"/>
     </row>
-    <row r="34" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>93</v>
       </c>
@@ -8509,7 +9944,7 @@
       <c r="BS34" s="12"/>
       <c r="BT34" s="12"/>
     </row>
-    <row r="35" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:72" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>92</v>
       </c>
@@ -8681,22 +10116,22 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="13.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="10"/>
+    <col min="5" max="5" width="13.26953125" style="10" customWidth="1"/>
     <col min="6" max="6" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="10" t="s">
         <v>185</v>
@@ -8705,7 +10140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
         <v>172</v>
@@ -8714,7 +10149,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>168</v>
@@ -8723,7 +10158,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>170</v>
       </c>
@@ -8731,12 +10166,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>180</v>
       </c>
@@ -8744,7 +10179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>155</v>
       </c>
@@ -8752,18 +10187,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>175</v>
       </c>
@@ -8771,11 +10206,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>40130</v>
       </c>
@@ -8786,7 +10221,7 @@
         <v>209947</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <f t="shared" ref="B14:B20" si="0">B13-7</f>
         <v>40123</v>
@@ -8798,7 +10233,7 @@
         <v>220362</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -8810,7 +10245,7 @@
         <v>210793</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <f t="shared" si="0"/>
         <v>40109</v>
@@ -8822,7 +10257,7 @@
         <v>207146</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <f t="shared" si="0"/>
         <v>40102</v>
@@ -8834,7 +10269,7 @@
         <v>201328</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <f t="shared" si="0"/>
         <v>40095</v>
@@ -8846,7 +10281,7 @@
         <v>208037</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <f t="shared" si="0"/>
         <v>40088</v>
@@ -8858,7 +10293,7 @@
         <v>219471</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <f t="shared" si="0"/>
         <v>40081</v>
@@ -8870,7 +10305,7 @@
         <v>210721</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>39759</v>
       </c>
@@ -8881,7 +10316,7 @@
         <v>242130</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="25">
         <v>39304</v>
       </c>
@@ -8892,7 +10327,7 @@
         <v>175214</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <f>B24+7</f>
         <v>39297</v>
@@ -8904,7 +10339,7 @@
         <v>177479</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>39290</v>
       </c>
@@ -8915,7 +10350,7 @@
         <v>168257</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>39283</v>
       </c>
@@ -8926,7 +10361,7 @@
         <v>167102</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>39276</v>
       </c>
@@ -8937,7 +10372,7 @@
         <v>162285</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <f>B26-7</f>
         <v>39269</v>
@@ -8949,7 +10384,7 @@
         <v>155583</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>39251</v>
       </c>
@@ -8960,7 +10395,7 @@
         <v>162729</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="25">
         <f>B28-7</f>
         <v>39244</v>
@@ -8972,7 +10407,7 @@
         <v>148171</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>39192</v>
       </c>
@@ -8983,7 +10418,7 @@
         <v>151082</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>39185</v>
       </c>
@@ -8994,7 +10429,7 @@
         <v>147646</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>39108</v>
       </c>
@@ -9005,7 +10440,7 @@
         <v>140832</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>39094</v>
       </c>
@@ -9016,7 +10451,7 @@
         <v>147117</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <v>39087</v>
       </c>
@@ -9027,7 +10462,7 @@
         <v>139183</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="25">
         <v>39080</v>
       </c>
@@ -9038,7 +10473,7 @@
         <v>120643</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>39066</v>
       </c>
@@ -9047,7 +10482,7 @@
         <v>137766</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>39059</v>
       </c>
@@ -9056,7 +10491,7 @@
         <v>140308</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
@@ -9081,21 +10516,21 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="13.5703125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="4" width="9.1796875" style="10"/>
+    <col min="5" max="5" width="13.54296875" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="10" t="s">
         <v>185</v>
@@ -9110,7 +10545,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
         <v>155</v>
@@ -9119,37 +10554,37 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="C4" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="C5" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="C6" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="C7" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="C8" s="19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>139</v>
       </c>
@@ -9157,17 +10592,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>170</v>
       </c>
@@ -9175,7 +10610,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>168</v>
       </c>
@@ -9183,152 +10618,152 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C33" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>270</v>
       </c>
@@ -9336,7 +10771,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>0</v>
       </c>
@@ -9344,7 +10779,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>267</v>
       </c>
@@ -9352,12 +10787,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C47" s="10" t="s">
         <v>265</v>
       </c>
@@ -9377,7 +10812,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
         <v>75</v>
       </c>
@@ -9397,7 +10832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C49" s="10" t="s">
         <v>254</v>
       </c>
@@ -9417,7 +10852,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C50" s="10" t="s">
         <v>200</v>
       </c>
@@ -9437,7 +10872,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C51" s="10" t="s">
         <v>245</v>
       </c>
@@ -9457,7 +10892,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C52" s="10" t="s">
         <v>239</v>
       </c>
@@ -9477,7 +10912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
         <v>233</v>
       </c>
@@ -9497,7 +10932,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C54" s="10" t="s">
         <v>228</v>
       </c>
@@ -9517,7 +10952,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C55" s="10" t="s">
         <v>197</v>
       </c>
@@ -9537,7 +10972,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C56" s="10" t="s">
         <v>198</v>
       </c>
@@ -9557,7 +10992,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C57" s="10" t="s">
         <v>199</v>
       </c>
@@ -9577,7 +11012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
         <v>200</v>
       </c>
@@ -9594,7 +11029,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
         <v>208</v>
       </c>
@@ -9626,7 +11061,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C61" s="10" t="s">
         <v>207</v>
       </c>
@@ -9652,7 +11087,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C62" s="10" t="s">
         <v>206</v>
       </c>
@@ -9678,7 +11113,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C63" s="10" t="s">
         <v>205</v>
       </c>
@@ -9704,7 +11139,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="19" t="s">
         <v>203</v>
       </c>
@@ -9712,12 +11147,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C66" s="15" t="s">
         <v>75</v>
       </c>
@@ -9743,7 +11178,7 @@
       </c>
       <c r="P66" s="43"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C67" s="15" t="s">
         <v>196</v>
       </c>
@@ -9787,7 +11222,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="25">
         <f t="shared" ref="B68:B99" si="0">B69+7</f>
         <v>40221</v>
@@ -9807,7 +11242,7 @@
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="25">
         <f t="shared" si="0"/>
         <v>40214</v>
@@ -9827,7 +11262,7 @@
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="25">
         <f t="shared" si="0"/>
         <v>40207</v>
@@ -9847,7 +11282,7 @@
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="25">
         <f t="shared" si="0"/>
         <v>40200</v>
@@ -9867,7 +11302,7 @@
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="25">
         <f t="shared" si="0"/>
         <v>40193</v>
@@ -9887,7 +11322,7 @@
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="25">
         <f t="shared" si="0"/>
         <v>40186</v>
@@ -9907,7 +11342,7 @@
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="25">
         <f t="shared" si="0"/>
         <v>40179</v>
@@ -9927,7 +11362,7 @@
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="25">
         <f t="shared" si="0"/>
         <v>40172</v>
@@ -9947,7 +11382,7 @@
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="25">
         <f t="shared" si="0"/>
         <v>40165</v>
@@ -9967,7 +11402,7 @@
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="25">
         <f t="shared" si="0"/>
         <v>40158</v>
@@ -9987,7 +11422,7 @@
       <c r="O77" s="15"/>
       <c r="P77" s="15"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="25">
         <f t="shared" si="0"/>
         <v>40151</v>
@@ -10007,7 +11442,7 @@
       <c r="O78" s="15"/>
       <c r="P78" s="15"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="25">
         <f t="shared" si="0"/>
         <v>40144</v>
@@ -10027,7 +11462,7 @@
       <c r="O79" s="15"/>
       <c r="P79" s="15"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="25">
         <f t="shared" si="0"/>
         <v>40137</v>
@@ -10047,7 +11482,7 @@
       <c r="O80" s="15"/>
       <c r="P80" s="15"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="25">
         <f t="shared" si="0"/>
         <v>40130</v>
@@ -10077,7 +11512,7 @@
       </c>
       <c r="P81" s="15"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="25">
         <f t="shared" si="0"/>
         <v>40123</v>
@@ -10111,7 +11546,7 @@
       </c>
       <c r="P82" s="15"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="25">
         <f t="shared" si="0"/>
         <v>40116</v>
@@ -10142,7 +11577,7 @@
       </c>
       <c r="P83" s="15"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="25">
         <f t="shared" si="0"/>
         <v>40109</v>
@@ -10176,7 +11611,7 @@
       </c>
       <c r="P84" s="15"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="25">
         <f t="shared" si="0"/>
         <v>40102</v>
@@ -10210,7 +11645,7 @@
       </c>
       <c r="P85" s="15"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="25">
         <f t="shared" si="0"/>
         <v>40095</v>
@@ -10244,7 +11679,7 @@
       </c>
       <c r="P86" s="15"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="25">
         <f t="shared" si="0"/>
         <v>40088</v>
@@ -10275,7 +11710,7 @@
       </c>
       <c r="P87" s="15"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="25">
         <f t="shared" si="0"/>
         <v>40081</v>
@@ -10309,7 +11744,7 @@
       </c>
       <c r="P88" s="15"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="25">
         <f t="shared" si="0"/>
         <v>40074</v>
@@ -10329,7 +11764,7 @@
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="25">
         <f t="shared" si="0"/>
         <v>40067</v>
@@ -10349,7 +11784,7 @@
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="25">
         <f t="shared" si="0"/>
         <v>40060</v>
@@ -10369,7 +11804,7 @@
       <c r="O91" s="15"/>
       <c r="P91" s="15"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="25">
         <f t="shared" si="0"/>
         <v>40053</v>
@@ -10389,7 +11824,7 @@
       <c r="O92" s="15"/>
       <c r="P92" s="15"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="25">
         <f t="shared" si="0"/>
         <v>40046</v>
@@ -10409,7 +11844,7 @@
       <c r="O93" s="15"/>
       <c r="P93" s="15"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="25">
         <f t="shared" si="0"/>
         <v>40039</v>
@@ -10429,7 +11864,7 @@
       <c r="O94" s="15"/>
       <c r="P94" s="15"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="25">
         <f t="shared" si="0"/>
         <v>40032</v>
@@ -10449,7 +11884,7 @@
       <c r="O95" s="15"/>
       <c r="P95" s="15"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="25">
         <f t="shared" si="0"/>
         <v>40025</v>
@@ -10469,7 +11904,7 @@
       <c r="O96" s="15"/>
       <c r="P96" s="15"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="25">
         <f t="shared" si="0"/>
         <v>40018</v>
@@ -10489,7 +11924,7 @@
       <c r="O97" s="15"/>
       <c r="P97" s="15"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="25">
         <f t="shared" si="0"/>
         <v>40011</v>
@@ -10509,7 +11944,7 @@
       <c r="O98" s="15"/>
       <c r="P98" s="15"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="25">
         <f t="shared" si="0"/>
         <v>40004</v>
@@ -10529,7 +11964,7 @@
       <c r="O99" s="15"/>
       <c r="P99" s="15"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="25">
         <f t="shared" ref="B100:B131" si="1">B101+7</f>
         <v>39997</v>
@@ -10549,7 +11984,7 @@
       <c r="O100" s="15"/>
       <c r="P100" s="15"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="25">
         <f t="shared" si="1"/>
         <v>39990</v>
@@ -10569,7 +12004,7 @@
       <c r="O101" s="15"/>
       <c r="P101" s="15"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="25">
         <f t="shared" si="1"/>
         <v>39983</v>
@@ -10589,7 +12024,7 @@
       <c r="O102" s="15"/>
       <c r="P102" s="15"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="25">
         <f t="shared" si="1"/>
         <v>39976</v>
@@ -10609,7 +12044,7 @@
       <c r="O103" s="15"/>
       <c r="P103" s="15"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="25">
         <f t="shared" si="1"/>
         <v>39969</v>
@@ -10629,7 +12064,7 @@
       <c r="O104" s="15"/>
       <c r="P104" s="15"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="25">
         <f t="shared" si="1"/>
         <v>39962</v>
@@ -10649,7 +12084,7 @@
       <c r="O105" s="15"/>
       <c r="P105" s="15"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="25">
         <f t="shared" si="1"/>
         <v>39955</v>
@@ -10669,7 +12104,7 @@
       <c r="O106" s="15"/>
       <c r="P106" s="15"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="25">
         <f t="shared" si="1"/>
         <v>39948</v>
@@ -10689,7 +12124,7 @@
       <c r="O107" s="15"/>
       <c r="P107" s="15"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="25">
         <f t="shared" si="1"/>
         <v>39941</v>
@@ -10709,7 +12144,7 @@
       <c r="O108" s="15"/>
       <c r="P108" s="15"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="25">
         <f t="shared" si="1"/>
         <v>39934</v>
@@ -10729,7 +12164,7 @@
       <c r="O109" s="15"/>
       <c r="P109" s="15"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="25">
         <f t="shared" si="1"/>
         <v>39927</v>
@@ -10749,7 +12184,7 @@
       <c r="O110" s="15"/>
       <c r="P110" s="15"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="25">
         <f t="shared" si="1"/>
         <v>39920</v>
@@ -10769,7 +12204,7 @@
       <c r="O111" s="15"/>
       <c r="P111" s="15"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="25">
         <f t="shared" si="1"/>
         <v>39913</v>
@@ -10789,7 +12224,7 @@
       <c r="O112" s="15"/>
       <c r="P112" s="15"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="25">
         <f t="shared" si="1"/>
         <v>39906</v>
@@ -10809,7 +12244,7 @@
       <c r="O113" s="15"/>
       <c r="P113" s="15"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="25">
         <f t="shared" si="1"/>
         <v>39899</v>
@@ -10829,7 +12264,7 @@
       <c r="O114" s="15"/>
       <c r="P114" s="15"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="25">
         <f t="shared" si="1"/>
         <v>39892</v>
@@ -10849,7 +12284,7 @@
       <c r="O115" s="15"/>
       <c r="P115" s="15"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="25">
         <f t="shared" si="1"/>
         <v>39885</v>
@@ -10869,7 +12304,7 @@
       <c r="O116" s="15"/>
       <c r="P116" s="15"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="25">
         <f t="shared" si="1"/>
         <v>39878</v>
@@ -10889,7 +12324,7 @@
       <c r="O117" s="15"/>
       <c r="P117" s="15"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="25">
         <f t="shared" si="1"/>
         <v>39871</v>
@@ -10909,7 +12344,7 @@
       <c r="O118" s="15"/>
       <c r="P118" s="15"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="25">
         <f t="shared" si="1"/>
         <v>39864</v>
@@ -10929,7 +12364,7 @@
       <c r="O119" s="15"/>
       <c r="P119" s="15"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="25">
         <f t="shared" si="1"/>
         <v>39857</v>
@@ -10949,7 +12384,7 @@
       <c r="O120" s="15"/>
       <c r="P120" s="15"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="25">
         <f t="shared" si="1"/>
         <v>39850</v>
@@ -10969,7 +12404,7 @@
       <c r="O121" s="15"/>
       <c r="P121" s="15"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="25">
         <f t="shared" si="1"/>
         <v>39843</v>
@@ -10989,7 +12424,7 @@
       <c r="O122" s="15"/>
       <c r="P122" s="15"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="25">
         <f t="shared" si="1"/>
         <v>39836</v>
@@ -11009,7 +12444,7 @@
       <c r="O123" s="15"/>
       <c r="P123" s="15"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="25">
         <f t="shared" si="1"/>
         <v>39829</v>
@@ -11029,7 +12464,7 @@
       <c r="O124" s="15"/>
       <c r="P124" s="15"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="25">
         <f t="shared" si="1"/>
         <v>39822</v>
@@ -11049,7 +12484,7 @@
       <c r="O125" s="15"/>
       <c r="P125" s="15"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="25">
         <f t="shared" si="1"/>
         <v>39815</v>
@@ -11069,7 +12504,7 @@
       <c r="O126" s="15"/>
       <c r="P126" s="15"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="25">
         <f t="shared" si="1"/>
         <v>39808</v>
@@ -11089,7 +12524,7 @@
       <c r="O127" s="15"/>
       <c r="P127" s="15"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="25">
         <f t="shared" si="1"/>
         <v>39801</v>
@@ -11109,7 +12544,7 @@
       <c r="O128" s="15"/>
       <c r="P128" s="15"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="25">
         <f t="shared" si="1"/>
         <v>39794</v>
@@ -11129,7 +12564,7 @@
       <c r="O129" s="15"/>
       <c r="P129" s="15"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="25">
         <f t="shared" si="1"/>
         <v>39787</v>
@@ -11149,7 +12584,7 @@
       <c r="O130" s="15"/>
       <c r="P130" s="15"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="25">
         <f t="shared" si="1"/>
         <v>39780</v>
@@ -11169,7 +12604,7 @@
       <c r="O131" s="15"/>
       <c r="P131" s="15"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="25">
         <f t="shared" ref="B132:B153" si="2">B133+7</f>
         <v>39773</v>
@@ -11189,7 +12624,7 @@
       <c r="O132" s="15"/>
       <c r="P132" s="15"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="25">
         <f t="shared" si="2"/>
         <v>39766</v>
@@ -11209,7 +12644,7 @@
       <c r="O133" s="15"/>
       <c r="P133" s="15"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="25">
         <f t="shared" si="2"/>
         <v>39759</v>
@@ -11249,7 +12684,7 @@
         <v>95102</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="25">
         <f t="shared" si="2"/>
         <v>39752</v>
@@ -11269,7 +12704,7 @@
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="25">
         <f t="shared" si="2"/>
         <v>39745</v>
@@ -11309,7 +12744,7 @@
         <v>88767</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="25">
         <f t="shared" si="2"/>
         <v>39738</v>
@@ -11349,7 +12784,7 @@
         <v>88767</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="25">
         <f t="shared" si="2"/>
         <v>39731</v>
@@ -11389,7 +12824,7 @@
         <v>89714</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="25">
         <f t="shared" si="2"/>
         <v>39724</v>
@@ -11409,7 +12844,7 @@
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="25">
         <f t="shared" si="2"/>
         <v>39717</v>
@@ -11449,7 +12884,7 @@
         <v>88483</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="25">
         <f t="shared" si="2"/>
         <v>39710</v>
@@ -11489,7 +12924,7 @@
         <v>86978</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="25">
         <f t="shared" si="2"/>
         <v>39703</v>
@@ -11509,7 +12944,7 @@
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="25">
         <f t="shared" si="2"/>
         <v>39696</v>
@@ -11529,7 +12964,7 @@
       <c r="O143" s="12"/>
       <c r="P143" s="12"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="25">
         <f t="shared" si="2"/>
         <v>39689</v>
@@ -11549,7 +12984,7 @@
       <c r="O144" s="12"/>
       <c r="P144" s="12"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="25">
         <f t="shared" si="2"/>
         <v>39682</v>
@@ -11569,7 +13004,7 @@
       <c r="O145" s="12"/>
       <c r="P145" s="12"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="25">
         <f t="shared" si="2"/>
         <v>39675</v>
@@ -11609,7 +13044,7 @@
         <v>80234</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="25">
         <f t="shared" si="2"/>
         <v>39668</v>
@@ -11649,7 +13084,7 @@
         <v>85574</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="25">
         <f t="shared" si="2"/>
         <v>39661</v>
@@ -11689,7 +13124,7 @@
         <v>84489</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="25">
         <f t="shared" si="2"/>
         <v>39654</v>
@@ -11729,7 +13164,7 @@
         <v>82199</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="25">
         <f t="shared" si="2"/>
         <v>39647</v>
@@ -11749,7 +13184,7 @@
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="25">
         <f t="shared" si="2"/>
         <v>39640</v>
@@ -11769,7 +13204,7 @@
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="25">
         <f t="shared" si="2"/>
         <v>39633</v>
@@ -11789,7 +13224,7 @@
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="25">
         <f t="shared" si="2"/>
         <v>39626</v>
@@ -11829,7 +13264,7 @@
         <v>82141</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="25">
         <v>39619</v>
       </c>
@@ -11868,7 +13303,7 @@
         <v>81896</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="25">
         <v>39612</v>
       </c>
@@ -11907,7 +13342,7 @@
         <v>80864</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="25">
         <v>39605</v>
       </c>
@@ -11946,7 +13381,7 @@
         <v>84643</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="25">
         <v>39598</v>
       </c>
@@ -11985,7 +13420,7 @@
         <v>72679</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="25">
         <v>39591</v>
       </c>
@@ -12024,7 +13459,7 @@
         <v>81245</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="25">
         <v>39584</v>
       </c>
@@ -12063,7 +13498,7 @@
         <v>79796</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="25">
         <v>39570</v>
       </c>
@@ -12102,7 +13537,7 @@
         <v>82915</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161" s="25">
         <v>39542</v>
       </c>
@@ -12141,7 +13576,7 @@
         <v>81589</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" s="25">
         <v>39507</v>
       </c>
@@ -12180,7 +13615,7 @@
         <v>77044</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" s="25">
         <v>39506</v>
       </c>
@@ -12219,7 +13654,7 @@
         <v>73266</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" s="25">
         <v>39304</v>
       </c>
@@ -12258,7 +13693,7 @@
         <v>64311</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="25">
         <v>39297</v>
       </c>
@@ -12277,7 +13712,7 @@
       <c r="O165" s="15"/>
       <c r="P165" s="15"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166" s="25">
         <v>39290</v>
       </c>
@@ -12296,7 +13731,7 @@
       <c r="O166" s="15"/>
       <c r="P166" s="15"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" s="25">
         <v>39283</v>
       </c>
@@ -12315,7 +13750,7 @@
       <c r="O167" s="15"/>
       <c r="P167" s="15"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" s="25">
         <v>39276</v>
       </c>
@@ -12334,7 +13769,7 @@
       <c r="O168" s="15"/>
       <c r="P168" s="15"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169" s="25">
         <v>39269</v>
       </c>
@@ -12353,7 +13788,7 @@
       <c r="O169" s="15"/>
       <c r="P169" s="15"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170" s="25">
         <v>39262</v>
       </c>
@@ -12372,7 +13807,7 @@
       <c r="O170" s="15"/>
       <c r="P170" s="15"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="25">
         <v>39255</v>
       </c>
@@ -12391,7 +13826,7 @@
       <c r="O171" s="15"/>
       <c r="P171" s="15"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" s="25">
         <v>39248</v>
       </c>
@@ -12406,7 +13841,7 @@
       <c r="K172" s="15"/>
       <c r="L172" s="15"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" s="25">
         <v>39241</v>
       </c>
@@ -12421,7 +13856,7 @@
       <c r="K173" s="15"/>
       <c r="L173" s="15"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="25">
         <v>39234</v>
       </c>
@@ -12436,7 +13871,7 @@
       <c r="K174" s="15"/>
       <c r="L174" s="15"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" s="25">
         <v>39227</v>
       </c>
@@ -12451,7 +13886,7 @@
       <c r="K175" s="15"/>
       <c r="L175" s="15"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176" s="25">
         <v>39220</v>
       </c>
@@ -12490,7 +13925,7 @@
         <v>63480</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="25">
         <v>39213</v>
       </c>
@@ -12529,7 +13964,7 @@
         <v>65198</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="25">
         <v>39206</v>
       </c>
@@ -12544,7 +13979,7 @@
       <c r="K178" s="15"/>
       <c r="L178" s="15"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B179" s="25">
         <v>39199</v>
       </c>
@@ -12583,7 +14018,7 @@
         <v>63464</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180" s="25">
         <v>39192</v>
       </c>
@@ -12598,7 +14033,7 @@
       <c r="K180" s="15"/>
       <c r="L180" s="15"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B181" s="25">
         <v>39185</v>
       </c>
@@ -12641,7 +14076,7 @@
         <v>62235</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B182" s="25">
         <v>39178</v>
       </c>
@@ -12660,7 +14095,7 @@
       <c r="K182" s="15"/>
       <c r="L182" s="15"/>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B183" s="25">
         <v>39171</v>
       </c>
@@ -12679,7 +14114,7 @@
       <c r="K183" s="15"/>
       <c r="L183" s="15"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B184" s="25">
         <v>39164</v>
       </c>
@@ -12698,7 +14133,7 @@
       <c r="K184" s="15"/>
       <c r="L184" s="15"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B185" s="25">
         <v>39157</v>
       </c>
@@ -12717,7 +14152,7 @@
       <c r="K185" s="15"/>
       <c r="L185" s="15"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186" s="25">
         <v>39150</v>
       </c>
@@ -12736,7 +14171,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="15"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -12748,7 +14183,7 @@
       <c r="K187" s="15"/>
       <c r="L187" s="15"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -12760,7 +14195,7 @@
       <c r="K188" s="15"/>
       <c r="L188" s="15"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189" s="25">
         <v>39108</v>
       </c>
@@ -12787,7 +14222,7 @@
         <v>134920</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B190" s="25">
         <v>39101</v>
       </c>
@@ -12820,7 +14255,7 @@
         <v>134348</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B191" s="25">
         <v>39094</v>
       </c>
@@ -12837,7 +14272,7 @@
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B192" s="25">
         <v>39087</v>
       </c>
@@ -12854,7 +14289,7 @@
       <c r="I192" s="15"/>
       <c r="J192" s="15"/>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" s="25">
         <v>39080</v>
       </c>
@@ -12871,7 +14306,7 @@
       <c r="I193" s="15"/>
       <c r="J193" s="15"/>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" s="25">
         <v>39073</v>
       </c>
@@ -12888,7 +14323,7 @@
       <c r="I194" s="15"/>
       <c r="J194" s="15"/>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B195" s="25">
         <v>39066</v>
       </c>
@@ -12909,7 +14344,7 @@
       <c r="I195" s="15"/>
       <c r="J195" s="15"/>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B196" s="25">
         <v>39059</v>
       </c>
@@ -12930,7 +14365,7 @@
       <c r="I196" s="15"/>
       <c r="J196" s="15"/>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B197" s="25">
         <v>39052</v>
       </c>
@@ -12951,7 +14386,7 @@
       <c r="I197" s="15"/>
       <c r="J197" s="15"/>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B198" s="25">
         <v>39045</v>
       </c>
@@ -12972,7 +14407,7 @@
       <c r="I198" s="15"/>
       <c r="J198" s="15"/>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="25">
         <v>39038</v>
       </c>
@@ -12993,7 +14428,7 @@
       <c r="I199" s="15"/>
       <c r="J199" s="15"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B200" s="25">
         <v>39031</v>
       </c>
@@ -13014,7 +14449,7 @@
       <c r="I200" s="15"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B201" s="25">
         <v>39024</v>
       </c>
@@ -13025,7 +14460,7 @@
       <c r="I201" s="15"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B202" s="25">
         <v>39017</v>
       </c>
@@ -13036,7 +14471,7 @@
       <c r="I202" s="15"/>
       <c r="J202" s="15"/>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B203" s="25">
         <v>39010</v>
       </c>
@@ -13047,7 +14482,7 @@
       <c r="I203" s="15"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B204" s="25">
         <v>39003</v>
       </c>
@@ -13058,7 +14493,7 @@
       <c r="I204" s="15"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B205" s="25">
         <v>38996</v>
       </c>
@@ -13069,7 +14504,7 @@
       <c r="I205" s="15"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B206" s="25">
         <v>38989</v>
       </c>
@@ -13078,7 +14513,7 @@
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B207" s="25">
         <v>38982</v>
       </c>
@@ -13087,7 +14522,7 @@
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B208" s="25">
         <v>38975</v>
       </c>
@@ -13096,7 +14531,7 @@
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="25">
         <v>38968</v>
       </c>
@@ -13105,7 +14540,7 @@
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="25">
         <v>38961</v>
       </c>
@@ -13114,7 +14549,7 @@
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="25">
         <v>38954</v>
       </c>
@@ -13123,7 +14558,7 @@
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="25">
         <v>38947</v>
       </c>
@@ -13132,7 +14567,7 @@
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="25">
         <v>38940</v>
       </c>
@@ -13141,7 +14576,7 @@
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="25">
         <v>38933</v>
       </c>
@@ -13154,7 +14589,7 @@
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="25">
         <v>38926</v>
       </c>
@@ -13167,7 +14602,7 @@
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="25">
         <v>38919</v>
       </c>
@@ -13180,7 +14615,7 @@
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="25">
         <v>38912</v>
       </c>
@@ -13193,7 +14628,7 @@
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="25">
         <v>38905</v>
       </c>
@@ -13206,7 +14641,7 @@
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="25">
         <v>38898</v>
       </c>
@@ -13219,7 +14654,7 @@
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="25">
         <v>38891</v>
       </c>
@@ -13232,7 +14667,7 @@
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="25">
         <v>38884</v>
       </c>
@@ -13245,7 +14680,7 @@
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="25">
         <v>38877</v>
       </c>
@@ -13258,7 +14693,7 @@
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="25">
         <v>38870</v>
       </c>
@@ -13271,7 +14706,7 @@
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="25">
         <v>38863</v>
       </c>
@@ -13284,7 +14719,7 @@
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="25">
         <v>38856</v>
       </c>
@@ -13297,7 +14732,7 @@
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C226" s="15"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
@@ -13325,19 +14760,19 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="2" max="2" width="11.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>185</v>
       </c>
@@ -13345,7 +14780,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>170</v>
       </c>
@@ -13353,7 +14788,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>176</v>
       </c>
@@ -13365,7 +14800,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="36">
         <v>39234</v>
       </c>
@@ -13376,7 +14811,7 @@
         <v>28992</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="36">
         <f>C5-7</f>
         <v>39227</v>
@@ -13388,7 +14823,7 @@
         <v>30599</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <f>C5-365</f>
         <v>38869</v>
@@ -13418,24 +14853,24 @@
       <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="37" bestFit="1" customWidth="1"/>
     <col min="7" max="18" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="47" width="5.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="37"/>
+    <col min="19" max="19" width="5.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="47" width="5.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
         <v>185</v>
       </c>
@@ -13443,7 +14878,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>155</v>
       </c>
@@ -13451,7 +14886,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2002</v>
       </c>
@@ -13591,7 +15026,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
         <v>93</v>
       </c>
@@ -13669,7 +15104,7 @@
       <c r="AU9" s="38"/>
       <c r="AV9" s="38"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
         <v>92</v>
       </c>
@@ -13747,7 +15182,7 @@
       <c r="AU10" s="38"/>
       <c r="AV10" s="38"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>186</v>
       </c>
